--- a/data/validation.xlsx
+++ b/data/validation.xlsx
@@ -871,55 +871,55 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45731</v>
+        <v>45738</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Middleweight</t>
+          <t>Welterweight</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4.266694358537039</v>
+        <v>1.540407103084384</v>
       </c>
       <c r="D2" t="n">
-        <v>3.359795814874739</v>
+        <v>1.319678817885933</v>
       </c>
       <c r="E2" t="n">
-        <v>1.372253666186917</v>
+        <v>0.5711994368948647</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6835327759388057</v>
+        <v>0.4454662790929879</v>
       </c>
       <c r="G2" t="n">
-        <v>5.8709325813995</v>
+        <v>90.87610596434769</v>
       </c>
       <c r="H2" t="n">
-        <v>64.10144835952801</v>
+        <v>9.62433622977095</v>
       </c>
       <c r="I2" t="n">
-        <v>33.02892087105523</v>
+        <v>5.840839504643835</v>
       </c>
       <c r="J2" t="n">
-        <v>1015</v>
+        <v>1042</v>
       </c>
       <c r="K2" t="n">
-        <v>637</v>
+        <v>238</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>34232</v>
+        <v>33475</v>
       </c>
       <c r="N2" t="n">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="O2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Marvin Vettori</t>
+          <t>Leon Edwards</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -931,129 +931,129 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>4.24</v>
+        <v>2.37</v>
       </c>
       <c r="T2" t="n">
-        <v>4.56</v>
+        <v>2.68</v>
       </c>
       <c r="U2" t="n">
-        <v>0.45</v>
+        <v>0.53</v>
       </c>
       <c r="V2" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="W2" t="n">
-        <v>0.45</v>
+        <v>0.36</v>
       </c>
       <c r="X2" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.66</v>
+        <v>1.25</v>
       </c>
       <c r="Z2" t="n">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="AA2" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.0001233612210711508</v>
+        <v>0.03126264655126531</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.0001224582818508688</v>
+        <v>0.03126231729769754</v>
       </c>
       <c r="AD2" t="n">
-        <v>54.6959148583751</v>
+        <v>8.05836434890282</v>
       </c>
       <c r="AE2" t="n">
-        <v>24.51539415284794</v>
+        <v>4.403920040011218</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.313225746154851e-10</v>
+        <v>3.051804469579762e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>6.511216170023832</v>
+        <v>0.6280268612298772</v>
       </c>
       <c r="AH2" t="n">
-        <v>5.837386137553209</v>
+        <v>0.5939692431373695</v>
       </c>
       <c r="AI2" t="n">
-        <v>1.86264514923097e-09</v>
+        <v>0.515625000001819</v>
       </c>
       <c r="AJ2" t="n">
-        <v>65.47382538693599</v>
+        <v>10.22679831321708</v>
       </c>
       <c r="AK2" t="n">
-        <v>33.71257610527589</v>
+        <v>6.31756810103452</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.5176073861484912</v>
+        <v>0.589800437848119</v>
       </c>
       <c r="AM2" t="n">
-        <v>1.210719702271498e-07</v>
+        <v>0.04687690734966332</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.2557828590146674</v>
+        <v>0.4220246687551901</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.2500911066607987</v>
+        <v>0.4140651100342552</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.2500716695468268</v>
+        <v>0.4101576131325131</v>
       </c>
       <c r="AQ2" t="n">
-        <v>65.48963649324482</v>
+        <v>18.33018955355905</v>
       </c>
       <c r="AR2" t="n">
-        <v>33.72799186235363</v>
+        <v>14.17092866819663</v>
       </c>
       <c r="AS2" t="n">
-        <v>5.219992644190569</v>
+        <v>2.682700715386953</v>
       </c>
       <c r="AT2" t="n">
-        <v>3.729502640053709</v>
+        <v>1.89558230585841</v>
       </c>
       <c r="AU2" t="n">
-        <v>1.251729108444724</v>
+        <v>2.19922389974879</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.6450682474693133</v>
+        <v>1.69922324409762</v>
       </c>
       <c r="AW2" t="n">
-        <v>66.19943616388548</v>
+        <v>118.1160935301892</v>
       </c>
       <c r="AX2" t="n">
-        <v>45.07887879249093</v>
+        <v>34.2641492204844</v>
       </c>
       <c r="AY2" t="n">
-        <v>22.0098627510626</v>
+        <v>20.90981470463451</v>
       </c>
       <c r="AZ2" t="n">
-        <v>675</v>
+        <v>838</v>
       </c>
       <c r="BA2" t="n">
-        <v>161</v>
+        <v>196</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="BC2" s="2" t="n">
-        <v>32339</v>
+        <v>33931</v>
       </c>
       <c r="BD2" t="n">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="BE2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>Roman Dolidze</t>
+          <t>Sean Brady</t>
         </is>
       </c>
       <c r="BG2" t="n">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="BH2" t="inlineStr">
         <is>
@@ -1061,139 +1061,139 @@
         </is>
       </c>
       <c r="BI2" t="n">
-        <v>3.38</v>
+        <v>3.18</v>
       </c>
       <c r="BJ2" t="n">
-        <v>3.16</v>
+        <v>4.09</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.42</v>
+        <v>0.55</v>
       </c>
       <c r="BL2" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.42</v>
+        <v>0.52</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.33</v>
+        <v>0.85</v>
       </c>
       <c r="BO2" t="n">
-        <v>1.33</v>
+        <v>3.49</v>
       </c>
       <c r="BP2" t="n">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="BQ2" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="BR2" t="n">
-        <v>12.25391162198519</v>
+        <v>0.1191884421334794</v>
       </c>
       <c r="BS2" t="n">
-        <v>8.003084957691579</v>
+        <v>0.08768273445161992</v>
       </c>
       <c r="BT2" t="n">
-        <v>44.4288501569286</v>
+        <v>29.61502154052514</v>
       </c>
       <c r="BU2" t="n">
-        <v>19.38346357296299</v>
+        <v>16.79789123510018</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.0001221001184612548</v>
+        <v>1.192093037616377e-07</v>
       </c>
       <c r="BW2" t="n">
-        <v>8.935676721801659</v>
+        <v>4.284839306454575</v>
       </c>
       <c r="BX2" t="n">
-        <v>7.545049743206791</v>
+        <v>4.003247142225163</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.03125190828001226</v>
+        <v>3.051758176297924e-05</v>
       </c>
       <c r="BZ2" t="n">
-        <v>58.58451952292084</v>
+        <v>36.58256156236667</v>
       </c>
       <c r="CA2" t="n">
-        <v>30.65801595622349</v>
+        <v>22.69672068318375</v>
       </c>
       <c r="CB2" t="n">
-        <v>0.4937734029821575</v>
+        <v>0.6145080929408184</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.0006744265757330232</v>
+        <v>0.09390641378240749</v>
       </c>
       <c r="CD2" t="n">
-        <v>1.192468142284994</v>
+        <v>3.340193789028381</v>
       </c>
       <c r="CE2" t="n">
-        <v>0.2500314190993136</v>
+        <v>1.385838196973586</v>
       </c>
       <c r="CF2" t="n">
-        <v>0.1250108851495649</v>
+        <v>0.4041990094422113</v>
       </c>
       <c r="CG2" t="n">
-        <v>59.89496385738146</v>
+        <v>68.49739509789885</v>
       </c>
       <c r="CH2" t="n">
-        <v>31.83403339487414</v>
+        <v>53.80995831608276</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45731</v>
+        <v>45738</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Welterweight</t>
+          <t>Light Heavyweight</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>21.36015138566719</v>
+        <v>3.872744648016742</v>
       </c>
       <c r="D3" t="n">
-        <v>17.92858014894396</v>
+        <v>1.61940965558519</v>
       </c>
       <c r="E3" t="n">
-        <v>27.74850445611036</v>
+        <v>1.58485944515075</v>
       </c>
       <c r="F3" t="n">
-        <v>24.18288365278965</v>
+        <v>1.022164861923996</v>
       </c>
       <c r="G3" t="n">
-        <v>156.8492247588817</v>
+        <v>132.4193919955077</v>
       </c>
       <c r="H3" t="n">
-        <v>21.02624832132829</v>
+        <v>16.76933990217769</v>
       </c>
       <c r="I3" t="n">
-        <v>12.69466487608351</v>
+        <v>10.20700007975618</v>
       </c>
       <c r="J3" t="n">
-        <v>582</v>
+        <v>786</v>
       </c>
       <c r="K3" t="n">
-        <v>154</v>
+        <v>602</v>
       </c>
       <c r="L3" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>32508</v>
+        <v>30371</v>
       </c>
       <c r="N3" t="n">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="O3" t="n">
         <v>10</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Chidi Njokuani</t>
+          <t>Jan Blachowicz</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -1201,265 +1201,265 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>2.67</v>
+        <v>2.91</v>
       </c>
       <c r="T3" t="n">
-        <v>4.59</v>
+        <v>3.41</v>
       </c>
       <c r="U3" t="n">
-        <v>0.63</v>
+        <v>0.5</v>
       </c>
       <c r="V3" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>205</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>2.318879726461899</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>2.310945125636362</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>14.3699235499939</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>9.772356954166526</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.0001530658955744003</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>2.430410875779695</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>2.148343457564828</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>20.67307907379034</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>13.54011006731654</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0.686111296397561</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0.5625000149593762</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>1.759277402149183</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0.756835957589438</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0.3383593943871942</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>32.32953147905242</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>24.093043021108</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>3.725080876518342</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>2.612158945248123</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>0.4699383507294146</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0.4540072025880486</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>6.562961606543368</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>50.9837636574498</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>23.42568516144784</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>417</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>119</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BC3" s="2" t="n">
+        <v>33184</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>193</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF3" t="inlineStr">
+        <is>
+          <t>Carlos Ulberg</t>
+        </is>
+      </c>
+      <c r="BG3" t="n">
+        <v>77</v>
+      </c>
+      <c r="BH3" t="inlineStr">
+        <is>
+          <t>Orthodox</t>
+        </is>
+      </c>
+      <c r="BI3" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="BL3" t="n">
         <v>0.2</v>
       </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>170</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>24</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>0.0008545965083628373</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>0.0008545965083628373</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>20.9943840800879</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>13.19484800390673</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>0.000366255646441216</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>6.421071908191918</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>5.754974972530826</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>48.77560737394701</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>36.87840312538152</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>0.7425955316811135</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>0.0002441704309608106</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>0.2812843364668539</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>65.06201928946405</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>52.72506409473813</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>3.181934117646465</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>1.004578561645791</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>2.062104472308872</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>1.21022786975089</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>107.3847324502668</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>26.80105601395772</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>9.752002392129739</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>719</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>126</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="BC3" s="2" t="n">
-        <v>31757</v>
-      </c>
-      <c r="BD3" t="n">
-        <v>180</v>
-      </c>
-      <c r="BE3" t="n">
-        <v>8</v>
-      </c>
-      <c r="BF3" t="inlineStr">
-        <is>
-          <t>Elizeu Zaleski dos Santos</t>
-        </is>
-      </c>
-      <c r="BG3" t="n">
-        <v>73</v>
-      </c>
-      <c r="BH3" t="inlineStr">
-        <is>
-          <t>Orthodox</t>
-        </is>
-      </c>
-      <c r="BI3" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="BJ3" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="BK3" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="BL3" t="n">
-        <v>0.5</v>
-      </c>
       <c r="BM3" t="n">
-        <v>0.2</v>
+        <v>0.75</v>
       </c>
       <c r="BN3" t="n">
-        <v>0.68</v>
+        <v>0.83</v>
       </c>
       <c r="BO3" t="n">
-        <v>0.7</v>
+        <v>0.72</v>
       </c>
       <c r="BP3" t="n">
-        <v>170</v>
+        <v>205</v>
       </c>
       <c r="BQ3" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="BR3" t="n">
-        <v>0.2839515625694472</v>
+        <v>1.519868156015382</v>
       </c>
       <c r="BS3" t="n">
-        <v>0.2834565999821895</v>
+        <v>1.154367331990478</v>
       </c>
       <c r="BT3" t="n">
-        <v>19.30531650898269</v>
+        <v>45.71781724958799</v>
       </c>
       <c r="BU3" t="n">
-        <v>3.919503179378222</v>
+        <v>19.17286211316609</v>
       </c>
       <c r="BV3" t="n">
-        <v>1.192092895516486e-06</v>
+        <v>0.1543062931087102</v>
       </c>
       <c r="BW3" t="n">
-        <v>6.659861422206886</v>
+        <v>3.530672038088262</v>
       </c>
       <c r="BX3" t="n">
-        <v>6.321605120838806</v>
+        <v>3.249038637612159</v>
       </c>
       <c r="BY3" t="n">
-        <v>8.731149137083639e-11</v>
+        <v>0</v>
       </c>
       <c r="BZ3" t="n">
-        <v>29.14711204883604</v>
+        <v>52.97357016419459</v>
       </c>
       <c r="CA3" t="n">
-        <v>11.24568686186282</v>
+        <v>25.03405969602637</v>
       </c>
       <c r="CB3" t="n">
-        <v>0.3874461663741927</v>
+        <v>0.4875523408411158</v>
       </c>
       <c r="CC3" t="n">
-        <v>0.2500019111339498</v>
+        <v>0.06250381493011048</v>
       </c>
       <c r="CD3" t="n">
-        <v>1.964892050600355</v>
+        <v>0.1262284074955747</v>
       </c>
       <c r="CE3" t="n">
-        <v>1.250154500836289</v>
+        <v>0.0637245925654642</v>
       </c>
       <c r="CF3" t="n">
-        <v>0.6501544983359793</v>
+        <v>0.03247268510040896</v>
       </c>
       <c r="CG3" t="n">
-        <v>34.48214358033498</v>
+        <v>53.57004211682842</v>
       </c>
       <c r="CH3" t="n">
-        <v>15.67823683741647</v>
+        <v>25.56802783373008</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45731</v>
+        <v>45738</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Lightweight</t>
+          <t>Welterweight</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>11.10511973877676</v>
+        <v>2.208286368336595</v>
       </c>
       <c r="D4" t="n">
-        <v>5.848893714532672</v>
+        <v>2.188615848819869</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3109088504272088</v>
+        <v>0.7783978173458943</v>
       </c>
       <c r="F4" t="n">
-        <v>0.005648341032512645</v>
+        <v>0.6143190862178614</v>
       </c>
       <c r="G4" t="n">
-        <v>22.38921877061446</v>
+        <v>173.2531452880365</v>
       </c>
       <c r="H4" t="n">
-        <v>56.78123347357904</v>
+        <v>5.86914856728845</v>
       </c>
       <c r="I4" t="n">
-        <v>21.32370316485115</v>
+        <v>2.914387090577368</v>
       </c>
       <c r="J4" t="n">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="K4" t="n">
-        <v>161</v>
+        <v>735</v>
       </c>
       <c r="L4" t="n">
-        <v>0.57</v>
+        <v>0.49</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>33878</v>
+        <v>32352</v>
       </c>
       <c r="N4" t="n">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="O4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Alexander Hernandez</t>
+          <t>Gunnar Nelson</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -1467,403 +1467,403 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
+          <t>Switch</t>
+        </is>
+      </c>
+      <c r="S4" t="n">
+        <v>3</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>170</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>7.274450423027028</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>7.258823493323015</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>11.2622934284765</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>8.186559787296355</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>9.536743166282946e-07</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0.4514170108482747</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0.4123540340020214</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>1.144409179953954e-05</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>13.92199680766137</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>10.78752967011825</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0.770130193892431</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0.5011301232737326</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0.9542717863699123</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0.8882923628874804</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0.885278446638323</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>57.36089343632592</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>47.76347081031732</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>3.946238428766918</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>2.78716442016107</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0.3250697618257671</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0.2515623605301657</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>23.96084593476268</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>24.20743138385011</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>13.02623827943092</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>618</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>63</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BC4" s="2" t="n">
+        <v>33913</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>190</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>13</v>
+      </c>
+      <c r="BF4" t="inlineStr">
+        <is>
+          <t>Kevin Holland</t>
+        </is>
+      </c>
+      <c r="BG4" t="n">
+        <v>81</v>
+      </c>
+      <c r="BH4" t="inlineStr">
+        <is>
           <t>Orthodox</t>
         </is>
       </c>
-      <c r="S4" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="T4" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>155</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>0.5167548183895437</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>0.3894353371064343</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>40.09594058901814</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>10.80940420171684</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>0.1250162129872554</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>6.407836814600898</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>5.060488926740591</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>0.001953128726199795</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>57.6088971423958</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>21.7187868429901</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>0.3793954681741984</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>0.0001220703125568434</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>0.7688923965994698</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>0.0002453429625580753</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>0.0001225086581532418</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>64.25938273326466</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>27.55481927867737</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>9.2476978126359</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>7.400988777075019</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>8.084290193864394</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>5.054245408976814</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>75.35941588909827</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>53.59727933715314</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>27.98167405452007</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>662</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>238</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="BC4" s="2" t="n">
-        <v>31663</v>
-      </c>
-      <c r="BD4" t="n">
-        <v>180</v>
-      </c>
-      <c r="BE4" t="n">
-        <v>8</v>
-      </c>
-      <c r="BF4" t="inlineStr">
-        <is>
-          <t>Kurt Holobaugh</t>
-        </is>
-      </c>
-      <c r="BG4" t="n">
-        <v>70</v>
-      </c>
-      <c r="BH4" t="inlineStr">
-        <is>
-          <t>Orthodox</t>
-        </is>
-      </c>
       <c r="BI4" t="n">
-        <v>4.35</v>
+        <v>3.22</v>
       </c>
       <c r="BJ4" t="n">
-        <v>4.63</v>
+        <v>4.22</v>
       </c>
       <c r="BK4" t="n">
-        <v>0.45</v>
+        <v>0.49</v>
       </c>
       <c r="BL4" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="BM4" t="n">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="BN4" t="n">
-        <v>0.42</v>
+        <v>0.53</v>
       </c>
       <c r="BO4" t="n">
-        <v>0.76</v>
+        <v>0.82</v>
       </c>
       <c r="BP4" t="n">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="BQ4" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="BR4" t="n">
-        <v>0.1462566090134355</v>
+        <v>0.6306367122590008</v>
       </c>
       <c r="BS4" t="n">
-        <v>0.1304026062210558</v>
+        <v>0.5031886288612943</v>
       </c>
       <c r="BT4" t="n">
-        <v>48.39900511936278</v>
+        <v>14.14731286593537</v>
       </c>
       <c r="BU4" t="n">
-        <v>22.03225732618199</v>
+        <v>4.87633155890361</v>
       </c>
       <c r="BV4" t="n">
-        <v>0.0004882849753187204</v>
+        <v>0.000977516184320848</v>
       </c>
       <c r="BW4" t="n">
-        <v>4.181123208032288</v>
+        <v>7.069586563232599</v>
       </c>
       <c r="BX4" t="n">
-        <v>3.733075966460926</v>
+        <v>6.117493289757697</v>
       </c>
       <c r="BY4" t="n">
-        <v>0</v>
+        <v>2.380318164796336e-13</v>
       </c>
       <c r="BZ4" t="n">
-        <v>61.82782614003097</v>
+        <v>25.16313785793488</v>
       </c>
       <c r="CA4" t="n">
-        <v>33.16632206971794</v>
+        <v>13.78098926882238</v>
       </c>
       <c r="CB4" t="n">
-        <v>0.4969781263589963</v>
+        <v>0.5298549392699996</v>
       </c>
       <c r="CC4" t="n">
-        <v>0.03128075623135552</v>
+        <v>0.3144569396975037</v>
       </c>
       <c r="CD4" t="n">
-        <v>1.518917228067231</v>
+        <v>0.5162086564676345</v>
       </c>
       <c r="CE4" t="n">
-        <v>0.5079537044807776</v>
+        <v>0.1875915604182627</v>
       </c>
       <c r="CF4" t="n">
-        <v>0.2520313417918533</v>
+        <v>0.072591560301835</v>
       </c>
       <c r="CG4" t="n">
-        <v>91.26018722677023</v>
+        <v>36.32595503652597</v>
       </c>
       <c r="CH4" t="n">
-        <v>56.77049080269472</v>
+        <v>24.75630142975216</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45731</v>
+        <v>45738</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bantamweight</t>
+          <t>Women's Strawweight</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3.904203323558162</v>
+        <v>6.905506625595515</v>
       </c>
       <c r="D5" t="n">
-        <v>2.801564027370479</v>
+        <v>4.727116608483934</v>
       </c>
       <c r="E5" t="n">
-        <v>5.259042033235581</v>
+        <v>1.102478029397275</v>
       </c>
       <c r="F5" t="n">
-        <v>4.592375366568914</v>
+        <v>0.8356980026433207</v>
       </c>
       <c r="G5" t="n">
-        <v>21.23460410557185</v>
+        <v>86.40955595375887</v>
       </c>
       <c r="H5" t="n">
-        <v>22.34017595307918</v>
+        <v>26.46099636230803</v>
       </c>
       <c r="I5" t="n">
-        <v>8.890518084066471</v>
+        <v>12.44202458568294</v>
       </c>
       <c r="J5" t="n">
-        <v>534</v>
+        <v>638</v>
       </c>
       <c r="K5" t="n">
-        <v>126</v>
+        <v>238</v>
       </c>
       <c r="L5" t="n">
-        <v>0.49</v>
+        <v>0.62</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>34558</v>
+        <v>32997</v>
       </c>
       <c r="N5" t="n">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="O5" t="n">
         <v>7</v>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Da'Mon Blackshear</t>
+          <t>Molly McCann</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Switch</t>
+          <t>Orthodox</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>4.06</v>
+        <v>4.72</v>
       </c>
       <c r="T5" t="n">
-        <v>4.3</v>
+        <v>5.39</v>
       </c>
       <c r="U5" t="n">
-        <v>0.47</v>
+        <v>0.49</v>
       </c>
       <c r="V5" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="W5" t="n">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="X5" t="n">
-        <v>0.68</v>
+        <v>0.39</v>
       </c>
       <c r="Y5" t="n">
-        <v>2.17</v>
+        <v>1.84</v>
       </c>
       <c r="Z5" t="n">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="AA5" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AB5" t="n">
-        <v>1.038123167155425</v>
+        <v>1.961407642739653</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.5767350928641251</v>
+        <v>1.305021646069403</v>
       </c>
       <c r="AD5" t="n">
-        <v>20.95503421309873</v>
+        <v>21.30182682592762</v>
       </c>
       <c r="AE5" t="n">
-        <v>7.635386119257087</v>
+        <v>8.819396113640435</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>0.02343750004365575</v>
       </c>
       <c r="AG5" t="n">
-        <v>3.778103616813294</v>
+        <v>1.317548582921826</v>
       </c>
       <c r="AH5" t="n">
-        <v>3.622678396871945</v>
+        <v>1.036231512271299</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.01955034213098729</v>
+        <v>7.450580610801616e-09</v>
       </c>
       <c r="AJ5" t="n">
-        <v>28.63734115347018</v>
+        <v>29.52488203444496</v>
       </c>
       <c r="AK5" t="n">
-        <v>14.05962854349951</v>
+        <v>14.58274423439567</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.7387976539589443</v>
+        <v>0.5057410018252972</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.03519061583577712</v>
+        <v>0.1250620039646737</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.7174975562072335</v>
+        <v>2.274449695412907</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.3225806451612903</v>
+        <v>1.008548954517672</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.07057673509286412</v>
+        <v>0.4420173510946657</v>
       </c>
       <c r="AQ5" t="n">
-        <v>31.81818181818182</v>
+        <v>40.03471928655118</v>
       </c>
       <c r="AR5" t="n">
-        <v>17.06060606060606</v>
+        <v>24.33855221111058</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.514326150230981</v>
+        <v>0</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.5608389314229256</v>
+        <v>0</v>
       </c>
       <c r="AU5" t="n">
-        <v>0.8491014446313653</v>
+        <v>0</v>
       </c>
       <c r="AV5" t="n">
-        <v>0.5708411058086617</v>
+        <v>0</v>
       </c>
       <c r="AW5" t="n">
-        <v>216.8266251626021</v>
+        <v>0</v>
       </c>
       <c r="AX5" t="n">
-        <v>10.18754649180028</v>
+        <v>0</v>
       </c>
       <c r="AY5" t="n">
-        <v>3.69480779574507</v>
+        <v>0</v>
       </c>
       <c r="AZ5" t="n">
-        <v>672</v>
+        <v>900</v>
       </c>
       <c r="BA5" t="n">
-        <v>133</v>
+        <v>0</v>
       </c>
       <c r="BB5" t="n">
-        <v>0.57</v>
+        <v>0.71</v>
       </c>
       <c r="BC5" s="2" t="n">
-        <v>32031</v>
+        <v>35023</v>
       </c>
       <c r="BD5" t="n">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="BE5" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>Cody Gibson</t>
+          <t>Alexia Thainara</t>
         </is>
       </c>
       <c r="BG5" t="n">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="BH5" t="inlineStr">
         <is>
@@ -1871,153 +1871,153 @@
         </is>
       </c>
       <c r="BI5" t="n">
-        <v>3.36</v>
+        <v>3.07</v>
       </c>
       <c r="BJ5" t="n">
-        <v>3.47</v>
+        <v>6.73</v>
       </c>
       <c r="BK5" t="n">
-        <v>0.44</v>
+        <v>0.39</v>
       </c>
       <c r="BL5" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="BM5" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="BN5" t="n">
-        <v>0.68</v>
+        <v>0</v>
       </c>
       <c r="BO5" t="n">
-        <v>2.18</v>
+        <v>3</v>
       </c>
       <c r="BP5" t="n">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="BQ5" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="BR5" t="n">
-        <v>5.375951293759512</v>
+        <v>0</v>
       </c>
       <c r="BS5" t="n">
-        <v>4.500528337586736</v>
+        <v>0</v>
       </c>
       <c r="BT5" t="n">
-        <v>13.5924857806617</v>
+        <v>0</v>
       </c>
       <c r="BU5" t="n">
-        <v>7.417638464502199</v>
+        <v>0</v>
       </c>
       <c r="BV5" t="n">
-        <v>0.0001525884727038296</v>
+        <v>0</v>
       </c>
       <c r="BW5" t="n">
-        <v>1.305787299298474</v>
+        <v>0</v>
       </c>
       <c r="BX5" t="n">
-        <v>0.7876998432153443</v>
+        <v>0</v>
       </c>
       <c r="BY5" t="n">
         <v>0</v>
       </c>
       <c r="BZ5" t="n">
-        <v>16.41259923019116</v>
+        <v>0</v>
       </c>
       <c r="CA5" t="n">
-        <v>8.766177239140468</v>
+        <v>0</v>
       </c>
       <c r="CB5" t="n">
-        <v>0.5774448678774562</v>
+        <v>0</v>
       </c>
       <c r="CC5" t="n">
-        <v>0.8750109672964755</v>
+        <v>0</v>
       </c>
       <c r="CD5" t="n">
-        <v>2.35453550161553</v>
+        <v>0</v>
       </c>
       <c r="CE5" t="n">
-        <v>1.281403661360403</v>
+        <v>0</v>
       </c>
       <c r="CF5" t="n">
-        <v>0.5578845515615523</v>
+        <v>0</v>
       </c>
       <c r="CG5" t="n">
-        <v>38.11734435022106</v>
+        <v>0</v>
       </c>
       <c r="CH5" t="n">
-        <v>24.42388696245942</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45731</v>
+        <v>45738</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Light Heavyweight</t>
+          <t>Lightweight</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>5.999999999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>76.66666666666666</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>10.66666666666667</v>
       </c>
       <c r="J6" t="n">
-        <v>512</v>
+        <v>900</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>231</v>
       </c>
       <c r="L6" t="n">
-        <v>0.66</v>
+        <v>0.55</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>35542</v>
+        <v>35126</v>
       </c>
       <c r="N6" t="n">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Diyar Nurgozhay</t>
+          <t>Jordan Vucenic</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Southpaw</t>
+          <t>Orthodox</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="T6" t="n">
-        <v>3.52</v>
+        <v>2.27</v>
       </c>
       <c r="U6" t="n">
-        <v>0.52</v>
+        <v>0.4</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -2026,55 +2026,55 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>155</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="AC6" t="n">
         <v>1</v>
       </c>
-      <c r="Y6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>205</v>
-      </c>
-      <c r="AA6" t="n">
+      <c r="AD6" t="n">
+        <v>32.33333333333333</v>
+      </c>
+      <c r="AE6" t="n">
         <v>10</v>
       </c>
-      <c r="AB6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>0</v>
-      </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="AI6" t="n">
         <v>0</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="AK6" t="n">
-        <v>0</v>
+        <v>15.66666666666667</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>0.3966666666666666</v>
       </c>
       <c r="AM6" t="n">
         <v>0</v>
       </c>
       <c r="AN6" t="n">
-        <v>0</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="AO6" t="n">
         <v>0</v>
@@ -2083,57 +2083,57 @@
         <v>0</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0</v>
+        <v>55.66666666666666</v>
       </c>
       <c r="AR6" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AS6" t="n">
-        <v>6.285714285714286</v>
+        <v>5.21259842519685</v>
       </c>
       <c r="AT6" t="n">
-        <v>3.492063492063492</v>
+        <v>4.220472440944881</v>
       </c>
       <c r="AU6" t="n">
-        <v>0.1587301587301587</v>
+        <v>1.535433070866142</v>
       </c>
       <c r="AV6" t="n">
-        <v>0.09523809523809523</v>
+        <v>0.7795275590551181</v>
       </c>
       <c r="AW6" t="n">
-        <v>4.317460317460317</v>
+        <v>40.34645669291339</v>
       </c>
       <c r="AX6" t="n">
-        <v>28.93650793650794</v>
+        <v>33.62992125984252</v>
       </c>
       <c r="AY6" t="n">
-        <v>11.04761904761905</v>
+        <v>15.01574803149606</v>
       </c>
       <c r="AZ6" t="n">
-        <v>532</v>
+        <v>425</v>
       </c>
       <c r="BA6" t="n">
-        <v>133</v>
+        <v>175</v>
       </c>
       <c r="BB6" t="n">
-        <v>0.54</v>
+        <v>0.48</v>
       </c>
       <c r="BC6" s="2" t="n">
-        <v>35316</v>
+        <v>34099</v>
       </c>
       <c r="BD6" t="n">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="BE6" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>Brendson Ribeiro</t>
+          <t>Chris Duncan</t>
         </is>
       </c>
       <c r="BG6" t="n">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="BH6" t="inlineStr">
         <is>
@@ -2141,87 +2141,87 @@
         </is>
       </c>
       <c r="BI6" t="n">
-        <v>3.92</v>
+        <v>4</v>
       </c>
       <c r="BJ6" t="n">
-        <v>3.16</v>
+        <v>4.7</v>
       </c>
       <c r="BK6" t="n">
-        <v>0.42</v>
+        <v>0.46</v>
       </c>
       <c r="BL6" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="BM6" t="n">
-        <v>0.5</v>
+        <v>0.37</v>
       </c>
       <c r="BN6" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="BO6" t="n">
-        <v>1.27</v>
+        <v>3.53</v>
       </c>
       <c r="BP6" t="n">
-        <v>205</v>
+        <v>155</v>
       </c>
       <c r="BQ6" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="BR6" t="n">
-        <v>0.03174603174603174</v>
+        <v>0.1417322834645669</v>
       </c>
       <c r="BS6" t="n">
-        <v>0.03174603174603174</v>
+        <v>0.1417322834645669</v>
       </c>
       <c r="BT6" t="n">
-        <v>17.95238095238095</v>
+        <v>28.13385826771653</v>
       </c>
       <c r="BU6" t="n">
-        <v>4.571428571428571</v>
+        <v>10.74015748031496</v>
       </c>
       <c r="BV6" t="n">
         <v>0</v>
       </c>
       <c r="BW6" t="n">
-        <v>4.888888888888888</v>
+        <v>1.960629921259842</v>
       </c>
       <c r="BX6" t="n">
-        <v>3.111111111111111</v>
+        <v>0.9763779527559056</v>
       </c>
       <c r="BY6" t="n">
-        <v>0.06349206349206349</v>
+        <v>0</v>
       </c>
       <c r="BZ6" t="n">
-        <v>29.12698412698413</v>
+        <v>35.30708661417323</v>
       </c>
       <c r="CA6" t="n">
-        <v>11.17460317460317</v>
+        <v>15.93700787401575</v>
       </c>
       <c r="CB6" t="n">
-        <v>0.3836507936507936</v>
+        <v>0.48</v>
       </c>
       <c r="CC6" t="n">
-        <v>0.06349206349206349</v>
+        <v>0</v>
       </c>
       <c r="CD6" t="n">
-        <v>0.2857142857142857</v>
+        <v>2.519685039370079</v>
       </c>
       <c r="CE6" t="n">
-        <v>0.09523809523809523</v>
+        <v>0.9606299212598425</v>
       </c>
       <c r="CF6" t="n">
-        <v>0.01904761904761905</v>
+        <v>0.3763779527559055</v>
       </c>
       <c r="CG6" t="n">
-        <v>30.3015873015873</v>
+        <v>36.25196850393701</v>
       </c>
       <c r="CH6" t="n">
-        <v>12.22222222222222</v>
+        <v>16.62992125984252</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45731</v>
+        <v>45738</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -2229,51 +2229,51 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5.551408660747685</v>
+        <v>6.157059515972677</v>
       </c>
       <c r="D7" t="n">
-        <v>2.614911226012999</v>
+        <v>5.526351279137983</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7499520182495161</v>
+        <v>0.531677641469685</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3897384142252002</v>
+        <v>0.3989478949447609</v>
       </c>
       <c r="G7" t="n">
-        <v>106.3606749440849</v>
+        <v>84.58490559326941</v>
       </c>
       <c r="H7" t="n">
-        <v>38.62994328259069</v>
+        <v>37.1099566874187</v>
       </c>
       <c r="I7" t="n">
-        <v>17.28311378553242</v>
+        <v>24.85294758794172</v>
       </c>
       <c r="J7" t="n">
-        <v>629</v>
+        <v>788</v>
       </c>
       <c r="K7" t="n">
         <v>238</v>
       </c>
       <c r="L7" t="n">
-        <v>0.47</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>33911</v>
+        <v>34097</v>
       </c>
       <c r="N7" t="n">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="O7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>SeungWoo Choi</t>
+          <t>Nathaniel Wood</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -2281,740 +2281,740 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>3.12</v>
+        <v>4</v>
       </c>
       <c r="T7" t="n">
-        <v>3.51</v>
+        <v>5.75</v>
       </c>
       <c r="U7" t="n">
-        <v>0.39</v>
+        <v>0.51</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="W7" t="n">
-        <v>0.54</v>
+        <v>0.48</v>
       </c>
       <c r="X7" t="n">
-        <v>0.7</v>
+        <v>0.72</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.86</v>
+        <v>1.56</v>
       </c>
       <c r="Z7" t="n">
         <v>145</v>
       </c>
       <c r="AA7" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="AB7" t="n">
-        <v>1.466833464344374</v>
+        <v>7.107666461828785</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.8596555852068866</v>
+        <v>5.681396847294081</v>
       </c>
       <c r="AD7" t="n">
-        <v>25.49341666541497</v>
+        <v>29.10680946903938</v>
       </c>
       <c r="AE7" t="n">
-        <v>7.696020530705578</v>
+        <v>17.58751364758938</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.5654603398943758</v>
+        <v>0.5039062541945896</v>
       </c>
       <c r="AG7" t="n">
-        <v>9.801903439021931</v>
+        <v>9.485431805705122</v>
       </c>
       <c r="AH7" t="n">
-        <v>8.221576028245932</v>
+        <v>7.819427403453204</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>2.980232241545089e-08</v>
       </c>
       <c r="AJ7" t="n">
-        <v>40.84672876518459</v>
+        <v>44.74930079071717</v>
       </c>
       <c r="AK7" t="n">
-        <v>18.53250778496451</v>
+        <v>30.93329233018057</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.4556694688008949</v>
+        <v>0.7061778032837229</v>
       </c>
       <c r="AM7" t="n">
-        <v>0</v>
+        <v>1.061707736050438e-07</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.3602410221674495</v>
+        <v>0.5358651061876352</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.2816258148254907</v>
+        <v>0.1090128348292903</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.2816258148254907</v>
+        <v>0.04633703116917706</v>
       </c>
       <c r="AQ7" t="n">
-        <v>65.8200308847501</v>
+        <v>52.07561649482289</v>
       </c>
       <c r="AR7" t="n">
-        <v>39.22120647936022</v>
+        <v>37.42995342186648</v>
       </c>
       <c r="AS7" t="n">
-        <v>0</v>
+        <v>2.967741935483871</v>
       </c>
       <c r="AT7" t="n">
-        <v>0</v>
+        <v>2.870967741935484</v>
       </c>
       <c r="AU7" t="n">
-        <v>0</v>
+        <v>1.516129032258065</v>
       </c>
       <c r="AV7" t="n">
-        <v>0</v>
+        <v>0.8709677419354839</v>
       </c>
       <c r="AW7" t="n">
-        <v>0</v>
+        <v>110.3548387096774</v>
       </c>
       <c r="AX7" t="n">
-        <v>0</v>
+        <v>23.12903225806452</v>
       </c>
       <c r="AY7" t="n">
-        <v>0</v>
+        <v>11.58064516129032</v>
       </c>
       <c r="AZ7" t="n">
-        <v>522</v>
+        <v>486</v>
       </c>
       <c r="BA7" t="n">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="BB7" t="n">
-        <v>0.55</v>
+        <v>0.57</v>
       </c>
       <c r="BC7" s="2" t="n">
-        <v>37233</v>
+        <v>34998</v>
       </c>
       <c r="BD7" t="n">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="BE7" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>Kevin Vallejos</t>
+          <t>Morgan Charriere</t>
         </is>
       </c>
       <c r="BG7" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>Switch</t>
+          <t>Orthodox</t>
         </is>
       </c>
       <c r="BI7" t="n">
-        <v>5.81</v>
+        <v>3.74</v>
       </c>
       <c r="BJ7" t="n">
-        <v>6.85</v>
+        <v>3.87</v>
       </c>
       <c r="BK7" t="n">
         <v>0.51</v>
       </c>
       <c r="BL7" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="BM7" t="n">
-        <v>0</v>
+        <v>0.57</v>
       </c>
       <c r="BN7" t="n">
-        <v>0.66</v>
+        <v>0.83</v>
       </c>
       <c r="BO7" t="n">
-        <v>0</v>
+        <v>2.47</v>
       </c>
       <c r="BP7" t="n">
         <v>145</v>
       </c>
       <c r="BQ7" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="BR7" t="n">
-        <v>0</v>
+        <v>3.645161290322581</v>
       </c>
       <c r="BS7" t="n">
-        <v>0</v>
+        <v>3.096774193548387</v>
       </c>
       <c r="BT7" t="n">
-        <v>0</v>
+        <v>22.87096774193548</v>
       </c>
       <c r="BU7" t="n">
-        <v>0</v>
+        <v>11.03225806451613</v>
       </c>
       <c r="BV7" t="n">
-        <v>0</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="BW7" t="n">
-        <v>0</v>
+        <v>2.451612903225806</v>
       </c>
       <c r="BX7" t="n">
-        <v>0</v>
+        <v>1.645161290322581</v>
       </c>
       <c r="BY7" t="n">
-        <v>0</v>
+        <v>0.5806451612903225</v>
       </c>
       <c r="BZ7" t="n">
-        <v>0</v>
+        <v>28.29032258064516</v>
       </c>
       <c r="CA7" t="n">
-        <v>0</v>
+        <v>15.54838709677419</v>
       </c>
       <c r="CB7" t="n">
-        <v>0</v>
+        <v>0.5338709677419355</v>
       </c>
       <c r="CC7" t="n">
-        <v>0</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="CD7" t="n">
-        <v>0</v>
+        <v>1.741935483870968</v>
       </c>
       <c r="CE7" t="n">
-        <v>0</v>
+        <v>1.419354838709677</v>
       </c>
       <c r="CF7" t="n">
-        <v>0</v>
+        <v>0.8167741935483871</v>
       </c>
       <c r="CG7" t="n">
-        <v>0</v>
+        <v>39.19354838709678</v>
       </c>
       <c r="CH7" t="n">
-        <v>0</v>
+        <v>24.90322580645161</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45731</v>
+        <v>45738</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Heavyweight</t>
+          <t>Lightweight</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1.534897915585803</v>
+        <v>13.52736705577172</v>
       </c>
       <c r="D8" t="n">
-        <v>0.99969481490524</v>
+        <v>9.237079423208973</v>
       </c>
       <c r="E8" t="n">
-        <v>1.180761131626331</v>
+        <v>2.58808270389868</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4297006134220405</v>
+        <v>1.900541695277333</v>
       </c>
       <c r="G8" t="n">
-        <v>150.0765404217658</v>
+        <v>23.00042725261311</v>
       </c>
       <c r="H8" t="n">
-        <v>17.7407452620014</v>
+        <v>46.30562294956893</v>
       </c>
       <c r="I8" t="n">
-        <v>8.690939054536576</v>
+        <v>20.78651102464332</v>
       </c>
       <c r="J8" t="n">
-        <v>700</v>
+        <v>675</v>
       </c>
       <c r="K8" t="n">
-        <v>308</v>
+        <v>231</v>
       </c>
       <c r="L8" t="n">
         <v>0.52</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>33514</v>
+        <v>32276</v>
       </c>
       <c r="N8" t="n">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="O8" t="n">
+        <v>5</v>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Jai Herbert</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
+        <v>77</v>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>Orthodox</t>
+        </is>
+      </c>
+      <c r="S8" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="T8" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>155</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0.2710765239948119</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0.01904325932707714</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>31.32085145342183</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>10.59143968871595</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0.2514991989013504</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>4.316563668268864</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>2.877576867322805</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>49.16478217746243</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>22.70609597924773</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>0.4567711909666591</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>0.5703212024109254</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>51.1205767910277</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>24.12712291142138</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>5.666666666666666</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>26.66666666666666</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>42.99999999999999</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>26.33333333333333</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>414</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>196</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="BC8" s="2" t="n">
+        <v>34956</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>175</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>6</v>
+      </c>
+      <c r="BF8" t="inlineStr">
+        <is>
+          <t>Chris Padilla</t>
+        </is>
+      </c>
+      <c r="BG8" t="n">
+        <v>74</v>
+      </c>
+      <c r="BH8" t="inlineStr">
+        <is>
+          <t>Orthodox</t>
+        </is>
+      </c>
+      <c r="BI8" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="BK8" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="BL8" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="BM8" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="BN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO8" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="BP8" t="n">
+        <v>155</v>
+      </c>
+      <c r="BQ8" t="n">
+        <v>15</v>
+      </c>
+      <c r="BR8" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="BS8" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="BT8" t="n">
+        <v>20.66666666666666</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>12.66666666666667</v>
+      </c>
+      <c r="BV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW8" t="n">
+        <v>17.66666666666667</v>
+      </c>
+      <c r="BX8" t="n">
+        <v>11.66666666666667</v>
+      </c>
+      <c r="BY8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ8" t="n">
+        <v>43.99999999999999</v>
+      </c>
+      <c r="CA8" t="n">
+        <v>27.33333333333333</v>
+      </c>
+      <c r="CB8" t="n">
+        <v>0.5933333333333333</v>
+      </c>
+      <c r="CC8" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="CD8" t="n">
         <v>1</v>
       </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>Waldo Cortes-Acosta</t>
-        </is>
-      </c>
-      <c r="Q8" t="n">
-        <v>78</v>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>Orthodox</t>
-        </is>
-      </c>
-      <c r="S8" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="T8" t="n">
-        <v>5.64</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>260</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>22.0045777764214</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>9.500289925840022</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>36.05151524399548</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>14.67445905941954</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>0.01562547685171056</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>3.339671010467849</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>2.946775719473861</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>40.92608417004914</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>18.62092959379864</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>0.479004486220893</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>0.250007629627369</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>1.251991332743309</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>0.750022888882107</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>0.500015259254738</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>61.83639027069918</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>34.28058717612232</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>3.970801325608564</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>2.095418067377155</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>0.5188613117802732</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>0.5184016403213886</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>57.87063681663209</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>30.84715542521994</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>9.657757432706292</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>319</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>161</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="BC8" s="2" t="n">
-        <v>33474</v>
-      </c>
-      <c r="BD8" t="n">
-        <v>196</v>
-      </c>
-      <c r="BE8" t="n">
-        <v>10</v>
-      </c>
-      <c r="BF8" t="inlineStr">
-        <is>
-          <t>Ryan Spann</t>
-        </is>
-      </c>
-      <c r="BG8" t="n">
-        <v>79</v>
-      </c>
-      <c r="BH8" t="inlineStr">
-        <is>
-          <t>Orthodox</t>
-        </is>
-      </c>
-      <c r="BI8" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="BJ8" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="BK8" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="BL8" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="BM8" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="BN8" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="BO8" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="BP8" t="n">
-        <v>205</v>
-      </c>
-      <c r="BQ8" t="n">
-        <v>22</v>
-      </c>
-      <c r="BR8" t="n">
-        <v>1.356533390553847</v>
-      </c>
-      <c r="BS8" t="n">
-        <v>1.086016737000215</v>
-      </c>
-      <c r="BT8" t="n">
-        <v>27.40798893736738</v>
-      </c>
-      <c r="BU8" t="n">
-        <v>7.822998831747848</v>
-      </c>
-      <c r="BV8" t="n">
-        <v>0.009773263715041842</v>
-      </c>
-      <c r="BW8" t="n">
-        <v>1.343759864578118</v>
-      </c>
-      <c r="BX8" t="n">
-        <v>1.343758910902892</v>
-      </c>
-      <c r="BY8" t="n">
-        <v>0.03125384450325441</v>
-      </c>
-      <c r="BZ8" t="n">
-        <v>32.72255012755406</v>
-      </c>
-      <c r="CA8" t="n">
-        <v>11.26217581002789</v>
-      </c>
-      <c r="CB8" t="n">
-        <v>0.3926480795365138</v>
-      </c>
-      <c r="CC8" t="n">
-        <v>0.2696325966192213</v>
-      </c>
-      <c r="CD8" t="n">
-        <v>1.074128221634123</v>
-      </c>
       <c r="CE8" t="n">
-        <v>0.266731516582028</v>
+        <v>1</v>
       </c>
       <c r="CF8" t="n">
-        <v>0.1333352406837851</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="CG8" t="n">
-        <v>34.47805831724006</v>
+        <v>44.99999999999999</v>
       </c>
       <c r="CH8" t="n">
-        <v>12.70518370169039</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45731</v>
+        <v>45738</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Bantamweight</t>
+          <t>Flyweight</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>10.66666666666667</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>5.999999999999999</v>
       </c>
       <c r="E9" t="n">
         <v>0.6666666666666666</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9" t="n">
-        <v>121</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>24.66666666666667</v>
+        <v>45</v>
       </c>
       <c r="I9" t="n">
-        <v>12.33333333333333</v>
+        <v>18.33333333333333</v>
       </c>
       <c r="J9" t="n">
+        <v>523</v>
+      </c>
+      <c r="K9" t="n">
+        <v>119</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="M9" s="2" t="n">
+        <v>36320</v>
+      </c>
+      <c r="N9" t="n">
+        <v>163</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Lone'er Kavanagh</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
+        <v>67</v>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>Orthodox</t>
+        </is>
+      </c>
+      <c r="S9" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="T9" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>125</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>25.66666666666666</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>9.333333333333332</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>45.66666666666666</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0.4133333333333333</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>45.66666666666666</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>7.058823529411765</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>5.109803921568627</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>3.137254901960784</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>1.956862745098039</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>16.72156862745098</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>26.30588235294118</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>12.38823529411765</v>
+      </c>
+      <c r="AZ9" t="n">
         <v>900</v>
       </c>
-      <c r="K9" t="n">
-        <v>112</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="M9" s="2" t="n">
-        <v>35044</v>
-      </c>
-      <c r="N9" t="n">
-        <v>168</v>
-      </c>
-      <c r="O9" t="n">
-        <v>3</v>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>SuYoung You</t>
-        </is>
-      </c>
-      <c r="Q9" t="n">
-        <v>65</v>
-      </c>
-      <c r="R9" t="inlineStr">
+      <c r="BA9" t="n">
+        <v>196</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="BC9" s="2" t="n">
+        <v>36780</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>170</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>2</v>
+      </c>
+      <c r="BF9" t="inlineStr">
+        <is>
+          <t>Felipe dos Santos</t>
+        </is>
+      </c>
+      <c r="BG9" t="n">
+        <v>70</v>
+      </c>
+      <c r="BH9" t="inlineStr">
         <is>
           <t>Orthodox</t>
         </is>
       </c>
-      <c r="S9" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="V9" t="n">
+      <c r="BI9" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="BL9" t="n">
         <v>0.3</v>
       </c>
-      <c r="W9" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>4.67</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>135</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>14</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>2.333333333333333</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>3.666666666666667</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>3.666666666666667</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>27.66666666666666</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>13.66666666666667</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>0.5133333333333333</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>2</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>46</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>31.33333333333333</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>411</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>378</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="BC9" s="2" t="n">
-        <v>34584</v>
-      </c>
-      <c r="BD9" t="n">
-        <v>178</v>
-      </c>
-      <c r="BE9" t="n">
-        <v>4</v>
-      </c>
-      <c r="BF9" t="inlineStr">
-        <is>
-          <t>AJ Cunningham</t>
-        </is>
-      </c>
-      <c r="BG9" t="n">
-        <v>71</v>
-      </c>
-      <c r="BH9" t="inlineStr">
-        <is>
-          <t>Orthodox</t>
-        </is>
-      </c>
-      <c r="BI9" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="BJ9" t="n">
-        <v>7.66</v>
-      </c>
-      <c r="BK9" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="BL9" t="n">
-        <v>0</v>
-      </c>
       <c r="BM9" t="n">
         <v>0</v>
       </c>
       <c r="BN9" t="n">
-        <v>0.33</v>
+        <v>0.14</v>
       </c>
       <c r="BO9" t="n">
         <v>0</v>
       </c>
       <c r="BP9" t="n">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="BQ9" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BR9" t="n">
-        <v>0</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="BS9" t="n">
-        <v>0</v>
+        <v>0.04705882352941176</v>
       </c>
       <c r="BT9" t="n">
-        <v>0</v>
+        <v>19.25882352941176</v>
       </c>
       <c r="BU9" t="n">
-        <v>0</v>
+        <v>6.52156862745098</v>
       </c>
       <c r="BV9" t="n">
         <v>0</v>
       </c>
       <c r="BW9" t="n">
-        <v>0</v>
+        <v>3.596078431372549</v>
       </c>
       <c r="BX9" t="n">
-        <v>0</v>
+        <v>2.76078431372549</v>
       </c>
       <c r="BY9" t="n">
         <v>0</v>
       </c>
       <c r="BZ9" t="n">
-        <v>0</v>
+        <v>29.91372549019608</v>
       </c>
       <c r="CA9" t="n">
-        <v>0</v>
+        <v>14.3921568627451</v>
       </c>
       <c r="CB9" t="n">
-        <v>0</v>
+        <v>0.4792549019607843</v>
       </c>
       <c r="CC9" t="n">
-        <v>0</v>
+        <v>0.1254901960784314</v>
       </c>
       <c r="CD9" t="n">
-        <v>0</v>
+        <v>2.043137254901961</v>
       </c>
       <c r="CE9" t="n">
         <v>0</v>
@@ -3023,67 +3023,67 @@
         <v>0</v>
       </c>
       <c r="CG9" t="n">
-        <v>0</v>
+        <v>39.34901960784314</v>
       </c>
       <c r="CH9" t="n">
-        <v>0</v>
+        <v>21.38823529411765</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45731</v>
+        <v>45738</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Bantamweight</t>
+          <t>Heavyweight</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.6666666666666666</v>
+        <v>2.343248946193012</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6666666666666666</v>
+        <v>1.37980792147668</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.01554731407633715</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>0.00855870668832371</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>159.7304876046654</v>
       </c>
       <c r="H10" t="n">
-        <v>3.333333333333333</v>
+        <v>7.006664988655038</v>
       </c>
       <c r="I10" t="n">
-        <v>1.666666666666667</v>
+        <v>2.345017359569846</v>
       </c>
       <c r="J10" t="n">
-        <v>900</v>
+        <v>664</v>
       </c>
       <c r="K10" t="n">
-        <v>392</v>
+        <v>126</v>
       </c>
       <c r="L10" t="n">
-        <v>0.45</v>
+        <v>0.55</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>32086</v>
+        <v>31360</v>
       </c>
       <c r="N10" t="n">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="O10" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Carlos Vera</t>
+          <t>Marcin Tybura</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
@@ -3091,701 +3091,701 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>2.53</v>
+        <v>3.26</v>
       </c>
       <c r="T10" t="n">
-        <v>0.8</v>
+        <v>3.57</v>
       </c>
       <c r="U10" t="n">
-        <v>0.48</v>
+        <v>0.49</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>0.77</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="Z10" t="n">
-        <v>135</v>
+        <v>249</v>
       </c>
       <c r="AA10" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="AB10" t="n">
-        <v>2.666666666666667</v>
+        <v>4.161032234648619</v>
       </c>
       <c r="AC10" t="n">
-        <v>1.666666666666667</v>
+        <v>3.410726158970224</v>
       </c>
       <c r="AD10" t="n">
-        <v>5.333333333333333</v>
+        <v>8.715263699670569</v>
       </c>
       <c r="AE10" t="n">
-        <v>2</v>
+        <v>4.260007511093012</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>1.421085471520202e-14</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.1247318915164125</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.1244867926587015</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>0.7500000000582083</v>
       </c>
       <c r="AJ10" t="n">
-        <v>6.666666666666666</v>
+        <v>11.18324453737999</v>
       </c>
       <c r="AK10" t="n">
-        <v>3.333333333333333</v>
+        <v>5.764302225228393</v>
       </c>
       <c r="AL10" t="n">
-        <v>0.47</v>
+        <v>0.4403446097358516</v>
       </c>
       <c r="AM10" t="n">
-        <v>0</v>
+        <v>0.1250000000582078</v>
       </c>
       <c r="AN10" t="n">
-        <v>0</v>
+        <v>1.036503352590823</v>
       </c>
       <c r="AO10" t="n">
-        <v>0</v>
+        <v>0.156351004859321</v>
       </c>
       <c r="AP10" t="n">
-        <v>0</v>
+        <v>0.06254906749482259</v>
       </c>
       <c r="AQ10" t="n">
-        <v>22.33333333333333</v>
+        <v>61.07860427319949</v>
       </c>
       <c r="AR10" t="n">
-        <v>16</v>
+        <v>45.99777094001258</v>
       </c>
       <c r="AS10" t="n">
-        <v>0</v>
+        <v>1.765166340508806</v>
       </c>
       <c r="AT10" t="n">
-        <v>0</v>
+        <v>1.682974559686888</v>
       </c>
       <c r="AU10" t="n">
-        <v>0</v>
+        <v>0.6771037181996086</v>
       </c>
       <c r="AV10" t="n">
-        <v>0</v>
+        <v>0.6731898238747553</v>
       </c>
       <c r="AW10" t="n">
-        <v>0</v>
+        <v>9.596868884540116</v>
       </c>
       <c r="AX10" t="n">
-        <v>0</v>
+        <v>54.34833659491193</v>
       </c>
       <c r="AY10" t="n">
-        <v>0</v>
+        <v>26.62622309197651</v>
       </c>
       <c r="AZ10" t="n">
-        <v>900</v>
+        <v>604</v>
       </c>
       <c r="BA10" t="n">
-        <v>0</v>
+        <v>238</v>
       </c>
       <c r="BB10" t="n">
-        <v>0.27</v>
+        <v>0.58</v>
       </c>
       <c r="BC10" s="2" t="n">
-        <v>36078</v>
+        <v>34974</v>
       </c>
       <c r="BD10" t="n">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="BE10" t="n">
         <v>0</v>
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>Josias Musasa</t>
+          <t>Mick Parkin</t>
         </is>
       </c>
       <c r="BG10" t="n">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>Southpaw</t>
+          <t>Orthodox</t>
         </is>
       </c>
       <c r="BI10" t="n">
-        <v>4.53</v>
+        <v>4.15</v>
       </c>
       <c r="BJ10" t="n">
-        <v>3.33</v>
+        <v>4.91</v>
       </c>
       <c r="BK10" t="n">
-        <v>0.44</v>
+        <v>0.52</v>
       </c>
       <c r="BL10" t="n">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="BM10" t="n">
-        <v>1</v>
+        <v>0.41</v>
       </c>
       <c r="BN10" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="BO10" t="n">
-        <v>1</v>
+        <v>1.49</v>
       </c>
       <c r="BP10" t="n">
-        <v>135</v>
+        <v>265</v>
       </c>
       <c r="BQ10" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BR10" t="n">
-        <v>0</v>
+        <v>0.09393346379647749</v>
       </c>
       <c r="BS10" t="n">
-        <v>0</v>
+        <v>0.06262230919765166</v>
       </c>
       <c r="BT10" t="n">
-        <v>0</v>
+        <v>42.37181996086105</v>
       </c>
       <c r="BU10" t="n">
-        <v>0</v>
+        <v>15.8238747553816</v>
       </c>
       <c r="BV10" t="n">
         <v>0</v>
       </c>
       <c r="BW10" t="n">
-        <v>0</v>
+        <v>10.98238747553816</v>
       </c>
       <c r="BX10" t="n">
-        <v>0</v>
+        <v>9.855185909980431</v>
       </c>
       <c r="BY10" t="n">
-        <v>0</v>
+        <v>0.03131115459882583</v>
       </c>
       <c r="BZ10" t="n">
-        <v>0</v>
+        <v>55.11937377690802</v>
       </c>
       <c r="CA10" t="n">
-        <v>0</v>
+        <v>27.36203522504892</v>
       </c>
       <c r="CB10" t="n">
-        <v>0</v>
+        <v>0.4836399217221135</v>
       </c>
       <c r="CC10" t="n">
         <v>0</v>
       </c>
       <c r="CD10" t="n">
-        <v>0</v>
+        <v>0.3444227005870841</v>
       </c>
       <c r="CE10" t="n">
-        <v>0</v>
+        <v>0.06262230919765166</v>
       </c>
       <c r="CF10" t="n">
-        <v>0</v>
+        <v>0.01816046966731898</v>
       </c>
       <c r="CG10" t="n">
-        <v>0</v>
+        <v>56.28962818003913</v>
       </c>
       <c r="CH10" t="n">
-        <v>0</v>
+        <v>28.25048923679061</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45731</v>
+        <v>45738</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Women's Strawweight</t>
+          <t>Middleweight</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>7.999999999999999</v>
+        <v>3.982404692082111</v>
       </c>
       <c r="D11" t="n">
-        <v>5</v>
+        <v>2.727272727272728</v>
       </c>
       <c r="E11" t="n">
+        <v>4.865102639296188</v>
+      </c>
+      <c r="F11" t="n">
+        <v>4.145650048875855</v>
+      </c>
+      <c r="G11" t="n">
+        <v>60.92864125122189</v>
+      </c>
+      <c r="H11" t="n">
+        <v>15.53763440860215</v>
+      </c>
+      <c r="I11" t="n">
+        <v>9.390029325513195</v>
+      </c>
+      <c r="J11" t="n">
+        <v>579</v>
+      </c>
+      <c r="K11" t="n">
+        <v>238</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="M11" s="2" t="n">
+        <v>34904</v>
+      </c>
+      <c r="N11" t="n">
+        <v>188</v>
+      </c>
+      <c r="O11" t="n">
         <v>2</v>
       </c>
-      <c r="F11" t="n">
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Christian Leroy Duncan</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v>79</v>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>Switch</t>
+        </is>
+      </c>
+      <c r="S11" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="T11" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>185</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>3.542521994134897</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>2.854349951124145</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>15.8533724340176</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>10.01661779081134</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0.03128054740957967</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>4.109481915933529</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>3.64613880742913</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>23.94525904203324</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>16.3900293255132</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>0.6789442815249267</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>0.3088954056695992</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>0.1251221896383187</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>0.06256109481915934</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>31.9227761485826</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>23.19452590420332</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>900</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="BC11" s="2" t="n">
+        <v>35683</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>193</v>
+      </c>
+      <c r="BE11" t="n">
         <v>2</v>
       </c>
-      <c r="G11" t="n">
-        <v>17.33333333333333</v>
-      </c>
-      <c r="H11" t="n">
-        <v>56.33333333333333</v>
-      </c>
-      <c r="I11" t="n">
-        <v>22.66666666666666</v>
-      </c>
-      <c r="J11" t="n">
-        <v>900</v>
-      </c>
-      <c r="K11" t="n">
-        <v>217</v>
-      </c>
-      <c r="L11" t="n">
+      <c r="BF11" t="inlineStr">
+        <is>
+          <t>Andrey Pulyaev</t>
+        </is>
+      </c>
+      <c r="BG11" t="n">
+        <v>78</v>
+      </c>
+      <c r="BH11" t="inlineStr">
+        <is>
+          <t>Southpaw</t>
+        </is>
+      </c>
+      <c r="BI11" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ11" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="BK11" t="n">
         <v>0.68</v>
       </c>
-      <c r="M11" s="2" t="n">
-        <v>36510</v>
-      </c>
-      <c r="N11" t="n">
-        <v>168</v>
-      </c>
-      <c r="O11" t="n">
+      <c r="BL11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BN11" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="BO11" t="n">
         <v>1</v>
       </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>Stephanie Luciano</t>
-        </is>
-      </c>
-      <c r="Q11" t="n">
-        <v>65</v>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>Orthodox</t>
-        </is>
-      </c>
-      <c r="S11" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="T11" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>1</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>115</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>45.33333333333333</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>16</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>3.666666666666667</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>58.33333333333333</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>24.66666666666666</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>63.33333333333333</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>29.66666666666666</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>11.55883005612076</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>7.937312122423179</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>3.109684354644081</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>1.792955207404805</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>29.8821613122321</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>70.26515521199437</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>32.37871321312864</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>826</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>224</v>
-      </c>
-      <c r="BB11" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="BC11" s="2" t="n">
-        <v>33783</v>
-      </c>
-      <c r="BD11" t="n">
-        <v>165</v>
-      </c>
-      <c r="BE11" t="n">
-        <v>6</v>
-      </c>
-      <c r="BF11" t="inlineStr">
-        <is>
-          <t>Sam Hughes</t>
-        </is>
-      </c>
-      <c r="BG11" t="n">
-        <v>64</v>
-      </c>
-      <c r="BH11" t="inlineStr">
-        <is>
-          <t>Orthodox</t>
-        </is>
-      </c>
-      <c r="BI11" t="n">
-        <v>4.46</v>
-      </c>
-      <c r="BJ11" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="BK11" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="BL11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM11" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="BN11" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="BO11" t="n">
-        <v>0.85</v>
-      </c>
       <c r="BP11" t="n">
-        <v>115</v>
+        <v>185</v>
       </c>
       <c r="BQ11" t="n">
         <v>9</v>
       </c>
       <c r="BR11" t="n">
-        <v>1.015106619304813</v>
+        <v>0</v>
       </c>
       <c r="BS11" t="n">
-        <v>0.8102726227207555</v>
+        <v>0</v>
       </c>
       <c r="BT11" t="n">
-        <v>58.23105247205808</v>
+        <v>0</v>
       </c>
       <c r="BU11" t="n">
-        <v>22.88453423288669</v>
+        <v>0</v>
       </c>
       <c r="BV11" t="n">
         <v>0</v>
       </c>
       <c r="BW11" t="n">
-        <v>4.600063657764415</v>
+        <v>0</v>
       </c>
       <c r="BX11" t="n">
-        <v>4.160094687944334</v>
+        <v>0</v>
       </c>
       <c r="BY11" t="n">
-        <v>0.003906250232830658</v>
+        <v>0</v>
       </c>
       <c r="BZ11" t="n">
-        <v>74.38994618594326</v>
+        <v>0</v>
       </c>
       <c r="CA11" t="n">
-        <v>34.9819410432542</v>
+        <v>0</v>
       </c>
       <c r="CB11" t="n">
-        <v>0.4624565549168917</v>
+        <v>0</v>
       </c>
       <c r="CC11" t="n">
         <v>0</v>
       </c>
       <c r="CD11" t="n">
-        <v>0.3544621082819764</v>
+        <v>0</v>
       </c>
       <c r="CE11" t="n">
-        <v>0.008529663594345068</v>
+        <v>0</v>
       </c>
       <c r="CF11" t="n">
-        <v>0.008228302492398171</v>
+        <v>0</v>
       </c>
       <c r="CG11" t="n">
-        <v>86.22581811105121</v>
+        <v>0</v>
       </c>
       <c r="CH11" t="n">
-        <v>44.72258619800724</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45731</v>
+        <v>45738</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Flyweight</t>
+          <t>Women's Strawweight</t>
         </is>
       </c>
       <c r="C12" t="n">
+        <v>14.85714285714286</v>
+      </c>
+      <c r="D12" t="n">
         <v>7.571428571428571</v>
       </c>
-      <c r="D12" t="n">
-        <v>5.857142857142857</v>
-      </c>
       <c r="E12" t="n">
-        <v>0.1428571428571428</v>
+        <v>1.714285714285714</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G12" t="n">
-        <v>21.42857142857143</v>
+        <v>22.57142857142857</v>
       </c>
       <c r="H12" t="n">
-        <v>39.85714285714285</v>
+        <v>46.71428571428571</v>
       </c>
       <c r="I12" t="n">
-        <v>20.85714285714285</v>
+        <v>17.71428571428571</v>
       </c>
       <c r="J12" t="n">
-        <v>669</v>
+        <v>900</v>
       </c>
       <c r="K12" t="n">
-        <v>168</v>
+        <v>238</v>
       </c>
       <c r="L12" t="n">
-        <v>0.57</v>
+        <v>0.42</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>32487</v>
+        <v>34265</v>
       </c>
       <c r="N12" t="n">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="O12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Shauna Bannon</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v>65</v>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>Switch</t>
+        </is>
+      </c>
+      <c r="S12" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="T12" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>115</v>
+      </c>
+      <c r="AA12" t="n">
         <v>6</v>
       </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>Daniel Barez</t>
-        </is>
-      </c>
-      <c r="Q12" t="n">
-        <v>66</v>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>Orthodox</t>
-        </is>
-      </c>
-      <c r="S12" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="T12" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="U12" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="V12" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="X12" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>125</v>
-      </c>
-      <c r="AA12" t="n">
+      <c r="AB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>26.28571428571428</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>7.285714285714285</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>48.42857142857143</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>18.57142857142857</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>0.3842857142857142</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>48</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AT12" t="n">
         <v>17</v>
       </c>
-      <c r="AB12" t="n">
-        <v>2.571428571428571</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>1.714285714285714</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>27.57142857142857</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>10.85714285714286</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>0.4285714285714285</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>7.428571428571428</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>5.857142857142857</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>42.57142857142857</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>22.57142857142857</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>0.5428571428571428</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>46</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>25.71428571428572</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>3.417322834645669</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>2.52755905511811</v>
-      </c>
       <c r="AU12" t="n">
-        <v>2.031496062992126</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="AV12" t="n">
-        <v>2.023622047244094</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AW12" t="n">
-        <v>137.1338582677165</v>
+        <v>0</v>
       </c>
       <c r="AX12" t="n">
-        <v>16.95275590551181</v>
+        <v>61.66666666666666</v>
       </c>
       <c r="AY12" t="n">
-        <v>7.866141732283464</v>
+        <v>30.33333333333333</v>
       </c>
       <c r="AZ12" t="n">
-        <v>793</v>
+        <v>900</v>
       </c>
       <c r="BA12" t="n">
-        <v>189</v>
+        <v>287</v>
       </c>
       <c r="BB12" t="n">
-        <v>0.57</v>
+        <v>0.44</v>
       </c>
       <c r="BC12" s="2" t="n">
-        <v>36195</v>
+        <v>34308</v>
       </c>
       <c r="BD12" t="n">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="BE12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>Andre Lima</t>
+          <t>Puja Tomar</t>
         </is>
       </c>
       <c r="BG12" t="n">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>Orthodox</t>
+          <t>Southpaw</t>
         </is>
       </c>
       <c r="BI12" t="n">
-        <v>2.48</v>
+        <v>5.6</v>
       </c>
       <c r="BJ12" t="n">
-        <v>3.03</v>
+        <v>6.33</v>
       </c>
       <c r="BK12" t="n">
-        <v>0.55</v>
+        <v>0.47</v>
       </c>
       <c r="BL12" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="BM12" t="n">
-        <v>0.66</v>
+        <v>0</v>
       </c>
       <c r="BN12" t="n">
-        <v>0.73</v>
+        <v>1</v>
       </c>
       <c r="BO12" t="n">
-        <v>1.13</v>
+        <v>0</v>
       </c>
       <c r="BP12" t="n">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="BQ12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BR12" t="n">
         <v>0</v>
@@ -3794,376 +3794,376 @@
         <v>0</v>
       </c>
       <c r="BT12" t="n">
-        <v>10.49606299212599</v>
+        <v>28.66666666666666</v>
       </c>
       <c r="BU12" t="n">
-        <v>3.393700787401575</v>
+        <v>6.666666666666666</v>
       </c>
       <c r="BV12" t="n">
         <v>0</v>
       </c>
       <c r="BW12" t="n">
-        <v>5.070866141732283</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="BX12" t="n">
-        <v>3.968503937007874</v>
+        <v>7</v>
       </c>
       <c r="BY12" t="n">
         <v>0</v>
       </c>
       <c r="BZ12" t="n">
-        <v>18.98425196850394</v>
+        <v>63</v>
       </c>
       <c r="CA12" t="n">
-        <v>9.889763779527559</v>
+        <v>30.66666666666666</v>
       </c>
       <c r="CB12" t="n">
-        <v>0.5637007874015748</v>
+        <v>0.4866666666666666</v>
       </c>
       <c r="CC12" t="n">
-        <v>0.01574803149606299</v>
+        <v>0</v>
       </c>
       <c r="CD12" t="n">
-        <v>0.6456692913385826</v>
+        <v>0</v>
       </c>
       <c r="CE12" t="n">
-        <v>0.5118110236220472</v>
+        <v>0</v>
       </c>
       <c r="CF12" t="n">
-        <v>0.5078740157480315</v>
+        <v>0</v>
       </c>
       <c r="CG12" t="n">
-        <v>30.53543307086614</v>
+        <v>63.33333333333333</v>
       </c>
       <c r="CH12" t="n">
-        <v>17.91338582677165</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45731</v>
+        <v>45738</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Women's Bantamweight</t>
+          <t>Bantamweight</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>7.985836385836386</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>4.47008547008547</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0.4715506715506715</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3504273504273504</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.850793650793651</v>
+        <v>148</v>
       </c>
       <c r="H13" t="n">
-        <v>48.03125763125763</v>
+        <v>7</v>
       </c>
       <c r="I13" t="n">
-        <v>18.76849816849817</v>
+        <v>6</v>
       </c>
       <c r="J13" t="n">
-        <v>779</v>
+        <v>374</v>
       </c>
       <c r="K13" t="n">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="L13" t="n">
-        <v>0.51</v>
+        <v>0.4</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>34326</v>
+        <v>35798</v>
       </c>
       <c r="N13" t="n">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="O13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Josiane Nunes</t>
+          <t>Nathan Fletcher</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Southpaw</t>
+          <t>Orthodox</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>5.44</v>
+        <v>0.96</v>
       </c>
       <c r="T13" t="n">
-        <v>5.41</v>
+        <v>2.25</v>
       </c>
       <c r="U13" t="n">
-        <v>0.42</v>
+        <v>0.7</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>0.66</v>
       </c>
       <c r="X13" t="n">
-        <v>0.58</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="Z13" t="n">
         <v>135</v>
       </c>
       <c r="AA13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.01074481074481074</v>
+        <v>12</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.006837606837606838</v>
+        <v>7</v>
       </c>
       <c r="AD13" t="n">
-        <v>37.93186813186813</v>
+        <v>17</v>
       </c>
       <c r="AE13" t="n">
-        <v>12.07667887667888</v>
+        <v>12</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.001709401709401709</v>
+        <v>0</v>
       </c>
       <c r="AG13" t="n">
-        <v>2.595848595848596</v>
+        <v>1</v>
       </c>
       <c r="AH13" t="n">
-        <v>2.578998778998779</v>
+        <v>1</v>
       </c>
       <c r="AI13" t="n">
         <v>0</v>
       </c>
       <c r="AJ13" t="n">
-        <v>48.51355311355312</v>
+        <v>19</v>
       </c>
       <c r="AK13" t="n">
-        <v>19.12576312576313</v>
+        <v>13</v>
       </c>
       <c r="AL13" t="n">
-        <v>0.4017094017094017</v>
+        <v>0.68</v>
       </c>
       <c r="AM13" t="n">
         <v>0</v>
       </c>
       <c r="AN13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AO13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP13" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AQ13" t="n">
-        <v>48.66007326007326</v>
+        <v>41</v>
       </c>
       <c r="AR13" t="n">
-        <v>19.23956043956044</v>
+        <v>34</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.565281183853714</v>
+        <v>10.20392156862745</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.4824545299790048</v>
+        <v>6.035294117647059</v>
       </c>
       <c r="AU13" t="n">
-        <v>0.09964756948832011</v>
+        <v>1.180392156862745</v>
       </c>
       <c r="AV13" t="n">
-        <v>0.08357433489529366</v>
+        <v>1.094117647058823</v>
       </c>
       <c r="AW13" t="n">
-        <v>0.3597680853691508</v>
+        <v>63.47058823529412</v>
       </c>
       <c r="AX13" t="n">
-        <v>7.232760063533814</v>
+        <v>60.00392156862744</v>
       </c>
       <c r="AY13" t="n">
-        <v>3.051050687337249</v>
+        <v>23.61960784313726</v>
       </c>
       <c r="AZ13" t="n">
-        <v>585</v>
+        <v>900</v>
       </c>
       <c r="BA13" t="n">
-        <v>420</v>
+        <v>238</v>
       </c>
       <c r="BB13" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="BC13" s="2" t="n">
+        <v>35203</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>168</v>
+      </c>
+      <c r="BE13" t="n">
+        <v>2</v>
+      </c>
+      <c r="BF13" t="inlineStr">
+        <is>
+          <t>Caolan Loughran</t>
+        </is>
+      </c>
+      <c r="BG13" t="n">
+        <v>68</v>
+      </c>
+      <c r="BH13" t="inlineStr">
+        <is>
+          <t>Orthodox</t>
+        </is>
+      </c>
+      <c r="BI13" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="BJ13" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="BK13" t="n">
         <v>0.43</v>
       </c>
-      <c r="BC13" s="2" t="n">
-        <v>32374</v>
-      </c>
-      <c r="BD13" t="n">
-        <v>170</v>
-      </c>
-      <c r="BE13" t="n">
-        <v>6</v>
-      </c>
-      <c r="BF13" t="inlineStr">
-        <is>
-          <t>Priscila Cachoeira</t>
-        </is>
-      </c>
-      <c r="BG13" t="n">
-        <v>65</v>
-      </c>
-      <c r="BH13" t="inlineStr">
-        <is>
-          <t>Orthodox</t>
-        </is>
-      </c>
-      <c r="BI13" t="n">
-        <v>7.03</v>
-      </c>
-      <c r="BJ13" t="n">
-        <v>3.76</v>
-      </c>
-      <c r="BK13" t="n">
-        <v>0.44</v>
-      </c>
       <c r="BL13" t="n">
         <v>0</v>
       </c>
       <c r="BM13" t="n">
-        <v>0.33</v>
+        <v>0.26</v>
       </c>
       <c r="BN13" t="n">
-        <v>0.65</v>
+        <v>1</v>
       </c>
       <c r="BO13" t="n">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="BP13" t="n">
         <v>135</v>
       </c>
       <c r="BQ13" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BR13" t="n">
-        <v>1.158341006441596</v>
+        <v>3.643137254901961</v>
       </c>
       <c r="BS13" t="n">
-        <v>0.5957186678498592</v>
+        <v>2.63921568627451</v>
       </c>
       <c r="BT13" t="n">
-        <v>6.704250671506248</v>
+        <v>49.81960784313726</v>
       </c>
       <c r="BU13" t="n">
-        <v>2.065843613550002</v>
+        <v>17.18039215686274</v>
       </c>
       <c r="BV13" t="n">
-        <v>0.01574707782129184</v>
+        <v>0</v>
       </c>
       <c r="BW13" t="n">
-        <v>1.221216784103767</v>
+        <v>4.803921568627451</v>
       </c>
       <c r="BX13" t="n">
-        <v>1.182045546553395</v>
+        <v>4.137254901960784</v>
       </c>
       <c r="BY13" t="n">
-        <v>6.103518535384433e-05</v>
+        <v>0</v>
       </c>
       <c r="BZ13" t="n">
-        <v>8.49074863946373</v>
+        <v>64.82745098039216</v>
       </c>
       <c r="CA13" t="n">
-        <v>3.730343690082402</v>
+        <v>27.35294117647059</v>
       </c>
       <c r="CB13" t="n">
-        <v>0.4408689503044845</v>
+        <v>0.409607843137255</v>
       </c>
       <c r="CC13" t="n">
         <v>0</v>
       </c>
       <c r="CD13" t="n">
-        <v>0.001983643523999941</v>
+        <v>3.090196078431373</v>
       </c>
       <c r="CE13" t="n">
-        <v>0.001953125931323019</v>
+        <v>0.8274509803921568</v>
       </c>
       <c r="CF13" t="n">
-        <v>0.001953125931323019</v>
+        <v>0.2557647058823529</v>
       </c>
       <c r="CG13" t="n">
-        <v>8.966352446724152</v>
+        <v>69.23921568627451</v>
       </c>
       <c r="CH13" t="n">
-        <v>4.079232730499616</v>
+        <v>29.03529411764706</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45731</v>
+        <v>45738</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Women's Flyweight</t>
+          <t>Lightweight</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>9.861260381045433</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>7.905227161700049</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>6.628236443575965</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>6.36248168050806</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>40.9789936492428</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>29.64338055691255</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>10.02979970688813</v>
       </c>
       <c r="J14" t="n">
-        <v>73</v>
+        <v>874</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>231</v>
       </c>
       <c r="L14" t="n">
-        <v>0.41</v>
+        <v>0.57</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>35254</v>
+        <v>33611</v>
       </c>
       <c r="N14" t="n">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Yuneisy Duben</t>
+          <t>Guram Kutateladze</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
@@ -4171,161 +4171,161 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>11.51</v>
+        <v>3.95</v>
       </c>
       <c r="T14" t="n">
-        <v>20.55</v>
+        <v>3.95</v>
       </c>
       <c r="U14" t="n">
-        <v>0.64</v>
+        <v>0.45</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>0.79</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>0.77</v>
       </c>
       <c r="Z14" t="n">
-        <v>125</v>
+        <v>155</v>
       </c>
       <c r="AA14" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AB14" t="n">
-        <v>0</v>
+        <v>1.142159257449927</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>0.3917928676111382</v>
       </c>
       <c r="AD14" t="n">
-        <v>0</v>
+        <v>25.32388861748901</v>
       </c>
       <c r="AE14" t="n">
-        <v>0</v>
+        <v>6.734245236932096</v>
       </c>
       <c r="AF14" t="n">
-        <v>0</v>
+        <v>0.0009770395701025891</v>
       </c>
       <c r="AG14" t="n">
-        <v>0</v>
+        <v>2.228627259404006</v>
       </c>
       <c r="AH14" t="n">
-        <v>0</v>
+        <v>2.144601856375183</v>
       </c>
       <c r="AI14" t="n">
         <v>0</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0</v>
+        <v>37.41377625793844</v>
       </c>
       <c r="AK14" t="n">
-        <v>0</v>
+        <v>16.78407425500733</v>
       </c>
       <c r="AL14" t="n">
-        <v>0</v>
+        <v>0.4079482169027846</v>
       </c>
       <c r="AM14" t="n">
         <v>0</v>
       </c>
       <c r="AN14" t="n">
-        <v>0</v>
+        <v>2.315583781143136</v>
       </c>
       <c r="AO14" t="n">
-        <v>0</v>
+        <v>0.5666829506595017</v>
       </c>
       <c r="AP14" t="n">
-        <v>0</v>
+        <v>0.1582804103566194</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0</v>
+        <v>43.41475329750855</v>
       </c>
       <c r="AR14" t="n">
-        <v>0</v>
+        <v>22.5305324865657</v>
       </c>
       <c r="AS14" t="n">
-        <v>13</v>
+        <v>3.285714285714286</v>
       </c>
       <c r="AT14" t="n">
-        <v>8.666666666666666</v>
+        <v>2.285714285714286</v>
       </c>
       <c r="AU14" t="n">
-        <v>7.333333333333333</v>
+        <v>1.142857142857143</v>
       </c>
       <c r="AV14" t="n">
-        <v>5.333333333333333</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="AW14" t="n">
-        <v>30</v>
+        <v>21.71428571428572</v>
       </c>
       <c r="AX14" t="n">
-        <v>74.33333333333333</v>
+        <v>11.85714285714286</v>
       </c>
       <c r="AY14" t="n">
-        <v>33.66666666666666</v>
+        <v>7.285714285714286</v>
       </c>
       <c r="AZ14" t="n">
-        <v>900</v>
+        <v>593</v>
       </c>
       <c r="BA14" t="n">
-        <v>273</v>
+        <v>231</v>
       </c>
       <c r="BB14" t="n">
-        <v>0.52</v>
+        <v>0.66</v>
       </c>
       <c r="BC14" s="2" t="n">
-        <v>36221</v>
+        <v>34775</v>
       </c>
       <c r="BD14" t="n">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="BE14" t="n">
         <v>2</v>
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>Carli Judice</t>
+          <t>Kaue Fernandes</t>
         </is>
       </c>
       <c r="BG14" t="n">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>Southpaw</t>
+          <t>Orthodox</t>
         </is>
       </c>
       <c r="BI14" t="n">
-        <v>10.1</v>
+        <v>0.86</v>
       </c>
       <c r="BJ14" t="n">
-        <v>11.23</v>
+        <v>3.04</v>
       </c>
       <c r="BK14" t="n">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="BL14" t="n">
         <v>0</v>
       </c>
       <c r="BM14" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="BN14" t="n">
-        <v>0.7</v>
+        <v>0.62</v>
       </c>
       <c r="BO14" t="n">
-        <v>1</v>
+        <v>0.76</v>
       </c>
       <c r="BP14" t="n">
-        <v>125</v>
+        <v>155</v>
       </c>
       <c r="BQ14" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="BR14" t="n">
         <v>0</v>
@@ -4334,49 +4334,49 @@
         <v>0</v>
       </c>
       <c r="BT14" t="n">
-        <v>64.66666666666666</v>
+        <v>6.285714285714285</v>
       </c>
       <c r="BU14" t="n">
-        <v>26.33333333333333</v>
+        <v>2</v>
       </c>
       <c r="BV14" t="n">
         <v>0</v>
       </c>
       <c r="BW14" t="n">
-        <v>4</v>
+        <v>3.428571428571428</v>
       </c>
       <c r="BX14" t="n">
-        <v>4</v>
+        <v>3.428571428571428</v>
       </c>
       <c r="BY14" t="n">
         <v>0</v>
       </c>
       <c r="BZ14" t="n">
-        <v>81.66666666666666</v>
+        <v>13</v>
       </c>
       <c r="CA14" t="n">
-        <v>39</v>
+        <v>7.714285714285714</v>
       </c>
       <c r="CB14" t="n">
-        <v>0.4933333333333333</v>
+        <v>0.6142857142857143</v>
       </c>
       <c r="CC14" t="n">
         <v>0</v>
       </c>
       <c r="CD14" t="n">
-        <v>2</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="CE14" t="n">
-        <v>1.333333333333333</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="CF14" t="n">
-        <v>0.44</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="CG14" t="n">
-        <v>94</v>
+        <v>33</v>
       </c>
       <c r="CH14" t="n">
-        <v>48</v>
+        <v>25.28571428571428</v>
       </c>
     </row>
   </sheetData>

--- a/data/validation.xlsx
+++ b/data/validation.xlsx
@@ -871,1139 +871,1139 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45738</v>
+        <v>45745</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Welterweight</t>
+          <t>Flyweight</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.540407103084384</v>
+        <v>5.448331025399285</v>
       </c>
       <c r="D2" t="n">
-        <v>1.319678817885933</v>
+        <v>3.581090619332238</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5711994368948647</v>
+        <v>1.341972780706475</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4454662790929879</v>
+        <v>0.8787096201202187</v>
       </c>
       <c r="G2" t="n">
-        <v>90.87610596434769</v>
+        <v>3.838787987431692</v>
       </c>
       <c r="H2" t="n">
-        <v>9.62433622977095</v>
+        <v>64.40502166378798</v>
       </c>
       <c r="I2" t="n">
-        <v>5.840839504643835</v>
+        <v>24.27014381982306</v>
       </c>
       <c r="J2" t="n">
-        <v>1042</v>
+        <v>1000</v>
       </c>
       <c r="K2" t="n">
-        <v>238</v>
+        <v>147</v>
       </c>
       <c r="L2" t="n">
-        <v>0.53</v>
+        <v>0.6</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>33475</v>
+        <v>34310</v>
       </c>
       <c r="N2" t="n">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="O2" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Leon Edwards</t>
+          <t>Brandon Moreno</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Southpaw</t>
+          <t>Orthodox</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>2.37</v>
+        <v>3.53</v>
       </c>
       <c r="T2" t="n">
-        <v>2.68</v>
+        <v>3.99</v>
       </c>
       <c r="U2" t="n">
-        <v>0.53</v>
+        <v>0.43</v>
       </c>
       <c r="V2" t="n">
         <v>0.4</v>
       </c>
       <c r="W2" t="n">
-        <v>0.36</v>
+        <v>0.46</v>
       </c>
       <c r="X2" t="n">
-        <v>0.65</v>
+        <v>0.64</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.25</v>
+        <v>1.59</v>
       </c>
       <c r="Z2" t="n">
-        <v>170</v>
+        <v>125</v>
       </c>
       <c r="AA2" t="n">
         <v>22</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.03126264655126531</v>
+        <v>0.02273569559786285</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.03126231729769754</v>
+        <v>0.01377495611533422</v>
       </c>
       <c r="AD2" t="n">
-        <v>8.05836434890282</v>
+        <v>57.9421772225956</v>
       </c>
       <c r="AE2" t="n">
-        <v>4.403920040011218</v>
+        <v>20.12028493267688</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.051804469579762e-05</v>
+        <v>3.818422612766888e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.6280268612298772</v>
+        <v>2.379221892097417</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.5939692431373695</v>
+        <v>1.461252844049493</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.515625000001819</v>
+        <v>0.0009765629656897108</v>
       </c>
       <c r="AJ2" t="n">
-        <v>10.22679831321708</v>
+        <v>65.76973014009231</v>
       </c>
       <c r="AK2" t="n">
-        <v>6.31756810103452</v>
+        <v>25.16262839605862</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.589800437848119</v>
+        <v>0.3854618293902602</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.04687690734966332</v>
+        <v>3.352770150399926e-08</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.4220246687551901</v>
+        <v>0.04340895714380907</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.4140651100342552</v>
+        <v>0.01980641113860141</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.4101576131325131</v>
+        <v>0.00919514217379353</v>
       </c>
       <c r="AQ2" t="n">
-        <v>18.33018955355905</v>
+        <v>65.99652188683768</v>
       </c>
       <c r="AR2" t="n">
-        <v>14.17092866819663</v>
+        <v>25.3855100725016</v>
       </c>
       <c r="AS2" t="n">
-        <v>2.682700715386953</v>
+        <v>3.582102307410572</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.89558230585841</v>
+        <v>2.461360029300452</v>
       </c>
       <c r="AU2" t="n">
-        <v>2.19922389974879</v>
+        <v>0.3091197655963863</v>
       </c>
       <c r="AV2" t="n">
-        <v>1.69922324409762</v>
+        <v>0.2344036137223782</v>
       </c>
       <c r="AW2" t="n">
-        <v>118.1160935301892</v>
+        <v>7.782688316444878</v>
       </c>
       <c r="AX2" t="n">
-        <v>34.2641492204844</v>
+        <v>38.6585276523013</v>
       </c>
       <c r="AY2" t="n">
-        <v>20.90981470463451</v>
+        <v>19.4274203393969</v>
       </c>
       <c r="AZ2" t="n">
-        <v>838</v>
+        <v>774</v>
       </c>
       <c r="BA2" t="n">
-        <v>196</v>
+        <v>224</v>
       </c>
       <c r="BB2" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="BC2" s="2" t="n">
+        <v>34907</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>173</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF2" t="inlineStr">
+        <is>
+          <t>Steve Erceg</t>
+        </is>
+      </c>
+      <c r="BG2" t="n">
+        <v>68</v>
+      </c>
+      <c r="BH2" t="inlineStr">
+        <is>
+          <t>Orthodox</t>
+        </is>
+      </c>
+      <c r="BI2" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="BN2" t="n">
         <v>0.6</v>
       </c>
-      <c r="BC2" s="2" t="n">
-        <v>33931</v>
-      </c>
-      <c r="BD2" t="n">
-        <v>178</v>
-      </c>
-      <c r="BE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF2" t="inlineStr">
-        <is>
-          <t>Sean Brady</t>
-        </is>
-      </c>
-      <c r="BG2" t="n">
-        <v>72</v>
-      </c>
-      <c r="BH2" t="inlineStr">
-        <is>
-          <t>Orthodox</t>
-        </is>
-      </c>
-      <c r="BI2" t="n">
-        <v>3.18</v>
-      </c>
-      <c r="BJ2" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="BK2" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="BL2" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="BM2" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="BN2" t="n">
-        <v>0.85</v>
-      </c>
       <c r="BO2" t="n">
-        <v>3.49</v>
+        <v>1.16</v>
       </c>
       <c r="BP2" t="n">
-        <v>170</v>
+        <v>125</v>
       </c>
       <c r="BQ2" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.1191884421334794</v>
+        <v>0.07251861799536076</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.08768273445161992</v>
+        <v>0.07056525454767427</v>
       </c>
       <c r="BT2" t="n">
-        <v>29.61502154052514</v>
+        <v>34.1576120131852</v>
       </c>
       <c r="BU2" t="n">
-        <v>16.79789123510018</v>
+        <v>15.97094371871566</v>
       </c>
       <c r="BV2" t="n">
-        <v>1.192093037616377e-07</v>
+        <v>0.01562690758149188</v>
       </c>
       <c r="BW2" t="n">
-        <v>4.284839306454575</v>
+        <v>1.300451715297278</v>
       </c>
       <c r="BX2" t="n">
-        <v>4.003247142225163</v>
+        <v>1.300085459650836</v>
       </c>
       <c r="BY2" t="n">
-        <v>3.051758176297924e-05</v>
+        <v>0.06446099377365401</v>
       </c>
       <c r="BZ2" t="n">
-        <v>36.58256156236667</v>
+        <v>39.04016603589305</v>
       </c>
       <c r="CA2" t="n">
-        <v>22.69672068318375</v>
+        <v>19.73238920766695</v>
       </c>
       <c r="CB2" t="n">
-        <v>0.6145080929408184</v>
+        <v>0.5029642290318642</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.09390641378240749</v>
+        <v>0.001220852154804053</v>
       </c>
       <c r="CD2" t="n">
-        <v>3.340193789028381</v>
+        <v>1.847637651080454</v>
       </c>
       <c r="CE2" t="n">
-        <v>1.385838196973586</v>
+        <v>0.505432792088878</v>
       </c>
       <c r="CF2" t="n">
-        <v>0.4041990094422113</v>
+        <v>0.2513002075448663</v>
       </c>
       <c r="CG2" t="n">
-        <v>68.49739509789885</v>
+        <v>43.71944817482603</v>
       </c>
       <c r="CH2" t="n">
-        <v>53.80995831608276</v>
+        <v>24.20070809424978</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45738</v>
+        <v>45745</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Light Heavyweight</t>
+          <t>Lightweight</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3.872744648016742</v>
+        <v>3.285714285714286</v>
       </c>
       <c r="D3" t="n">
-        <v>1.61940965558519</v>
+        <v>3.142857142857142</v>
       </c>
       <c r="E3" t="n">
-        <v>1.58485944515075</v>
+        <v>1.714285714285714</v>
       </c>
       <c r="F3" t="n">
-        <v>1.022164861923996</v>
+        <v>1.714285714285714</v>
       </c>
       <c r="G3" t="n">
-        <v>132.4193919955077</v>
+        <v>26.57142857142857</v>
       </c>
       <c r="H3" t="n">
-        <v>16.76933990217769</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="I3" t="n">
-        <v>10.20700007975618</v>
+        <v>7.714285714285714</v>
       </c>
       <c r="J3" t="n">
-        <v>786</v>
+        <v>159</v>
       </c>
       <c r="K3" t="n">
-        <v>602</v>
+        <v>196</v>
       </c>
       <c r="L3" t="n">
-        <v>0.53</v>
+        <v>0.52</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>30371</v>
+        <v>34783</v>
       </c>
       <c r="N3" t="n">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="O3" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Jan Blachowicz</t>
+          <t>Manuel Torres</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Orthodox</t>
+          <t>Switch</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>2.91</v>
+        <v>4.53</v>
       </c>
       <c r="T3" t="n">
-        <v>3.41</v>
+        <v>7.17</v>
       </c>
       <c r="U3" t="n">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="V3" t="n">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
       <c r="W3" t="n">
-        <v>0.5</v>
+        <v>0.66</v>
       </c>
       <c r="X3" t="n">
-        <v>0.68</v>
+        <v>0.88</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.09</v>
+        <v>2.26</v>
       </c>
       <c r="Z3" t="n">
-        <v>205</v>
+        <v>155</v>
       </c>
       <c r="AA3" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="AB3" t="n">
-        <v>2.318879726461899</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="AC3" t="n">
-        <v>2.310945125636362</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="AD3" t="n">
-        <v>14.3699235499939</v>
+        <v>12.28571428571428</v>
       </c>
       <c r="AE3" t="n">
-        <v>9.772356954166526</v>
+        <v>5.857142857142856</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.0001530658955744003</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="AG3" t="n">
-        <v>2.430410875779695</v>
+        <v>1.285714285714286</v>
       </c>
       <c r="AH3" t="n">
-        <v>2.148343457564828</v>
+        <v>1.285714285714286</v>
       </c>
       <c r="AI3" t="n">
         <v>0</v>
       </c>
       <c r="AJ3" t="n">
-        <v>20.67307907379034</v>
+        <v>16.85714285714286</v>
       </c>
       <c r="AK3" t="n">
-        <v>13.54011006731654</v>
+        <v>10.28571428571428</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.686111296397561</v>
+        <v>0.6357142857142857</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.5625000149593762</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="AN3" t="n">
-        <v>1.759277402149183</v>
+        <v>1.285714285714286</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.756835957589438</v>
+        <v>1.142857142857143</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.3383593943871942</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="AQ3" t="n">
-        <v>32.32953147905242</v>
+        <v>18</v>
       </c>
       <c r="AR3" t="n">
-        <v>24.093043021108</v>
+        <v>11.42857142857143</v>
       </c>
       <c r="AS3" t="n">
-        <v>3.725080876518342</v>
+        <v>10.3132184483448</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.612158945248123</v>
+        <v>7.55000132506492</v>
       </c>
       <c r="AU3" t="n">
-        <v>0.4699383507294146</v>
+        <v>4.619478408455189</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.4540072025880486</v>
+        <v>2.101897865486764</v>
       </c>
       <c r="AW3" t="n">
-        <v>6.562961606543368</v>
+        <v>10.86280413417796</v>
       </c>
       <c r="AX3" t="n">
-        <v>50.9837636574498</v>
+        <v>50.70597795405104</v>
       </c>
       <c r="AY3" t="n">
-        <v>23.42568516144784</v>
+        <v>20.28009687777409</v>
       </c>
       <c r="AZ3" t="n">
-        <v>417</v>
+        <v>485</v>
       </c>
       <c r="BA3" t="n">
-        <v>119</v>
+        <v>259</v>
       </c>
       <c r="BB3" t="n">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="BC3" s="2" t="n">
-        <v>33184</v>
+        <v>32435</v>
       </c>
       <c r="BD3" t="n">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="BE3" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>Carlos Ulberg</t>
+          <t>Drew Dober</t>
         </is>
       </c>
       <c r="BG3" t="n">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>Orthodox</t>
+          <t>Southpaw</t>
         </is>
       </c>
       <c r="BI3" t="n">
-        <v>4.27</v>
+        <v>4.25</v>
       </c>
       <c r="BJ3" t="n">
-        <v>7.2</v>
+        <v>4.39</v>
       </c>
       <c r="BK3" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="BN3" t="n">
         <v>0.5600000000000001</v>
       </c>
-      <c r="BL3" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="BM3" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="BN3" t="n">
-        <v>0.83</v>
-      </c>
       <c r="BO3" t="n">
-        <v>0.72</v>
+        <v>0.67</v>
       </c>
       <c r="BP3" t="n">
-        <v>205</v>
+        <v>155</v>
       </c>
       <c r="BQ3" t="n">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="BR3" t="n">
-        <v>1.519868156015382</v>
+        <v>0.5699477786095112</v>
       </c>
       <c r="BS3" t="n">
-        <v>1.154367331990478</v>
+        <v>0.3190684434505374</v>
       </c>
       <c r="BT3" t="n">
-        <v>45.71781724958799</v>
+        <v>41.97748514289422</v>
       </c>
       <c r="BU3" t="n">
-        <v>19.17286211316609</v>
+        <v>12.06079768723995</v>
       </c>
       <c r="BV3" t="n">
-        <v>0.1543062931087102</v>
+        <v>0.02063024081871874</v>
       </c>
       <c r="BW3" t="n">
-        <v>3.530672038088262</v>
+        <v>3.604700549876705</v>
       </c>
       <c r="BX3" t="n">
-        <v>3.249038637612159</v>
+        <v>3.090264174406515</v>
       </c>
       <c r="BY3" t="n">
-        <v>0</v>
+        <v>6.103515625000087e-05</v>
       </c>
       <c r="BZ3" t="n">
-        <v>52.97357016419459</v>
+        <v>55.89540414111573</v>
       </c>
       <c r="CA3" t="n">
-        <v>25.03405969602637</v>
+        <v>22.70106318671139</v>
       </c>
       <c r="CB3" t="n">
-        <v>0.4875523408411158</v>
+        <v>0.3997816441280782</v>
       </c>
       <c r="CC3" t="n">
-        <v>0.06250381493011048</v>
+        <v>9.094947017729412e-13</v>
       </c>
       <c r="CD3" t="n">
-        <v>0.1262284074955747</v>
+        <v>1.189849884196636</v>
       </c>
       <c r="CE3" t="n">
-        <v>0.0637245925654642</v>
+        <v>0.06253053998079938</v>
       </c>
       <c r="CF3" t="n">
-        <v>0.03247268510040896</v>
+        <v>0.06253053993765295</v>
       </c>
       <c r="CG3" t="n">
-        <v>53.57004211682842</v>
+        <v>57.30358476930583</v>
       </c>
       <c r="CH3" t="n">
-        <v>25.56802783373008</v>
+        <v>23.54662148374533</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45738</v>
+        <v>45745</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Welterweight</t>
+          <t>Middleweight</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2.208286368336595</v>
+        <v>6.097017913249009</v>
       </c>
       <c r="D4" t="n">
-        <v>2.188615848819869</v>
+        <v>3.991373063121554</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7783978173458943</v>
+        <v>0.2369861700686925</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6143190862178614</v>
+        <v>0.1722238380435764</v>
       </c>
       <c r="G4" t="n">
-        <v>173.2531452880365</v>
+        <v>15.40039023831692</v>
       </c>
       <c r="H4" t="n">
-        <v>5.86914856728845</v>
+        <v>69.37686881989728</v>
       </c>
       <c r="I4" t="n">
-        <v>2.914387090577368</v>
+        <v>30.99339762735342</v>
       </c>
       <c r="J4" t="n">
-        <v>602</v>
+        <v>817</v>
       </c>
       <c r="K4" t="n">
-        <v>735</v>
+        <v>280</v>
       </c>
       <c r="L4" t="n">
-        <v>0.49</v>
+        <v>0.57</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>32352</v>
+        <v>33535</v>
       </c>
       <c r="N4" t="n">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="O4" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Gunnar Nelson</t>
+          <t>Kelvin Gastelum</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Switch</t>
+          <t>Southpaw</t>
         </is>
       </c>
       <c r="S4" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="T4" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>185</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>20</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0.2031302479615254</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0.06250381570347437</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>56.08151358635835</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>21.18620560397141</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>3.020090848411539e-10</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>7.638453738320119</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>6.05054661400751</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0.03125192225166991</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>69.8169852379275</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>31.22812528110048</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0.4604173264028751</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>5.594483210025203e-17</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>1.047364484519298</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>1.000037077814413</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0.5000116378814702</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>71.22370762085225</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>32.61914260752938</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>4.473581213307241</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>2.475538160469667</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0.02348336594911937</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0.02348336594911937</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>13.39138943248532</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>36.47358121330724</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>12.42465753424657</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>443</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>273</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="BC4" s="2" t="n">
+        <v>35325</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>188</v>
+      </c>
+      <c r="BE4" t="n">
         <v>3</v>
       </c>
-      <c r="T4" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>170</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>7.274450423027028</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>7.258823493323015</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>11.2622934284765</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>8.186559787296355</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>9.536743166282946e-07</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>0.4514170108482747</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>0.4123540340020214</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>1.144409179953954e-05</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>13.92199680766137</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>10.78752967011825</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>0.770130193892431</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>0.5011301232737326</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>0.9542717863699123</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>0.8882923628874804</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>0.885278446638323</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>57.36089343632592</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>47.76347081031732</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>3.946238428766918</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>2.78716442016107</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>0.3250697618257671</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>0.2515623605301657</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>23.96084593476268</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>24.20743138385011</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>13.02623827943092</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>618</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>63</v>
-      </c>
-      <c r="BB4" t="n">
+      <c r="BF4" t="inlineStr">
+        <is>
+          <t>Joe Pyfer</t>
+        </is>
+      </c>
+      <c r="BG4" t="n">
+        <v>75</v>
+      </c>
+      <c r="BH4" t="inlineStr">
+        <is>
+          <t>Orthodox</t>
+        </is>
+      </c>
+      <c r="BI4" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="BN4" t="n">
         <v>0.5</v>
       </c>
-      <c r="BC4" s="2" t="n">
-        <v>33913</v>
-      </c>
-      <c r="BD4" t="n">
-        <v>190</v>
-      </c>
-      <c r="BE4" t="n">
+      <c r="BO4" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BP4" t="n">
+        <v>185</v>
+      </c>
+      <c r="BQ4" t="n">
         <v>13</v>
       </c>
-      <c r="BF4" t="inlineStr">
-        <is>
-          <t>Kevin Holland</t>
-        </is>
-      </c>
-      <c r="BG4" t="n">
-        <v>81</v>
-      </c>
-      <c r="BH4" t="inlineStr">
-        <is>
-          <t>Orthodox</t>
-        </is>
-      </c>
-      <c r="BI4" t="n">
-        <v>3.22</v>
-      </c>
-      <c r="BJ4" t="n">
-        <v>4.22</v>
-      </c>
-      <c r="BK4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="BL4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="BM4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="BN4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="BO4" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="BP4" t="n">
-        <v>170</v>
-      </c>
-      <c r="BQ4" t="n">
-        <v>26</v>
-      </c>
       <c r="BR4" t="n">
-        <v>0.6306367122590008</v>
+        <v>0.05283757338551859</v>
       </c>
       <c r="BS4" t="n">
-        <v>0.5031886288612943</v>
+        <v>0.03326810176125244</v>
       </c>
       <c r="BT4" t="n">
-        <v>14.14731286593537</v>
+        <v>29.76516634050881</v>
       </c>
       <c r="BU4" t="n">
-        <v>4.87633155890361</v>
+        <v>8.986301369863014</v>
       </c>
       <c r="BV4" t="n">
-        <v>0.000977516184320848</v>
+        <v>0.001956947162426614</v>
       </c>
       <c r="BW4" t="n">
-        <v>7.069586563232599</v>
+        <v>2.311154598825832</v>
       </c>
       <c r="BX4" t="n">
-        <v>6.117493289757697</v>
+        <v>1.019569471624266</v>
       </c>
       <c r="BY4" t="n">
-        <v>2.380318164796336e-13</v>
+        <v>0</v>
       </c>
       <c r="BZ4" t="n">
-        <v>25.16313785793488</v>
+        <v>36.54990215264188</v>
       </c>
       <c r="CA4" t="n">
-        <v>13.78098926882238</v>
+        <v>12.48140900195695</v>
       </c>
       <c r="CB4" t="n">
-        <v>0.5298549392699996</v>
+        <v>0.2979060665362035</v>
       </c>
       <c r="CC4" t="n">
-        <v>0.3144569396975037</v>
+        <v>0.02348336594911937</v>
       </c>
       <c r="CD4" t="n">
-        <v>0.5162086564676345</v>
+        <v>1.166340508806262</v>
       </c>
       <c r="CE4" t="n">
-        <v>0.1875915604182627</v>
+        <v>0.03131115459882583</v>
       </c>
       <c r="CF4" t="n">
-        <v>0.072591560301835</v>
+        <v>0.02082191780821918</v>
       </c>
       <c r="CG4" t="n">
-        <v>36.32595503652597</v>
+        <v>38.06066536203522</v>
       </c>
       <c r="CH4" t="n">
-        <v>24.75630142975216</v>
+        <v>13.73385518590998</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45738</v>
+        <v>45745</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Women's Strawweight</t>
+          <t>Bantamweight</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6.905506625595515</v>
+        <v>4.798434442270058</v>
       </c>
       <c r="D5" t="n">
-        <v>4.727116608483934</v>
+        <v>1.283757338551859</v>
       </c>
       <c r="E5" t="n">
-        <v>1.102478029397275</v>
+        <v>0.06262230919765166</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8356980026433207</v>
+        <v>0.03131115459882583</v>
       </c>
       <c r="G5" t="n">
-        <v>86.40955595375887</v>
+        <v>80.39138943248533</v>
       </c>
       <c r="H5" t="n">
-        <v>26.46099636230803</v>
+        <v>30.05675146771037</v>
       </c>
       <c r="I5" t="n">
-        <v>12.44202458568294</v>
+        <v>10.49510763209393</v>
       </c>
       <c r="J5" t="n">
-        <v>638</v>
+        <v>560</v>
       </c>
       <c r="K5" t="n">
-        <v>238</v>
+        <v>196</v>
       </c>
       <c r="L5" t="n">
-        <v>0.62</v>
+        <v>0.51</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>32997</v>
+        <v>38268</v>
       </c>
       <c r="N5" t="n">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="O5" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Molly McCann</t>
+          <t>Raul Rosas Jr.</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
+          <t>Switch</t>
+        </is>
+      </c>
+      <c r="S5" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>135</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>2.097847358121331</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>1.659491193737769</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>21.85714285714285</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>6.516634050880626</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0.03131115459882583</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>5.561643835616438</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>4.385518590998043</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0.06262230919765166</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>32.21722113502936</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>12.18590998043053</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0.3792172211350294</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0.1330724070450098</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>2.753424657534246</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0.6418786692759295</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0.2419569471624266</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>42.28180039138942</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>21.24657534246575</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>5.082783763574586</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>2.817815054524842</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>6.212850344947</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>1.517733783586847</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>70.37023320020634</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>43.37949606057978</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>11.86163776288258</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>755</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>42</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="BC5" s="2" t="n">
+        <v>33189</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>170</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF5" t="inlineStr">
+        <is>
+          <t>Vince Morales</t>
+        </is>
+      </c>
+      <c r="BG5" t="n">
+        <v>70</v>
+      </c>
+      <c r="BH5" t="inlineStr">
+        <is>
           <t>Orthodox</t>
         </is>
       </c>
-      <c r="S5" t="n">
-        <v>4.72</v>
-      </c>
-      <c r="T5" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>115</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>14</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>1.961407642739653</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>1.305021646069403</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>21.30182682592762</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>8.819396113640435</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>0.02343750004365575</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>1.317548582921826</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>1.036231512271299</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>7.450580610801616e-09</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>29.52488203444496</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>14.58274423439567</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>0.5057410018252972</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>0.1250620039646737</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>2.274449695412907</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>1.008548954517672</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>0.4420173510946657</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>40.03471928655118</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>24.33855221111058</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>900</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="BC5" s="2" t="n">
-        <v>35023</v>
-      </c>
-      <c r="BD5" t="n">
-        <v>163</v>
-      </c>
-      <c r="BE5" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF5" t="inlineStr">
-        <is>
-          <t>Alexia Thainara</t>
-        </is>
-      </c>
-      <c r="BG5" t="n">
-        <v>67</v>
-      </c>
-      <c r="BH5" t="inlineStr">
-        <is>
-          <t>Orthodox</t>
-        </is>
-      </c>
       <c r="BI5" t="n">
-        <v>3.07</v>
+        <v>4.29</v>
       </c>
       <c r="BJ5" t="n">
-        <v>6.73</v>
+        <v>3.84</v>
       </c>
       <c r="BK5" t="n">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
       <c r="BL5" t="n">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="BM5" t="n">
-        <v>1</v>
+        <v>0.35</v>
       </c>
       <c r="BN5" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="BO5" t="n">
-        <v>3</v>
+        <v>0.54</v>
       </c>
       <c r="BP5" t="n">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="BQ5" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="BR5" t="n">
-        <v>0</v>
+        <v>0.01297068673197548</v>
       </c>
       <c r="BS5" t="n">
-        <v>0</v>
+        <v>0.01271843986025094</v>
       </c>
       <c r="BT5" t="n">
-        <v>0</v>
+        <v>42.76033626558401</v>
       </c>
       <c r="BU5" t="n">
-        <v>0</v>
+        <v>9.734348162075767</v>
       </c>
       <c r="BV5" t="n">
-        <v>0</v>
+        <v>0.0009803772557006631</v>
       </c>
       <c r="BW5" t="n">
-        <v>0</v>
+        <v>1.762197063100163</v>
       </c>
       <c r="BX5" t="n">
-        <v>0</v>
+        <v>0.8399267697290641</v>
       </c>
       <c r="BY5" t="n">
-        <v>0</v>
+        <v>0.007812500465661315</v>
       </c>
       <c r="BZ5" t="n">
-        <v>0</v>
+        <v>49.60531709225876</v>
       </c>
       <c r="CA5" t="n">
-        <v>0</v>
+        <v>13.39208998632967</v>
       </c>
       <c r="CB5" t="n">
-        <v>0</v>
+        <v>0.2713901061648193</v>
       </c>
       <c r="CC5" t="n">
         <v>0</v>
       </c>
       <c r="CD5" t="n">
-        <v>0</v>
+        <v>2.251342907627994</v>
       </c>
       <c r="CE5" t="n">
-        <v>0</v>
+        <v>0.7502441853430382</v>
       </c>
       <c r="CF5" t="n">
-        <v>0</v>
+        <v>0.2477441553917024</v>
       </c>
       <c r="CG5" t="n">
-        <v>0</v>
+        <v>55.00657635966398</v>
       </c>
       <c r="CH5" t="n">
-        <v>0</v>
+        <v>17.54237237825229</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45738</v>
+        <v>45745</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Lightweight</t>
+          <t>Bantamweight</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5.999999999999999</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>5.333333333333333</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>76.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>10.66666666666667</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>900</v>
       </c>
       <c r="K6" t="n">
-        <v>231</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0.55</v>
+        <v>0.66</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>35126</v>
+        <v>36010</v>
       </c>
       <c r="N6" t="n">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="O6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Jordan Vucenic</t>
+          <t>David Martinez</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -2011,13 +2011,13 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>2</v>
+        <v>3.07</v>
       </c>
       <c r="T6" t="n">
-        <v>2.27</v>
+        <v>5.27</v>
       </c>
       <c r="U6" t="n">
-        <v>0.4</v>
+        <v>0.49</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -2026,55 +2026,55 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
       </c>
       <c r="Z6" t="n">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="AA6" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AB6" t="n">
-        <v>1.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AC6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD6" t="n">
-        <v>32.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="AE6" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="AI6" t="n">
         <v>0</v>
       </c>
       <c r="AJ6" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="AK6" t="n">
-        <v>15.66666666666667</v>
+        <v>0</v>
       </c>
       <c r="AL6" t="n">
-        <v>0.3966666666666666</v>
+        <v>0</v>
       </c>
       <c r="AM6" t="n">
         <v>0</v>
       </c>
       <c r="AN6" t="n">
-        <v>1.333333333333333</v>
+        <v>0</v>
       </c>
       <c r="AO6" t="n">
         <v>0</v>
@@ -2083,57 +2083,57 @@
         <v>0</v>
       </c>
       <c r="AQ6" t="n">
-        <v>55.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="AR6" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>5.21259842519685</v>
+        <v>5.857142857142857</v>
       </c>
       <c r="AT6" t="n">
-        <v>4.220472440944881</v>
+        <v>3.571428571428571</v>
       </c>
       <c r="AU6" t="n">
-        <v>1.535433070866142</v>
+        <v>2.571428571428571</v>
       </c>
       <c r="AV6" t="n">
-        <v>0.7795275590551181</v>
+        <v>2.285714285714286</v>
       </c>
       <c r="AW6" t="n">
-        <v>40.34645669291339</v>
+        <v>3.857142857142857</v>
       </c>
       <c r="AX6" t="n">
-        <v>33.62992125984252</v>
+        <v>27.14285714285714</v>
       </c>
       <c r="AY6" t="n">
-        <v>15.01574803149606</v>
+        <v>10.85714285714286</v>
       </c>
       <c r="AZ6" t="n">
-        <v>425</v>
+        <v>746</v>
       </c>
       <c r="BA6" t="n">
-        <v>175</v>
+        <v>798</v>
       </c>
       <c r="BB6" t="n">
         <v>0.48</v>
       </c>
       <c r="BC6" s="2" t="n">
-        <v>34099</v>
+        <v>33349</v>
       </c>
       <c r="BD6" t="n">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="BE6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>Chris Duncan</t>
+          <t>Saimon Oliveira</t>
         </is>
       </c>
       <c r="BG6" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="BH6" t="inlineStr">
         <is>
@@ -2141,139 +2141,139 @@
         </is>
       </c>
       <c r="BI6" t="n">
-        <v>4</v>
+        <v>3.91</v>
       </c>
       <c r="BJ6" t="n">
-        <v>4.7</v>
+        <v>2.82</v>
       </c>
       <c r="BK6" t="n">
-        <v>0.46</v>
+        <v>0.41</v>
       </c>
       <c r="BL6" t="n">
-        <v>0.3</v>
+        <v>1.6</v>
       </c>
       <c r="BM6" t="n">
-        <v>0.37</v>
+        <v>0.25</v>
       </c>
       <c r="BN6" t="n">
-        <v>0.33</v>
+        <v>0.35</v>
       </c>
       <c r="BO6" t="n">
-        <v>3.53</v>
+        <v>1.21</v>
       </c>
       <c r="BP6" t="n">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="BQ6" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="BR6" t="n">
-        <v>0.1417322834645669</v>
+        <v>0</v>
       </c>
       <c r="BS6" t="n">
-        <v>0.1417322834645669</v>
+        <v>0</v>
       </c>
       <c r="BT6" t="n">
-        <v>28.13385826771653</v>
+        <v>22.28571428571428</v>
       </c>
       <c r="BU6" t="n">
-        <v>10.74015748031496</v>
+        <v>8</v>
       </c>
       <c r="BV6" t="n">
         <v>0</v>
       </c>
       <c r="BW6" t="n">
-        <v>1.960629921259842</v>
+        <v>1.571428571428571</v>
       </c>
       <c r="BX6" t="n">
-        <v>0.9763779527559056</v>
+        <v>1.571428571428571</v>
       </c>
       <c r="BY6" t="n">
         <v>0</v>
       </c>
       <c r="BZ6" t="n">
-        <v>35.30708661417323</v>
+        <v>29.71428571428571</v>
       </c>
       <c r="CA6" t="n">
-        <v>15.93700787401575</v>
+        <v>13.14285714285714</v>
       </c>
       <c r="CB6" t="n">
-        <v>0.48</v>
+        <v>0.4771428571428571</v>
       </c>
       <c r="CC6" t="n">
-        <v>0</v>
+        <v>1.428571428571428</v>
       </c>
       <c r="CD6" t="n">
-        <v>2.519685039370079</v>
+        <v>0</v>
       </c>
       <c r="CE6" t="n">
-        <v>0.9606299212598425</v>
+        <v>0</v>
       </c>
       <c r="CF6" t="n">
-        <v>0.3763779527559055</v>
+        <v>0</v>
       </c>
       <c r="CG6" t="n">
-        <v>36.25196850393701</v>
+        <v>37.28571428571428</v>
       </c>
       <c r="CH6" t="n">
-        <v>16.62992125984252</v>
+        <v>20.42857142857143</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45738</v>
+        <v>45745</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Featherweight</t>
+          <t>Flyweight</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6.157059515972677</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="D7" t="n">
-        <v>5.526351279137983</v>
+        <v>0.8</v>
       </c>
       <c r="E7" t="n">
-        <v>0.531677641469685</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3989478949447609</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7" t="n">
-        <v>84.58490559326941</v>
+        <v>223.1333333333333</v>
       </c>
       <c r="H7" t="n">
-        <v>37.1099566874187</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="I7" t="n">
-        <v>24.85294758794172</v>
+        <v>1.933333333333333</v>
       </c>
       <c r="J7" t="n">
-        <v>788</v>
+        <v>800</v>
       </c>
       <c r="K7" t="n">
-        <v>238</v>
+        <v>196</v>
       </c>
       <c r="L7" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.46</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>34097</v>
+        <v>36287</v>
       </c>
       <c r="N7" t="n">
         <v>168</v>
       </c>
       <c r="O7" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Nathaniel Wood</t>
+          <t>Ronaldo Rodriguez</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -2281,129 +2281,129 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>4</v>
+        <v>3.15</v>
       </c>
       <c r="T7" t="n">
-        <v>5.75</v>
+        <v>2.13</v>
       </c>
       <c r="U7" t="n">
-        <v>0.51</v>
+        <v>0.44</v>
       </c>
       <c r="V7" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="W7" t="n">
         <v>0.5</v>
       </c>
-      <c r="W7" t="n">
-        <v>0.48</v>
-      </c>
       <c r="X7" t="n">
-        <v>0.72</v>
+        <v>0.64</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.56</v>
+        <v>1.13</v>
       </c>
       <c r="Z7" t="n">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="AA7" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AB7" t="n">
-        <v>7.107666461828785</v>
+        <v>16.4</v>
       </c>
       <c r="AC7" t="n">
-        <v>5.681396847294081</v>
+        <v>12.66666666666667</v>
       </c>
       <c r="AD7" t="n">
-        <v>29.10680946903938</v>
+        <v>20.73333333333333</v>
       </c>
       <c r="AE7" t="n">
-        <v>17.58751364758938</v>
+        <v>12.86666666666667</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.5039062541945896</v>
+        <v>0</v>
       </c>
       <c r="AG7" t="n">
-        <v>9.485431805705122</v>
+        <v>1.533333333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>7.819427403453204</v>
+        <v>1.266666666666667</v>
       </c>
       <c r="AI7" t="n">
-        <v>2.980232241545089e-08</v>
+        <v>0.6</v>
       </c>
       <c r="AJ7" t="n">
-        <v>44.74930079071717</v>
+        <v>23.2</v>
       </c>
       <c r="AK7" t="n">
-        <v>30.93329233018057</v>
+        <v>14.93333333333333</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.7061778032837229</v>
+        <v>0.6293333333333333</v>
       </c>
       <c r="AM7" t="n">
-        <v>1.061707736050438e-07</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.5358651061876352</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.1090128348292903</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.04633703116917706</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="AQ7" t="n">
-        <v>52.07561649482289</v>
+        <v>40.73333333333333</v>
       </c>
       <c r="AR7" t="n">
-        <v>37.42995342186648</v>
+        <v>27.66666666666666</v>
       </c>
       <c r="AS7" t="n">
-        <v>2.967741935483871</v>
+        <v>5.266666666666667</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.870967741935484</v>
+        <v>3.933333333333333</v>
       </c>
       <c r="AU7" t="n">
-        <v>1.516129032258065</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="AV7" t="n">
-        <v>0.8709677419354839</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="AW7" t="n">
-        <v>110.3548387096774</v>
+        <v>3</v>
       </c>
       <c r="AX7" t="n">
-        <v>23.12903225806452</v>
+        <v>49.93333333333334</v>
       </c>
       <c r="AY7" t="n">
-        <v>11.58064516129032</v>
+        <v>19.26666666666667</v>
       </c>
       <c r="AZ7" t="n">
-        <v>486</v>
+        <v>732</v>
       </c>
       <c r="BA7" t="n">
-        <v>175</v>
+        <v>329</v>
       </c>
       <c r="BB7" t="n">
-        <v>0.57</v>
+        <v>0.49</v>
       </c>
       <c r="BC7" s="2" t="n">
-        <v>34998</v>
+        <v>35770</v>
       </c>
       <c r="BD7" t="n">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="BE7" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>Morgan Charriere</t>
+          <t>Kevin Borjas</t>
         </is>
       </c>
       <c r="BG7" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="BH7" t="inlineStr">
         <is>
@@ -2411,139 +2411,139 @@
         </is>
       </c>
       <c r="BI7" t="n">
-        <v>3.74</v>
+        <v>6.7</v>
       </c>
       <c r="BJ7" t="n">
-        <v>3.87</v>
+        <v>4.92</v>
       </c>
       <c r="BK7" t="n">
-        <v>0.51</v>
+        <v>0.4</v>
       </c>
       <c r="BL7" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="BM7" t="n">
-        <v>0.57</v>
+        <v>0</v>
       </c>
       <c r="BN7" t="n">
-        <v>0.83</v>
+        <v>0.61</v>
       </c>
       <c r="BO7" t="n">
-        <v>2.47</v>
+        <v>0</v>
       </c>
       <c r="BP7" t="n">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="BQ7" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="BR7" t="n">
-        <v>3.645161290322581</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="BS7" t="n">
-        <v>3.096774193548387</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="BT7" t="n">
-        <v>22.87096774193548</v>
+        <v>43.8</v>
       </c>
       <c r="BU7" t="n">
-        <v>11.03225806451613</v>
+        <v>13.86666666666667</v>
       </c>
       <c r="BV7" t="n">
-        <v>0.03225806451612903</v>
+        <v>0</v>
       </c>
       <c r="BW7" t="n">
-        <v>2.451612903225806</v>
+        <v>2.266666666666667</v>
       </c>
       <c r="BX7" t="n">
-        <v>1.645161290322581</v>
+        <v>2</v>
       </c>
       <c r="BY7" t="n">
-        <v>0.5806451612903225</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="BZ7" t="n">
-        <v>28.29032258064516</v>
+        <v>51.33333333333333</v>
       </c>
       <c r="CA7" t="n">
-        <v>15.54838709677419</v>
+        <v>19.8</v>
       </c>
       <c r="CB7" t="n">
-        <v>0.5338709677419355</v>
+        <v>0.3833333333333333</v>
       </c>
       <c r="CC7" t="n">
-        <v>0.06451612903225806</v>
+        <v>0</v>
       </c>
       <c r="CD7" t="n">
-        <v>1.741935483870968</v>
+        <v>1.533333333333333</v>
       </c>
       <c r="CE7" t="n">
-        <v>1.419354838709677</v>
+        <v>0</v>
       </c>
       <c r="CF7" t="n">
-        <v>0.8167741935483871</v>
+        <v>0</v>
       </c>
       <c r="CG7" t="n">
-        <v>39.19354838709678</v>
+        <v>51.93333333333334</v>
       </c>
       <c r="CH7" t="n">
-        <v>24.90322580645161</v>
+        <v>20.4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45738</v>
+        <v>45745</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Lightweight</t>
+          <t>Flyweight</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>13.52736705577172</v>
+        <v>6.936507936507936</v>
       </c>
       <c r="D8" t="n">
-        <v>9.237079423208973</v>
+        <v>5.095238095238095</v>
       </c>
       <c r="E8" t="n">
-        <v>2.58808270389868</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="F8" t="n">
-        <v>1.900541695277333</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="G8" t="n">
-        <v>23.00042725261311</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="H8" t="n">
-        <v>46.30562294956893</v>
+        <v>60.38095238095238</v>
       </c>
       <c r="I8" t="n">
-        <v>20.78651102464332</v>
+        <v>25.80952380952381</v>
       </c>
       <c r="J8" t="n">
-        <v>675</v>
+        <v>613</v>
       </c>
       <c r="K8" t="n">
-        <v>231</v>
+        <v>196</v>
       </c>
       <c r="L8" t="n">
-        <v>0.52</v>
+        <v>0.42</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>32276</v>
+        <v>35091</v>
       </c>
       <c r="N8" t="n">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="O8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Jai Herbert</t>
+          <t>Edgar Chairez</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
@@ -2551,70 +2551,70 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>3.37</v>
+        <v>5.21</v>
       </c>
       <c r="T8" t="n">
-        <v>3.16</v>
+        <v>3.45</v>
       </c>
       <c r="U8" t="n">
-        <v>0.42</v>
+        <v>0.45</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="W8" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0.59</v>
+        <v>0.33</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Z8" t="n">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="AA8" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.2710765239948119</v>
+        <v>0.126984126984127</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.01904325932707714</v>
+        <v>0.126984126984127</v>
       </c>
       <c r="AD8" t="n">
-        <v>31.32085145342183</v>
+        <v>46.68253968253968</v>
       </c>
       <c r="AE8" t="n">
-        <v>10.59143968871595</v>
+        <v>15.61904761904762</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.2514991989013504</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="AG8" t="n">
-        <v>4.316563668268864</v>
+        <v>7.65079365079365</v>
       </c>
       <c r="AH8" t="n">
-        <v>2.877576867322805</v>
+        <v>5.984126984126984</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>0.06349206349206349</v>
       </c>
       <c r="AJ8" t="n">
-        <v>49.16478217746243</v>
+        <v>61.26984126984127</v>
       </c>
       <c r="AK8" t="n">
-        <v>22.70609597924773</v>
+        <v>26.6984126984127</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.4567711909666591</v>
+        <v>0.4663492063492063</v>
       </c>
       <c r="AM8" t="n">
-        <v>0</v>
+        <v>0.7142857142857142</v>
       </c>
       <c r="AN8" t="n">
-        <v>0.5703212024109254</v>
+        <v>0.5079365079365079</v>
       </c>
       <c r="AO8" t="n">
         <v>0</v>
@@ -2623,57 +2623,57 @@
         <v>0</v>
       </c>
       <c r="AQ8" t="n">
-        <v>51.1205767910277</v>
+        <v>63.84126984126984</v>
       </c>
       <c r="AR8" t="n">
-        <v>24.12712291142138</v>
+        <v>29.26984126984127</v>
       </c>
       <c r="AS8" t="n">
-        <v>5.666666666666666</v>
+        <v>8.977416647592889</v>
       </c>
       <c r="AT8" t="n">
-        <v>3</v>
+        <v>7.185198748760205</v>
       </c>
       <c r="AU8" t="n">
-        <v>0.6666666666666666</v>
+        <v>1.080872816052491</v>
       </c>
       <c r="AV8" t="n">
-        <v>0.6666666666666666</v>
+        <v>1.071702143892576</v>
       </c>
       <c r="AW8" t="n">
-        <v>26.66666666666666</v>
+        <v>3.216372930495155</v>
       </c>
       <c r="AX8" t="n">
-        <v>42.99999999999999</v>
+        <v>24.41622034027619</v>
       </c>
       <c r="AY8" t="n">
-        <v>26.33333333333333</v>
+        <v>12.75187304493782</v>
       </c>
       <c r="AZ8" t="n">
-        <v>414</v>
+        <v>614</v>
       </c>
       <c r="BA8" t="n">
-        <v>196</v>
+        <v>168</v>
       </c>
       <c r="BB8" t="n">
-        <v>0.46</v>
+        <v>0.53</v>
       </c>
       <c r="BC8" s="2" t="n">
-        <v>34956</v>
+        <v>33407</v>
       </c>
       <c r="BD8" t="n">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="BE8" t="n">
         <v>6</v>
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>Chris Padilla</t>
+          <t>CJ Vergara</t>
         </is>
       </c>
       <c r="BG8" t="n">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="BH8" t="inlineStr">
         <is>
@@ -2681,139 +2681,139 @@
         </is>
       </c>
       <c r="BI8" t="n">
-        <v>4.93</v>
+        <v>4.74</v>
       </c>
       <c r="BJ8" t="n">
-        <v>5.8</v>
+        <v>5.1</v>
       </c>
       <c r="BK8" t="n">
-        <v>0.61</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="BL8" t="n">
-        <v>1.1</v>
+        <v>0.2</v>
       </c>
       <c r="BM8" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="BN8" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="BO8" t="n">
-        <v>3.26</v>
+        <v>0</v>
       </c>
       <c r="BP8" t="n">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="BQ8" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="BR8" t="n">
-        <v>0.3333333333333333</v>
+        <v>1.362691691462577</v>
       </c>
       <c r="BS8" t="n">
-        <v>0.3333333333333333</v>
+        <v>1.142168307011521</v>
       </c>
       <c r="BT8" t="n">
-        <v>20.66666666666666</v>
+        <v>16.06907759212634</v>
       </c>
       <c r="BU8" t="n">
-        <v>12.66666666666667</v>
+        <v>6.63547722590982</v>
       </c>
       <c r="BV8" t="n">
         <v>0</v>
       </c>
       <c r="BW8" t="n">
-        <v>17.66666666666667</v>
+        <v>1.813290608072023</v>
       </c>
       <c r="BX8" t="n">
-        <v>11.66666666666667</v>
+        <v>1.145067521171893</v>
       </c>
       <c r="BY8" t="n">
-        <v>0</v>
+        <v>0.000976577401388571</v>
       </c>
       <c r="BZ8" t="n">
-        <v>43.99999999999999</v>
+        <v>26.85978484779125</v>
       </c>
       <c r="CA8" t="n">
-        <v>27.33333333333333</v>
+        <v>14.96574349584192</v>
       </c>
       <c r="CB8" t="n">
-        <v>0.5933333333333333</v>
+        <v>0.5562044708934157</v>
       </c>
       <c r="CC8" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.007812619211108568</v>
       </c>
       <c r="CD8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF8" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="CG8" t="n">
-        <v>44.99999999999999</v>
+        <v>39.79638361181048</v>
       </c>
       <c r="CH8" t="n">
-        <v>28</v>
+        <v>27.11039902342259</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45738</v>
+        <v>45745</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Flyweight</t>
+          <t>Middleweight</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>10.66666666666667</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="D9" t="n">
-        <v>5.999999999999999</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>32.66666666666666</v>
       </c>
       <c r="H9" t="n">
-        <v>45</v>
+        <v>32.33333333333333</v>
       </c>
       <c r="I9" t="n">
-        <v>18.33333333333333</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="J9" t="n">
-        <v>523</v>
+        <v>900</v>
       </c>
       <c r="K9" t="n">
-        <v>119</v>
+        <v>217</v>
       </c>
       <c r="L9" t="n">
-        <v>0.67</v>
+        <v>0.48</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>36320</v>
+        <v>33375</v>
       </c>
       <c r="N9" t="n">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Lone'er Kavanagh</t>
+          <t>Jose Daniel Medina</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -2821,31 +2821,31 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>3.45</v>
+        <v>4.93</v>
       </c>
       <c r="T9" t="n">
-        <v>3.62</v>
+        <v>1.87</v>
       </c>
       <c r="U9" t="n">
-        <v>0.43</v>
+        <v>0.33</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="X9" t="n">
-        <v>1</v>
+        <v>0.31</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>125</v>
+        <v>185</v>
       </c>
       <c r="AA9" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AB9" t="n">
         <v>0</v>
@@ -2854,7 +2854,7 @@
         <v>0</v>
       </c>
       <c r="AD9" t="n">
-        <v>25.66666666666666</v>
+        <v>23</v>
       </c>
       <c r="AE9" t="n">
         <v>8</v>
@@ -2863,158 +2863,158 @@
         <v>0</v>
       </c>
       <c r="AG9" t="n">
-        <v>9.333333333333332</v>
+        <v>4</v>
       </c>
       <c r="AH9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI9" t="n">
         <v>0</v>
       </c>
       <c r="AJ9" t="n">
-        <v>45.66666666666666</v>
+        <v>32.33333333333333</v>
       </c>
       <c r="AK9" t="n">
-        <v>19</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="AL9" t="n">
-        <v>0.4133333333333333</v>
+        <v>0.3733333333333333</v>
       </c>
       <c r="AM9" t="n">
         <v>0</v>
       </c>
       <c r="AN9" t="n">
-        <v>1.333333333333333</v>
+        <v>1</v>
       </c>
       <c r="AO9" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AP9" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AQ9" t="n">
-        <v>45.66666666666666</v>
+        <v>37.33333333333333</v>
       </c>
       <c r="AR9" t="n">
-        <v>19</v>
+        <v>17.66666666666666</v>
       </c>
       <c r="AS9" t="n">
-        <v>7.058823529411765</v>
+        <v>0</v>
       </c>
       <c r="AT9" t="n">
-        <v>5.109803921568627</v>
+        <v>0</v>
       </c>
       <c r="AU9" t="n">
-        <v>3.137254901960784</v>
+        <v>0</v>
       </c>
       <c r="AV9" t="n">
-        <v>1.956862745098039</v>
+        <v>0</v>
       </c>
       <c r="AW9" t="n">
-        <v>16.72156862745098</v>
+        <v>0</v>
       </c>
       <c r="AX9" t="n">
-        <v>26.30588235294118</v>
+        <v>0</v>
       </c>
       <c r="AY9" t="n">
-        <v>12.38823529411765</v>
+        <v>0</v>
       </c>
       <c r="AZ9" t="n">
-        <v>900</v>
+        <v>540</v>
       </c>
       <c r="BA9" t="n">
-        <v>196</v>
+        <v>0</v>
       </c>
       <c r="BB9" t="n">
-        <v>0.41</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="BC9" s="2" t="n">
-        <v>36780</v>
+        <v>37356</v>
       </c>
       <c r="BD9" t="n">
-        <v>170</v>
+        <v>193</v>
       </c>
       <c r="BE9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>Felipe dos Santos</t>
+          <t>Ateba Gautier</t>
         </is>
       </c>
       <c r="BG9" t="n">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>Orthodox</t>
+          <t>Switch</t>
         </is>
       </c>
       <c r="BI9" t="n">
-        <v>3.78</v>
+        <v>1.22</v>
       </c>
       <c r="BJ9" t="n">
-        <v>3.87</v>
+        <v>5.33</v>
       </c>
       <c r="BK9" t="n">
-        <v>0.37</v>
+        <v>0.71</v>
       </c>
       <c r="BL9" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="BM9" t="n">
         <v>0</v>
       </c>
       <c r="BN9" t="n">
-        <v>0.14</v>
+        <v>0.9</v>
       </c>
       <c r="BO9" t="n">
         <v>0</v>
       </c>
       <c r="BP9" t="n">
-        <v>125</v>
+        <v>185</v>
       </c>
       <c r="BQ9" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BR9" t="n">
-        <v>0.4705882352941176</v>
+        <v>0</v>
       </c>
       <c r="BS9" t="n">
-        <v>0.04705882352941176</v>
+        <v>0</v>
       </c>
       <c r="BT9" t="n">
-        <v>19.25882352941176</v>
+        <v>0</v>
       </c>
       <c r="BU9" t="n">
-        <v>6.52156862745098</v>
+        <v>0</v>
       </c>
       <c r="BV9" t="n">
         <v>0</v>
       </c>
       <c r="BW9" t="n">
-        <v>3.596078431372549</v>
+        <v>0</v>
       </c>
       <c r="BX9" t="n">
-        <v>2.76078431372549</v>
+        <v>0</v>
       </c>
       <c r="BY9" t="n">
         <v>0</v>
       </c>
       <c r="BZ9" t="n">
-        <v>29.91372549019608</v>
+        <v>0</v>
       </c>
       <c r="CA9" t="n">
-        <v>14.3921568627451</v>
+        <v>0</v>
       </c>
       <c r="CB9" t="n">
-        <v>0.4792549019607843</v>
+        <v>0</v>
       </c>
       <c r="CC9" t="n">
-        <v>0.1254901960784314</v>
+        <v>0</v>
       </c>
       <c r="CD9" t="n">
-        <v>2.043137254901961</v>
+        <v>0</v>
       </c>
       <c r="CE9" t="n">
         <v>0</v>
@@ -3023,67 +3023,67 @@
         <v>0</v>
       </c>
       <c r="CG9" t="n">
-        <v>39.34901960784314</v>
+        <v>0</v>
       </c>
       <c r="CH9" t="n">
-        <v>21.38823529411765</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45738</v>
+        <v>45745</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Heavyweight</t>
+          <t>Featherweight</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2.343248946193012</v>
+        <v>2.007446743575658</v>
       </c>
       <c r="D10" t="n">
-        <v>1.37980792147668</v>
+        <v>1.974180553012269</v>
       </c>
       <c r="E10" t="n">
-        <v>0.01554731407633715</v>
+        <v>2.353598242080205</v>
       </c>
       <c r="F10" t="n">
-        <v>0.00855870668832371</v>
+        <v>2.170359519013612</v>
       </c>
       <c r="G10" t="n">
-        <v>159.7304876046654</v>
+        <v>62.79423792956113</v>
       </c>
       <c r="H10" t="n">
-        <v>7.006664988655038</v>
+        <v>47.72660684856253</v>
       </c>
       <c r="I10" t="n">
-        <v>2.345017359569846</v>
+        <v>21.21784776902887</v>
       </c>
       <c r="J10" t="n">
-        <v>664</v>
+        <v>742</v>
       </c>
       <c r="K10" t="n">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="L10" t="n">
-        <v>0.55</v>
+        <v>0.57</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>31360</v>
+        <v>35781</v>
       </c>
       <c r="N10" t="n">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="O10" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Marcin Tybura</t>
+          <t>Christian Rodriguez</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
@@ -3091,1027 +3091,1027 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>3.26</v>
+        <v>2.41</v>
       </c>
       <c r="T10" t="n">
-        <v>3.57</v>
+        <v>3.54</v>
       </c>
       <c r="U10" t="n">
-        <v>0.49</v>
+        <v>0.48</v>
       </c>
       <c r="V10" t="n">
-        <v>0.1</v>
+        <v>1.2</v>
       </c>
       <c r="W10" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>145</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>7.617286211316609</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>5.315387902093634</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>52.40761765244461</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>23.94750656167979</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>3.282426905939083</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>2.781908075444058</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0.5157785509369468</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>57.69749130195935</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>28.70359519013612</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0.5248782274308734</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0.02435451382530672</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0.0833791124946591</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0.05896355978758469</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>0.05310382713788683</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>71.6887017029848</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>39.750656167979</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>4.375366568914956</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>2.451612903225806</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>2.140762463343108</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>1.452590420332356</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>65.66177908113391</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>8.500488758553274</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>3.053763440860215</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>557</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>35</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="BC10" s="2" t="n">
+        <v>35322</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>178</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF10" t="inlineStr">
+        <is>
+          <t>Melquizael Costa</t>
+        </is>
+      </c>
+      <c r="BG10" t="n">
+        <v>71</v>
+      </c>
+      <c r="BH10" t="inlineStr">
+        <is>
+          <t>Southpaw</t>
+        </is>
+      </c>
+      <c r="BI10" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BJ10" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BK10" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="BL10" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BM10" t="n">
         <v>0.33</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>249</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>4.161032234648619</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>3.410726158970224</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>8.715263699670569</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>4.260007511093012</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>1.421085471520202e-14</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>0.1247318915164125</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>0.1244867926587015</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>0.7500000000582083</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>11.18324453737999</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>5.764302225228393</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>0.4403446097358516</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>0.1250000000582078</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>1.036503352590823</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>0.156351004859321</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>0.06254906749482259</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>61.07860427319949</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>45.99777094001258</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>1.765166340508806</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>1.682974559686888</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>0.6771037181996086</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>0.6731898238747553</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>9.596868884540116</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>54.34833659491193</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>26.62622309197651</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>604</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>238</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="BC10" s="2" t="n">
-        <v>34974</v>
-      </c>
-      <c r="BD10" t="n">
-        <v>193</v>
-      </c>
-      <c r="BE10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF10" t="inlineStr">
-        <is>
-          <t>Mick Parkin</t>
-        </is>
-      </c>
-      <c r="BG10" t="n">
-        <v>79</v>
-      </c>
-      <c r="BH10" t="inlineStr">
-        <is>
-          <t>Orthodox</t>
-        </is>
-      </c>
-      <c r="BI10" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="BJ10" t="n">
-        <v>4.91</v>
-      </c>
-      <c r="BK10" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="BL10" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="BM10" t="n">
-        <v>0.41</v>
       </c>
       <c r="BN10" t="n">
         <v>0.5</v>
       </c>
       <c r="BO10" t="n">
-        <v>1.49</v>
+        <v>2.26</v>
       </c>
       <c r="BP10" t="n">
-        <v>265</v>
+        <v>145</v>
       </c>
       <c r="BQ10" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="BR10" t="n">
-        <v>0.09393346379647749</v>
+        <v>2.408602150537634</v>
       </c>
       <c r="BS10" t="n">
-        <v>0.06262230919765166</v>
+        <v>1.517106549364614</v>
       </c>
       <c r="BT10" t="n">
-        <v>42.37181996086105</v>
+        <v>7.58553274682307</v>
       </c>
       <c r="BU10" t="n">
-        <v>15.8238747553816</v>
+        <v>2.990224828934506</v>
       </c>
       <c r="BV10" t="n">
         <v>0</v>
       </c>
       <c r="BW10" t="n">
-        <v>10.98238747553816</v>
+        <v>1.088954056695992</v>
       </c>
       <c r="BX10" t="n">
-        <v>9.855185909980431</v>
+        <v>0.581622678396872</v>
       </c>
       <c r="BY10" t="n">
-        <v>0.03131115459882583</v>
+        <v>0.1251221896383187</v>
       </c>
       <c r="BZ10" t="n">
-        <v>55.11937377690802</v>
+        <v>13.04985337243402</v>
       </c>
       <c r="CA10" t="n">
-        <v>27.36203522504892</v>
+        <v>6.023460410557185</v>
       </c>
       <c r="CB10" t="n">
-        <v>0.4836399217221135</v>
+        <v>0.4706060606060606</v>
       </c>
       <c r="CC10" t="n">
-        <v>0</v>
+        <v>0.6412512218963832</v>
       </c>
       <c r="CD10" t="n">
-        <v>0.3444227005870841</v>
+        <v>0.9579667644183774</v>
       </c>
       <c r="CE10" t="n">
-        <v>0.06262230919765166</v>
+        <v>0.6099706744868035</v>
       </c>
       <c r="CF10" t="n">
-        <v>0.01816046966731898</v>
+        <v>0.2636950146627566</v>
       </c>
       <c r="CG10" t="n">
-        <v>56.28962818003913</v>
+        <v>29.78201368523949</v>
       </c>
       <c r="CH10" t="n">
-        <v>28.25048923679061</v>
+        <v>20.22091886608016</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45738</v>
+        <v>45745</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Middleweight</t>
+          <t>Women's Strawweight</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3.982404692082111</v>
+        <v>4.301944659394665</v>
       </c>
       <c r="D11" t="n">
-        <v>2.727272727272728</v>
+        <v>2.826447613962564</v>
       </c>
       <c r="E11" t="n">
-        <v>4.865102639296188</v>
+        <v>2.250478451198544</v>
       </c>
       <c r="F11" t="n">
-        <v>4.145650048875855</v>
+        <v>1.898106351471065</v>
       </c>
       <c r="G11" t="n">
-        <v>60.92864125122189</v>
+        <v>36.47474876010669</v>
       </c>
       <c r="H11" t="n">
-        <v>15.53763440860215</v>
+        <v>43.82864818601605</v>
       </c>
       <c r="I11" t="n">
-        <v>9.390029325513195</v>
+        <v>17.79220997979683</v>
       </c>
       <c r="J11" t="n">
-        <v>579</v>
+        <v>814</v>
       </c>
       <c r="K11" t="n">
         <v>238</v>
       </c>
       <c r="L11" t="n">
-        <v>0.49</v>
+        <v>0.63</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>34904</v>
+        <v>34218</v>
       </c>
       <c r="N11" t="n">
-        <v>188</v>
+        <v>157</v>
       </c>
       <c r="O11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Christian Leroy Duncan</t>
+          <t>Loopy Godinez</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Switch</t>
+          <t>Orthodox</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>3.57</v>
+        <v>3.69</v>
       </c>
       <c r="T11" t="n">
-        <v>4.71</v>
+        <v>4.16</v>
       </c>
       <c r="U11" t="n">
-        <v>0.62</v>
+        <v>0.48</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W11" t="n">
-        <v>0.14</v>
+        <v>0.47</v>
       </c>
       <c r="X11" t="n">
-        <v>0.64</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.31</v>
+        <v>2.95</v>
       </c>
       <c r="Z11" t="n">
-        <v>185</v>
+        <v>115</v>
       </c>
       <c r="AA11" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AB11" t="n">
-        <v>3.542521994134897</v>
+        <v>0.1484567080970054</v>
       </c>
       <c r="AC11" t="n">
-        <v>2.854349951124145</v>
+        <v>0.08400173487234901</v>
       </c>
       <c r="AD11" t="n">
-        <v>15.8533724340176</v>
+        <v>39.51999120286666</v>
       </c>
       <c r="AE11" t="n">
-        <v>10.01661779081134</v>
+        <v>15.04234506214092</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.03128054740957967</v>
+        <v>0.0009765625002273737</v>
       </c>
       <c r="AG11" t="n">
-        <v>4.109481915933529</v>
+        <v>2.405647483050275</v>
       </c>
       <c r="AH11" t="n">
-        <v>3.64613880742913</v>
+        <v>1.905525390036759</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>0.3125000000727596</v>
       </c>
       <c r="AJ11" t="n">
-        <v>23.94525904203324</v>
+        <v>46.2275833453116</v>
       </c>
       <c r="AK11" t="n">
-        <v>16.3900293255132</v>
+        <v>19.77431806614025</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.6789442815249267</v>
+        <v>0.4174380612716633</v>
       </c>
       <c r="AM11" t="n">
-        <v>0</v>
+        <v>0.5068367739456792</v>
       </c>
       <c r="AN11" t="n">
-        <v>0.3088954056695992</v>
+        <v>1.274402168410458</v>
       </c>
       <c r="AO11" t="n">
-        <v>0.1251221896383187</v>
+        <v>0.7583092965088574</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.06256109481915934</v>
+        <v>0.5034235534033327</v>
       </c>
       <c r="AQ11" t="n">
-        <v>31.9227761485826</v>
+        <v>48.42314054710398</v>
       </c>
       <c r="AR11" t="n">
-        <v>23.19452590420332</v>
+        <v>21.07967113309532</v>
       </c>
       <c r="AS11" t="n">
-        <v>0</v>
+        <v>13.35483870967742</v>
       </c>
       <c r="AT11" t="n">
-        <v>0</v>
+        <v>11.32258064516129</v>
       </c>
       <c r="AU11" t="n">
-        <v>0</v>
+        <v>12.61290322580645</v>
       </c>
       <c r="AV11" t="n">
-        <v>0</v>
+        <v>10.25806451612903</v>
       </c>
       <c r="AW11" t="n">
-        <v>0</v>
+        <v>99.09677419354838</v>
       </c>
       <c r="AX11" t="n">
-        <v>0</v>
+        <v>32.35483870967742</v>
       </c>
       <c r="AY11" t="n">
-        <v>0</v>
+        <v>17.35483870967742</v>
       </c>
       <c r="AZ11" t="n">
-        <v>900</v>
+        <v>811</v>
       </c>
       <c r="BA11" t="n">
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="BB11" t="n">
-        <v>0.47</v>
+        <v>0.58</v>
       </c>
       <c r="BC11" s="2" t="n">
-        <v>35683</v>
+        <v>35859</v>
       </c>
       <c r="BD11" t="n">
-        <v>193</v>
+        <v>157</v>
       </c>
       <c r="BE11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>Andrey Pulyaev</t>
+          <t>Julia Polastri</t>
         </is>
       </c>
       <c r="BG11" t="n">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>Southpaw</t>
+          <t>Orthodox</t>
         </is>
       </c>
       <c r="BI11" t="n">
-        <v>3</v>
+        <v>5.31</v>
       </c>
       <c r="BJ11" t="n">
-        <v>6.53</v>
+        <v>5.57</v>
       </c>
       <c r="BK11" t="n">
-        <v>0.68</v>
+        <v>0.54</v>
       </c>
       <c r="BL11" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="BM11" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="BN11" t="n">
-        <v>0.8</v>
+        <v>0.61</v>
       </c>
       <c r="BO11" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="BP11" t="n">
-        <v>185</v>
+        <v>115</v>
       </c>
       <c r="BQ11" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BR11" t="n">
-        <v>0</v>
+        <v>1.161290322580645</v>
       </c>
       <c r="BS11" t="n">
-        <v>0</v>
+        <v>0.7741935483870968</v>
       </c>
       <c r="BT11" t="n">
-        <v>0</v>
+        <v>27.29032258064516</v>
       </c>
       <c r="BU11" t="n">
-        <v>0</v>
+        <v>12.03225806451613</v>
       </c>
       <c r="BV11" t="n">
         <v>0</v>
       </c>
       <c r="BW11" t="n">
-        <v>0</v>
+        <v>5.483870967741935</v>
       </c>
       <c r="BX11" t="n">
-        <v>0</v>
+        <v>5.032258064516129</v>
       </c>
       <c r="BY11" t="n">
         <v>0</v>
       </c>
       <c r="BZ11" t="n">
-        <v>0</v>
+        <v>46.12903225806451</v>
       </c>
       <c r="CA11" t="n">
-        <v>0</v>
+        <v>28.38709677419354</v>
       </c>
       <c r="CB11" t="n">
-        <v>0</v>
+        <v>0.5961290322580646</v>
       </c>
       <c r="CC11" t="n">
-        <v>0</v>
+        <v>0.1290322580645161</v>
       </c>
       <c r="CD11" t="n">
-        <v>0</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="CE11" t="n">
-        <v>0</v>
+        <v>0.2258064516129032</v>
       </c>
       <c r="CF11" t="n">
-        <v>0</v>
+        <v>0.2258064516129032</v>
       </c>
       <c r="CG11" t="n">
-        <v>0</v>
+        <v>66.03225806451613</v>
       </c>
       <c r="CH11" t="n">
-        <v>0</v>
+        <v>46.83870967741935</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45738</v>
+        <v>45745</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Women's Strawweight</t>
+          <t>Lightweight</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>14.85714285714286</v>
+        <v>4.122581540385028</v>
       </c>
       <c r="D12" t="n">
-        <v>7.571428571428571</v>
+        <v>1.489586586755079</v>
       </c>
       <c r="E12" t="n">
-        <v>1.714285714285714</v>
+        <v>1.198856925419295</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8571428571428571</v>
+        <v>1.14706618645963</v>
       </c>
       <c r="G12" t="n">
-        <v>22.57142857142857</v>
+        <v>14.16390236086958</v>
       </c>
       <c r="H12" t="n">
-        <v>46.71428571428571</v>
+        <v>46.59542255183342</v>
       </c>
       <c r="I12" t="n">
-        <v>17.71428571428571</v>
+        <v>22.36944883797113</v>
       </c>
       <c r="J12" t="n">
-        <v>900</v>
+        <v>799</v>
       </c>
       <c r="K12" t="n">
-        <v>238</v>
+        <v>168</v>
       </c>
       <c r="L12" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="M12" s="2" t="n">
+        <v>34551</v>
+      </c>
+      <c r="N12" t="n">
+        <v>170</v>
+      </c>
+      <c r="O12" t="n">
+        <v>4</v>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Rafa Garcia</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v>70</v>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>Orthodox</t>
+        </is>
+      </c>
+      <c r="S12" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="T12" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="U12" t="n">
         <v>0.42</v>
       </c>
-      <c r="M12" s="2" t="n">
-        <v>34265</v>
-      </c>
-      <c r="N12" t="n">
-        <v>165</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1</v>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>Shauna Bannon</t>
-        </is>
-      </c>
-      <c r="Q12" t="n">
-        <v>65</v>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>Switch</t>
-        </is>
-      </c>
-      <c r="S12" t="n">
-        <v>3.77</v>
-      </c>
-      <c r="T12" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="U12" t="n">
-        <v>0.41</v>
-      </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="X12" t="n">
-        <v>0.42</v>
+        <v>0.75</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>3.38</v>
       </c>
       <c r="Z12" t="n">
-        <v>115</v>
+        <v>155</v>
       </c>
       <c r="AA12" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>0.5049135708396773</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>0.2853013445383761</v>
       </c>
       <c r="AD12" t="n">
-        <v>26.28571428571428</v>
+        <v>43.17572268282065</v>
       </c>
       <c r="AE12" t="n">
-        <v>7</v>
+        <v>21.35433547703527</v>
       </c>
       <c r="AF12" t="n">
         <v>0</v>
       </c>
       <c r="AG12" t="n">
-        <v>7.285714285714285</v>
+        <v>1.000888824886715</v>
       </c>
       <c r="AH12" t="n">
-        <v>4</v>
+        <v>0.9578943051787878</v>
       </c>
       <c r="AI12" t="n">
         <v>0</v>
       </c>
       <c r="AJ12" t="n">
-        <v>48.42857142857143</v>
+        <v>48.29919304809239</v>
       </c>
       <c r="AK12" t="n">
-        <v>18.57142857142857</v>
+        <v>23.80181636896914</v>
       </c>
       <c r="AL12" t="n">
-        <v>0.3842857142857142</v>
+        <v>0.4482045165083487</v>
       </c>
       <c r="AM12" t="n">
-        <v>0</v>
+        <v>0.0004959108809999852</v>
       </c>
       <c r="AN12" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.5191748233675114</v>
       </c>
       <c r="AO12" t="n">
-        <v>0</v>
+        <v>0.1502533675448263</v>
       </c>
       <c r="AP12" t="n">
-        <v>0</v>
+        <v>0.03281564369947609</v>
       </c>
       <c r="AQ12" t="n">
-        <v>81</v>
+        <v>61.86677020395766</v>
       </c>
       <c r="AR12" t="n">
-        <v>48</v>
+        <v>36.65273745190499</v>
       </c>
       <c r="AS12" t="n">
-        <v>21</v>
+        <v>6.955565534201007</v>
       </c>
       <c r="AT12" t="n">
-        <v>17</v>
+        <v>4.332917156315722</v>
       </c>
       <c r="AU12" t="n">
-        <v>1.333333333333333</v>
+        <v>1.00721528386485</v>
       </c>
       <c r="AV12" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.9498136263326825</v>
       </c>
       <c r="AW12" t="n">
-        <v>0</v>
+        <v>9.882632746418064</v>
       </c>
       <c r="AX12" t="n">
-        <v>61.66666666666666</v>
+        <v>46.59157884561701</v>
       </c>
       <c r="AY12" t="n">
-        <v>30.33333333333333</v>
+        <v>19.54751738568781</v>
       </c>
       <c r="AZ12" t="n">
-        <v>900</v>
+        <v>736</v>
       </c>
       <c r="BA12" t="n">
-        <v>287</v>
+        <v>329</v>
       </c>
       <c r="BB12" t="n">
-        <v>0.44</v>
+        <v>0.55</v>
       </c>
       <c r="BC12" s="2" t="n">
-        <v>34308</v>
+        <v>30278</v>
       </c>
       <c r="BD12" t="n">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="BE12" t="n">
         <v>4</v>
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>Puja Tomar</t>
+          <t>Vinc Pichel</t>
         </is>
       </c>
       <c r="BG12" t="n">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>Southpaw</t>
+          <t>Orthodox</t>
         </is>
       </c>
       <c r="BI12" t="n">
-        <v>5.6</v>
+        <v>3.05</v>
       </c>
       <c r="BJ12" t="n">
-        <v>6.33</v>
+        <v>3.62</v>
       </c>
       <c r="BK12" t="n">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
       <c r="BL12" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="BM12" t="n">
-        <v>0</v>
+        <v>0.54</v>
       </c>
       <c r="BN12" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="BO12" t="n">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="BP12" t="n">
-        <v>115</v>
+        <v>155</v>
       </c>
       <c r="BQ12" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="BR12" t="n">
-        <v>0</v>
+        <v>0.7506220843689299</v>
       </c>
       <c r="BS12" t="n">
-        <v>0</v>
+        <v>0.5900959863520859</v>
       </c>
       <c r="BT12" t="n">
-        <v>28.66666666666666</v>
+        <v>32.37835330797995</v>
       </c>
       <c r="BU12" t="n">
-        <v>6.666666666666666</v>
+        <v>8.75144714676922</v>
       </c>
       <c r="BV12" t="n">
-        <v>0</v>
+        <v>9.536743235116774e-07</v>
       </c>
       <c r="BW12" t="n">
-        <v>13.33333333333333</v>
+        <v>9.015497371669838</v>
       </c>
       <c r="BX12" t="n">
-        <v>7</v>
+        <v>8.003062695287635</v>
       </c>
       <c r="BY12" t="n">
-        <v>0</v>
+        <v>0.0001220703134094947</v>
       </c>
       <c r="BZ12" t="n">
-        <v>63</v>
+        <v>48.34941621385079</v>
       </c>
       <c r="CA12" t="n">
-        <v>30.66666666666666</v>
+        <v>21.08742699837258</v>
       </c>
       <c r="CB12" t="n">
-        <v>0.4866666666666666</v>
+        <v>0.4434086542085458</v>
       </c>
       <c r="CC12" t="n">
-        <v>0</v>
+        <v>0.0002442002314642089</v>
       </c>
       <c r="CD12" t="n">
-        <v>0</v>
+        <v>0.4825080222078265</v>
       </c>
       <c r="CE12" t="n">
-        <v>0</v>
+        <v>0.3180035376400019</v>
       </c>
       <c r="CF12" t="n">
-        <v>0</v>
+        <v>0.3146797716221196</v>
       </c>
       <c r="CG12" t="n">
-        <v>63.33333333333333</v>
+        <v>51.6402127343432</v>
       </c>
       <c r="CH12" t="n">
-        <v>31</v>
+        <v>23.71707362470831</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45738</v>
+        <v>45745</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Bantamweight</t>
+          <t>Featherweight</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>6.010803882072881</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>3.075566135628395</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>0.6235732161386803</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>0.2562412256607459</v>
       </c>
       <c r="G13" t="n">
-        <v>148</v>
+        <v>73.13483488982482</v>
       </c>
       <c r="H13" t="n">
+        <v>23.98351950192272</v>
+      </c>
+      <c r="I13" t="n">
+        <v>11.27571262894464</v>
+      </c>
+      <c r="J13" t="n">
+        <v>552</v>
+      </c>
+      <c r="K13" t="n">
+        <v>364</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="M13" s="2" t="n">
+        <v>32713</v>
+      </c>
+      <c r="N13" t="n">
+        <v>178</v>
+      </c>
+      <c r="O13" t="n">
+        <v>8</v>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Jamall Emmers</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>74</v>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>Orthodox</t>
+        </is>
+      </c>
+      <c r="S13" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="T13" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>145</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>20</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>4.77763535372032</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>3.371055362265763</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>19.10401025453213</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>8.331868400170908</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>0.5000305194408838</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>4.269913935176707</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>3.495574681071843</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0.3750228895806629</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>29.38472807178172</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>14.90300921687115</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>0.5784813526216199</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>0.003906488433131905</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>1.378502105841421</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>0.2879814441799426</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>0.08384911188427027</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>37.30476713666606</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>19.97131172556919</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>6.333333333333333</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>2.333333333333333</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>2.333333333333333</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>1.266666666666667</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>45.6</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>19.53333333333333</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>6.066666666666666</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>234</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>182</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="BC13" s="2" t="n">
+        <v>32957</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>180</v>
+      </c>
+      <c r="BE13" t="n">
         <v>7</v>
       </c>
-      <c r="I13" t="n">
-        <v>6</v>
-      </c>
-      <c r="J13" t="n">
-        <v>374</v>
-      </c>
-      <c r="K13" t="n">
-        <v>196</v>
-      </c>
-      <c r="L13" t="n">
+      <c r="BF13" t="inlineStr">
+        <is>
+          <t>Gabriel Miranda</t>
+        </is>
+      </c>
+      <c r="BG13" t="n">
+        <v>71</v>
+      </c>
+      <c r="BH13" t="inlineStr">
+        <is>
+          <t>Orthodox</t>
+        </is>
+      </c>
+      <c r="BI13" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="BJ13" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="BK13" t="n">
         <v>0.4</v>
       </c>
-      <c r="M13" s="2" t="n">
-        <v>35798</v>
-      </c>
-      <c r="N13" t="n">
-        <v>170</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1</v>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>Nathan Fletcher</t>
-        </is>
-      </c>
-      <c r="Q13" t="n">
-        <v>70</v>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>Orthodox</t>
-        </is>
-      </c>
-      <c r="S13" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="T13" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U13" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="V13" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="W13" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="X13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>9.630000000000001</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>135</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>9</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD13" t="n">
+      <c r="BL13" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BM13" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="BN13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO13" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="BP13" t="n">
+        <v>145</v>
+      </c>
+      <c r="BQ13" t="n">
         <v>17</v>
       </c>
-      <c r="AE13" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>13</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>3</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>10.20392156862745</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>6.035294117647059</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>1.180392156862745</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>1.094117647058823</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>63.47058823529412</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>60.00392156862744</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>23.61960784313726</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>900</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>238</v>
-      </c>
-      <c r="BB13" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="BC13" s="2" t="n">
-        <v>35203</v>
-      </c>
-      <c r="BD13" t="n">
-        <v>168</v>
-      </c>
-      <c r="BE13" t="n">
-        <v>2</v>
-      </c>
-      <c r="BF13" t="inlineStr">
-        <is>
-          <t>Caolan Loughran</t>
-        </is>
-      </c>
-      <c r="BG13" t="n">
-        <v>68</v>
-      </c>
-      <c r="BH13" t="inlineStr">
-        <is>
-          <t>Orthodox</t>
-        </is>
-      </c>
-      <c r="BI13" t="n">
-        <v>5.62</v>
-      </c>
-      <c r="BJ13" t="n">
-        <v>5.64</v>
-      </c>
-      <c r="BK13" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="BL13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM13" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="BN13" t="n">
-        <v>1</v>
-      </c>
-      <c r="BO13" t="n">
-        <v>2</v>
-      </c>
-      <c r="BP13" t="n">
-        <v>135</v>
-      </c>
-      <c r="BQ13" t="n">
-        <v>9</v>
-      </c>
       <c r="BR13" t="n">
-        <v>3.643137254901961</v>
+        <v>0</v>
       </c>
       <c r="BS13" t="n">
-        <v>2.63921568627451</v>
+        <v>0</v>
       </c>
       <c r="BT13" t="n">
-        <v>49.81960784313726</v>
+        <v>13.93333333333333</v>
       </c>
       <c r="BU13" t="n">
-        <v>17.18039215686274</v>
+        <v>4.733333333333333</v>
       </c>
       <c r="BV13" t="n">
         <v>0</v>
       </c>
       <c r="BW13" t="n">
-        <v>4.803921568627451</v>
+        <v>1.6</v>
       </c>
       <c r="BX13" t="n">
-        <v>4.137254901960784</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="BY13" t="n">
         <v>0</v>
       </c>
       <c r="BZ13" t="n">
-        <v>64.82745098039216</v>
+        <v>21.86666666666667</v>
       </c>
       <c r="CA13" t="n">
-        <v>27.35294117647059</v>
+        <v>7.333333333333333</v>
       </c>
       <c r="CB13" t="n">
-        <v>0.409607843137255</v>
+        <v>0.3706666666666667</v>
       </c>
       <c r="CC13" t="n">
-        <v>0</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="CD13" t="n">
-        <v>3.090196078431373</v>
+        <v>2.866666666666667</v>
       </c>
       <c r="CE13" t="n">
-        <v>0.8274509803921568</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="CF13" t="n">
-        <v>0.2557647058823529</v>
+        <v>0.2886666666666666</v>
       </c>
       <c r="CG13" t="n">
-        <v>69.23921568627451</v>
+        <v>26.66666666666666</v>
       </c>
       <c r="CH13" t="n">
-        <v>29.03529411764706</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45738</v>
+        <v>45745</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -4119,51 +4119,51 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>9.861260381045433</v>
+        <v>8.666666666666666</v>
       </c>
       <c r="D14" t="n">
-        <v>7.905227161700049</v>
+        <v>5</v>
       </c>
       <c r="E14" t="n">
-        <v>6.628236443575965</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>6.36248168050806</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>40.9789936492428</v>
+        <v>74.33333333333333</v>
       </c>
       <c r="H14" t="n">
-        <v>29.64338055691255</v>
+        <v>47.66666666666666</v>
       </c>
       <c r="I14" t="n">
-        <v>10.02979970688813</v>
+        <v>17</v>
       </c>
       <c r="J14" t="n">
-        <v>874</v>
+        <v>575</v>
       </c>
       <c r="K14" t="n">
-        <v>231</v>
+        <v>420</v>
       </c>
       <c r="L14" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>33611</v>
+        <v>35399</v>
       </c>
       <c r="N14" t="n">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="O14" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Guram Kutateladze</t>
+          <t>MarQuel Mederos</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
@@ -4171,10 +4171,10 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>3.95</v>
+        <v>3.29</v>
       </c>
       <c r="T14" t="n">
-        <v>3.95</v>
+        <v>4.39</v>
       </c>
       <c r="U14" t="n">
         <v>0.45</v>
@@ -4183,117 +4183,117 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0.79</v>
+        <v>0.9</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.77</v>
+        <v>0</v>
       </c>
       <c r="Z14" t="n">
         <v>155</v>
       </c>
       <c r="AA14" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AB14" t="n">
-        <v>1.142159257449927</v>
+        <v>0</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.3917928676111382</v>
+        <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>25.32388861748901</v>
+        <v>34.33333333333333</v>
       </c>
       <c r="AE14" t="n">
-        <v>6.734245236932096</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.0009770395701025891</v>
+        <v>0</v>
       </c>
       <c r="AG14" t="n">
-        <v>2.228627259404006</v>
+        <v>5.666666666666666</v>
       </c>
       <c r="AH14" t="n">
-        <v>2.144601856375183</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="AI14" t="n">
         <v>0</v>
       </c>
       <c r="AJ14" t="n">
-        <v>37.41377625793844</v>
+        <v>48.66666666666666</v>
       </c>
       <c r="AK14" t="n">
-        <v>16.78407425500733</v>
+        <v>18</v>
       </c>
       <c r="AL14" t="n">
-        <v>0.4079482169027846</v>
+        <v>0.3633333333333333</v>
       </c>
       <c r="AM14" t="n">
         <v>0</v>
       </c>
       <c r="AN14" t="n">
-        <v>2.315583781143136</v>
+        <v>0</v>
       </c>
       <c r="AO14" t="n">
-        <v>0.5666829506595017</v>
+        <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>0.1582804103566194</v>
+        <v>0</v>
       </c>
       <c r="AQ14" t="n">
-        <v>43.41475329750855</v>
+        <v>54.66666666666666</v>
       </c>
       <c r="AR14" t="n">
-        <v>22.5305324865657</v>
+        <v>22.33333333333333</v>
       </c>
       <c r="AS14" t="n">
-        <v>3.285714285714286</v>
+        <v>11.20821205402052</v>
       </c>
       <c r="AT14" t="n">
-        <v>2.285714285714286</v>
+        <v>7.224109626534869</v>
       </c>
       <c r="AU14" t="n">
-        <v>1.142857142857143</v>
+        <v>4.91704782596373</v>
       </c>
       <c r="AV14" t="n">
-        <v>0.4285714285714285</v>
+        <v>1.877451118154857</v>
       </c>
       <c r="AW14" t="n">
-        <v>21.71428571428572</v>
+        <v>8.603774863594021</v>
       </c>
       <c r="AX14" t="n">
-        <v>11.85714285714286</v>
+        <v>55.54871098842355</v>
       </c>
       <c r="AY14" t="n">
-        <v>7.285714285714286</v>
+        <v>19.06903147903179</v>
       </c>
       <c r="AZ14" t="n">
-        <v>593</v>
+        <v>759</v>
       </c>
       <c r="BA14" t="n">
-        <v>231</v>
+        <v>175</v>
       </c>
       <c r="BB14" t="n">
-        <v>0.66</v>
+        <v>0.57</v>
       </c>
       <c r="BC14" s="2" t="n">
-        <v>34775</v>
+        <v>33594</v>
       </c>
       <c r="BD14" t="n">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="BE14" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>Kaue Fernandes</t>
+          <t>Austin Hubbard</t>
         </is>
       </c>
       <c r="BG14" t="n">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="BH14" t="inlineStr">
         <is>
@@ -4301,82 +4301,82 @@
         </is>
       </c>
       <c r="BI14" t="n">
-        <v>0.86</v>
+        <v>3.92</v>
       </c>
       <c r="BJ14" t="n">
-        <v>3.04</v>
+        <v>4.12</v>
       </c>
       <c r="BK14" t="n">
-        <v>0.57</v>
+        <v>0.43</v>
       </c>
       <c r="BL14" t="n">
         <v>0</v>
       </c>
       <c r="BM14" t="n">
-        <v>1</v>
+        <v>0.34</v>
       </c>
       <c r="BN14" t="n">
-        <v>0.62</v>
+        <v>0.67</v>
       </c>
       <c r="BO14" t="n">
-        <v>0.76</v>
+        <v>1.54</v>
       </c>
       <c r="BP14" t="n">
         <v>155</v>
       </c>
       <c r="BQ14" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="BR14" t="n">
-        <v>0</v>
+        <v>0.07495904192206387</v>
       </c>
       <c r="BS14" t="n">
-        <v>0</v>
+        <v>0.04175496225818879</v>
       </c>
       <c r="BT14" t="n">
-        <v>6.285714285714285</v>
+        <v>46.37878207501119</v>
       </c>
       <c r="BU14" t="n">
-        <v>2</v>
+        <v>11.25020680577179</v>
       </c>
       <c r="BV14" t="n">
         <v>0</v>
       </c>
       <c r="BW14" t="n">
-        <v>3.428571428571428</v>
+        <v>2.953723727277628</v>
       </c>
       <c r="BX14" t="n">
-        <v>3.428571428571428</v>
+        <v>2.513921127138171</v>
       </c>
       <c r="BY14" t="n">
-        <v>0</v>
+        <v>0.0009765625291038313</v>
       </c>
       <c r="BZ14" t="n">
-        <v>13</v>
+        <v>60.54071785630935</v>
       </c>
       <c r="CA14" t="n">
-        <v>7.714285714285714</v>
+        <v>20.98823755944483</v>
       </c>
       <c r="CB14" t="n">
-        <v>0.6142857142857143</v>
+        <v>0.3320434252036639</v>
       </c>
       <c r="CC14" t="n">
         <v>0</v>
       </c>
       <c r="CD14" t="n">
-        <v>0.1428571428571428</v>
+        <v>4.646610398489546</v>
       </c>
       <c r="CE14" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.3087177368616383</v>
       </c>
       <c r="CF14" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.1053963025032372</v>
       </c>
       <c r="CG14" t="n">
-        <v>33</v>
+        <v>61.76252131946448</v>
       </c>
       <c r="CH14" t="n">
-        <v>25.28571428571428</v>
+        <v>22.04424467814698</v>
       </c>
     </row>
   </sheetData>

--- a/data/validation.xlsx
+++ b/data/validation.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -871,55 +871,55 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45745</v>
+        <v>45752</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Flyweight</t>
+          <t>Featherweight</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5.448331025399285</v>
+        <v>8.842591899591516</v>
       </c>
       <c r="D2" t="n">
-        <v>3.581090619332238</v>
+        <v>4.466673835235027</v>
       </c>
       <c r="E2" t="n">
-        <v>1.341972780706475</v>
+        <v>0.01651001728180934</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8787096201202187</v>
+        <v>0.00827026978373957</v>
       </c>
       <c r="G2" t="n">
-        <v>3.838787987431692</v>
+        <v>2.15597302372157</v>
       </c>
       <c r="H2" t="n">
-        <v>64.40502166378798</v>
+        <v>48.55961759178579</v>
       </c>
       <c r="I2" t="n">
-        <v>24.27014381982306</v>
+        <v>14.09537417854223</v>
       </c>
       <c r="J2" t="n">
-        <v>1000</v>
+        <v>776</v>
       </c>
       <c r="K2" t="n">
-        <v>147</v>
+        <v>476</v>
       </c>
       <c r="L2" t="n">
-        <v>0.6</v>
+        <v>0.61</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>34310</v>
+        <v>31110</v>
       </c>
       <c r="N2" t="n">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="O2" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Brandon Moreno</t>
+          <t>Josh Emmett</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -931,129 +931,129 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>3.53</v>
+        <v>4.61</v>
       </c>
       <c r="T2" t="n">
-        <v>3.99</v>
+        <v>4.04</v>
       </c>
       <c r="U2" t="n">
-        <v>0.43</v>
+        <v>0.36</v>
       </c>
       <c r="V2" t="n">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="W2" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="X2" t="n">
         <v>0.46</v>
       </c>
-      <c r="X2" t="n">
-        <v>0.64</v>
-      </c>
       <c r="Y2" t="n">
-        <v>1.59</v>
+        <v>0.91</v>
       </c>
       <c r="Z2" t="n">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="AA2" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.02273569559786285</v>
+        <v>0.08654091582929352</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.01377495611533422</v>
+        <v>0.07079927314822852</v>
       </c>
       <c r="AD2" t="n">
-        <v>57.9421772225956</v>
+        <v>36.97612170142366</v>
       </c>
       <c r="AE2" t="n">
-        <v>20.12028493267688</v>
+        <v>7.055223156094545</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.818422612766888e-06</v>
+        <v>6.400048732804135e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2.379221892097417</v>
+        <v>2.843954923881713</v>
       </c>
       <c r="AH2" t="n">
-        <v>1.461252844049493</v>
+        <v>2.652546730144623</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.0009765629656897108</v>
+        <v>3.051757812522204e-05</v>
       </c>
       <c r="AJ2" t="n">
-        <v>65.76973014009231</v>
+        <v>48.66266852489689</v>
       </c>
       <c r="AK2" t="n">
-        <v>25.16262839605862</v>
+        <v>14.17444372147419</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.3854618293902602</v>
+        <v>0.2800897417274252</v>
       </c>
       <c r="AM2" t="n">
-        <v>3.352770150399926e-08</v>
+        <v>1.164153218277818e-10</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.04340895714380907</v>
+        <v>0.07056214186792613</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.01980641113860141</v>
+        <v>0.01562882348673614</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.00919514217379353</v>
+        <v>0.003910068739816125</v>
       </c>
       <c r="AQ2" t="n">
-        <v>65.99652188683768</v>
+        <v>50.13172395978568</v>
       </c>
       <c r="AR2" t="n">
-        <v>25.3855100725016</v>
+        <v>14.83099530771019</v>
       </c>
       <c r="AS2" t="n">
-        <v>3.582102307410572</v>
+        <v>7.911733458964269</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.461360029300452</v>
+        <v>5.276947549719905</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.3091197655963863</v>
+        <v>4.431742537961078</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.2344036137223782</v>
+        <v>2.942449459933204</v>
       </c>
       <c r="AW2" t="n">
-        <v>7.782688316444878</v>
+        <v>54.59130972158379</v>
       </c>
       <c r="AX2" t="n">
-        <v>38.6585276523013</v>
+        <v>41.04769334353131</v>
       </c>
       <c r="AY2" t="n">
-        <v>19.4274203393969</v>
+        <v>21.73100801660159</v>
       </c>
       <c r="AZ2" t="n">
-        <v>774</v>
+        <v>822</v>
       </c>
       <c r="BA2" t="n">
-        <v>224</v>
+        <v>161</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.53</v>
+        <v>0.6</v>
       </c>
       <c r="BC2" s="2" t="n">
-        <v>34907</v>
+        <v>33441</v>
       </c>
       <c r="BD2" t="n">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="BE2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>Steve Erceg</t>
+          <t>Lerone Murphy</t>
         </is>
       </c>
       <c r="BG2" t="n">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="BH2" t="inlineStr">
         <is>
@@ -1061,539 +1061,539 @@
         </is>
       </c>
       <c r="BI2" t="n">
-        <v>4.22</v>
+        <v>2.67</v>
       </c>
       <c r="BJ2" t="n">
-        <v>4.37</v>
+        <v>4.8</v>
       </c>
       <c r="BK2" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="BN2" t="n">
         <v>0.48</v>
       </c>
-      <c r="BL2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="BM2" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="BN2" t="n">
-        <v>0.6</v>
-      </c>
       <c r="BO2" t="n">
-        <v>1.16</v>
+        <v>1.78</v>
       </c>
       <c r="BP2" t="n">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="BQ2" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.07251861799536076</v>
+        <v>0.653704936418412</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.07056525454767427</v>
+        <v>0.1025869418848837</v>
       </c>
       <c r="BT2" t="n">
-        <v>34.1576120131852</v>
+        <v>35.11010190983183</v>
       </c>
       <c r="BU2" t="n">
-        <v>15.97094371871566</v>
+        <v>17.01963619162787</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.01562690758149188</v>
+        <v>0.003967292723260352</v>
       </c>
       <c r="BW2" t="n">
-        <v>1.300451715297278</v>
+        <v>3.111305449114703</v>
       </c>
       <c r="BX2" t="n">
-        <v>1.300085459650836</v>
+        <v>2.479460677071909</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.06446099377365401</v>
+        <v>0</v>
       </c>
       <c r="BZ2" t="n">
-        <v>39.04016603589305</v>
+        <v>46.1331408179108</v>
       </c>
       <c r="CA2" t="n">
-        <v>19.73238920766695</v>
+        <v>24.77604441841968</v>
       </c>
       <c r="CB2" t="n">
-        <v>0.5029642290318642</v>
+        <v>0.5188752915864785</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.001220852154804053</v>
+        <v>0.007812514901189616</v>
       </c>
       <c r="CD2" t="n">
-        <v>1.847637651080454</v>
+        <v>1.124571084158104</v>
       </c>
       <c r="CE2" t="n">
-        <v>0.505432792088878</v>
+        <v>1.056903947646995</v>
       </c>
       <c r="CF2" t="n">
-        <v>0.2513002075448663</v>
+        <v>0.9055985366793379</v>
       </c>
       <c r="CG2" t="n">
-        <v>43.71944817482603</v>
+        <v>58.27872901674083</v>
       </c>
       <c r="CH2" t="n">
-        <v>24.20070809424978</v>
+        <v>35.63445975200606</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45745</v>
+        <v>45752</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Lightweight</t>
+          <t>Featherweight</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3.285714285714286</v>
+        <v>2.467252639931636</v>
       </c>
       <c r="D3" t="n">
-        <v>3.142857142857142</v>
+        <v>1.834401513764268</v>
       </c>
       <c r="E3" t="n">
-        <v>1.714285714285714</v>
+        <v>1.032777879509247</v>
       </c>
       <c r="F3" t="n">
-        <v>1.714285714285714</v>
+        <v>1.024476591588842</v>
       </c>
       <c r="G3" t="n">
-        <v>26.57142857142857</v>
+        <v>72.72935359824208</v>
       </c>
       <c r="H3" t="n">
-        <v>14.28571428571428</v>
+        <v>5.9820545687603</v>
       </c>
       <c r="I3" t="n">
-        <v>7.714285714285714</v>
+        <v>3.021607764145761</v>
       </c>
       <c r="J3" t="n">
-        <v>159</v>
+        <v>453</v>
       </c>
       <c r="K3" t="n">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="L3" t="n">
-        <v>0.52</v>
+        <v>0.48</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>34783</v>
+        <v>33186</v>
       </c>
       <c r="N3" t="n">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="O3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Manuel Torres</t>
+          <t>Pat Sabatini</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Switch</t>
+          <t>Orthodox</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>4.53</v>
+        <v>1.47</v>
       </c>
       <c r="T3" t="n">
-        <v>7.17</v>
+        <v>1.94</v>
       </c>
       <c r="U3" t="n">
-        <v>0.55</v>
+        <v>0.59</v>
       </c>
       <c r="V3" t="n">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="W3" t="n">
-        <v>0.66</v>
+        <v>0.44</v>
       </c>
       <c r="X3" t="n">
-        <v>0.88</v>
+        <v>0.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>2.26</v>
+        <v>3.97</v>
       </c>
       <c r="Z3" t="n">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="AA3" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.8571428571428571</v>
+        <v>5.083440151376426</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.8571428571428571</v>
+        <v>3.97387535860343</v>
       </c>
       <c r="AD3" t="n">
-        <v>12.28571428571428</v>
+        <v>8.861319660623817</v>
       </c>
       <c r="AE3" t="n">
-        <v>5.857142857142856</v>
+        <v>5.415918940365012</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.4285714285714285</v>
+        <v>6.103888176768602e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>1.285714285714286</v>
+        <v>0.7697002990905206</v>
       </c>
       <c r="AH3" t="n">
-        <v>1.285714285714286</v>
+        <v>0.769639260208753</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>0.001953244216565952</v>
       </c>
       <c r="AJ3" t="n">
-        <v>16.85714285714286</v>
+        <v>12.09827259964597</v>
       </c>
       <c r="AK3" t="n">
-        <v>10.28571428571428</v>
+        <v>8.019959714338032</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.6357142857142857</v>
+        <v>0.6855386681315998</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2559970701336751</v>
       </c>
       <c r="AN3" t="n">
-        <v>1.285714285714286</v>
+        <v>1.947018250625649</v>
       </c>
       <c r="AO3" t="n">
-        <v>1.142857142857143</v>
+        <v>0.5196850393700787</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2895245071110297</v>
       </c>
       <c r="AQ3" t="n">
-        <v>18</v>
+        <v>24.27412561801868</v>
       </c>
       <c r="AR3" t="n">
-        <v>11.42857142857143</v>
+        <v>19.31935542940853</v>
       </c>
       <c r="AS3" t="n">
-        <v>10.3132184483448</v>
+        <v>2.201465201465202</v>
       </c>
       <c r="AT3" t="n">
-        <v>7.55000132506492</v>
+        <v>1.433699633699634</v>
       </c>
       <c r="AU3" t="n">
-        <v>4.619478408455189</v>
+        <v>1.83980463980464</v>
       </c>
       <c r="AV3" t="n">
-        <v>2.101897865486764</v>
+        <v>1.571672771672772</v>
       </c>
       <c r="AW3" t="n">
-        <v>10.86280413417796</v>
+        <v>156.5296703296704</v>
       </c>
       <c r="AX3" t="n">
-        <v>50.70597795405104</v>
+        <v>18.42905982905983</v>
       </c>
       <c r="AY3" t="n">
-        <v>20.28009687777409</v>
+        <v>7.204395604395605</v>
       </c>
       <c r="AZ3" t="n">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="BA3" t="n">
-        <v>259</v>
+        <v>189</v>
       </c>
       <c r="BB3" t="n">
-        <v>0.51</v>
+        <v>0.44</v>
       </c>
       <c r="BC3" s="2" t="n">
-        <v>32435</v>
+        <v>34741</v>
       </c>
       <c r="BD3" t="n">
         <v>173</v>
       </c>
       <c r="BE3" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>Drew Dober</t>
+          <t>Joanderson Brito</t>
         </is>
       </c>
       <c r="BG3" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>Southpaw</t>
+          <t>Orthodox</t>
         </is>
       </c>
       <c r="BI3" t="n">
-        <v>4.25</v>
+        <v>2.7</v>
       </c>
       <c r="BJ3" t="n">
-        <v>4.39</v>
+        <v>3.02</v>
       </c>
       <c r="BK3" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="BL3" t="n">
-        <v>0.1</v>
+        <v>0.9</v>
       </c>
       <c r="BM3" t="n">
-        <v>0.17</v>
+        <v>0.68</v>
       </c>
       <c r="BN3" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="BO3" t="n">
-        <v>0.67</v>
+        <v>3.08</v>
       </c>
       <c r="BP3" t="n">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="BQ3" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="BR3" t="n">
-        <v>0.5699477786095112</v>
+        <v>0.7543345543345543</v>
       </c>
       <c r="BS3" t="n">
-        <v>0.3190684434505374</v>
+        <v>0.6583638583638584</v>
       </c>
       <c r="BT3" t="n">
-        <v>41.97748514289422</v>
+        <v>13.45934065934066</v>
       </c>
       <c r="BU3" t="n">
-        <v>12.06079768723995</v>
+        <v>3.463736263736264</v>
       </c>
       <c r="BV3" t="n">
-        <v>0.02063024081871874</v>
+        <v>0.001953601953601954</v>
       </c>
       <c r="BW3" t="n">
-        <v>3.604700549876705</v>
+        <v>5.362393162393163</v>
       </c>
       <c r="BX3" t="n">
-        <v>3.090264174406515</v>
+        <v>4.536996336996337</v>
       </c>
       <c r="BY3" t="n">
-        <v>6.103515625000087e-05</v>
+        <v>0</v>
       </c>
       <c r="BZ3" t="n">
-        <v>55.89540414111573</v>
+        <v>21.02319902319902</v>
       </c>
       <c r="CA3" t="n">
-        <v>22.70106318671139</v>
+        <v>9.434432234432235</v>
       </c>
       <c r="CB3" t="n">
-        <v>0.3997816441280782</v>
+        <v>0.4288400488400488</v>
       </c>
       <c r="CC3" t="n">
-        <v>9.094947017729412e-13</v>
+        <v>0.7853479853479853</v>
       </c>
       <c r="CD3" t="n">
-        <v>1.189849884196636</v>
+        <v>1.157997557997558</v>
       </c>
       <c r="CE3" t="n">
-        <v>0.06253053998079938</v>
+        <v>0.906959706959707</v>
       </c>
       <c r="CF3" t="n">
-        <v>0.06253053993765295</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="CG3" t="n">
-        <v>57.30358476930583</v>
+        <v>35.30720390720391</v>
       </c>
       <c r="CH3" t="n">
-        <v>23.54662148374533</v>
+        <v>19.29548229548229</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45745</v>
+        <v>45752</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Middleweight</t>
+          <t>Bantamweight</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6.097017913249009</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="D4" t="n">
-        <v>3.991373063121554</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2369861700686925</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1722238380435764</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>15.40039023831692</v>
+        <v>137.6666666666667</v>
       </c>
       <c r="H4" t="n">
-        <v>69.37686881989728</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="I4" t="n">
-        <v>30.99339762735342</v>
+        <v>5</v>
       </c>
       <c r="J4" t="n">
-        <v>817</v>
+        <v>610</v>
       </c>
       <c r="K4" t="n">
-        <v>280</v>
+        <v>147</v>
       </c>
       <c r="L4" t="n">
-        <v>0.57</v>
+        <v>0.39</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>33535</v>
+        <v>34340</v>
       </c>
       <c r="N4" t="n">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="O4" t="n">
+        <v>3</v>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Cortavious Romious</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
+        <v>68</v>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>Southpaw</t>
+        </is>
+      </c>
+      <c r="S4" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>135</v>
+      </c>
+      <c r="AA4" t="n">
         <v>9</v>
       </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>Kelvin Gastelum</t>
-        </is>
-      </c>
-      <c r="Q4" t="n">
-        <v>71</v>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>Southpaw</t>
-        </is>
-      </c>
-      <c r="S4" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="T4" t="n">
-        <v>3.74</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>185</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>20</v>
-      </c>
       <c r="AB4" t="n">
-        <v>0.2031302479615254</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.06250381570347437</v>
+        <v>1</v>
       </c>
       <c r="AD4" t="n">
-        <v>56.08151358635835</v>
+        <v>12.33333333333333</v>
       </c>
       <c r="AE4" t="n">
-        <v>21.18620560397141</v>
+        <v>4.666666666666666</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.020090848411539e-10</v>
+        <v>0</v>
       </c>
       <c r="AG4" t="n">
-        <v>7.638453738320119</v>
+        <v>1</v>
       </c>
       <c r="AH4" t="n">
-        <v>6.05054661400751</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.03125192225166991</v>
+        <v>0</v>
       </c>
       <c r="AJ4" t="n">
-        <v>69.8169852379275</v>
+        <v>14.66666666666666</v>
       </c>
       <c r="AK4" t="n">
-        <v>31.22812528110048</v>
+        <v>6</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.4604173264028751</v>
+        <v>0.5166666666666666</v>
       </c>
       <c r="AM4" t="n">
-        <v>5.594483210025203e-17</v>
+        <v>0</v>
       </c>
       <c r="AN4" t="n">
-        <v>1.047364484519298</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="AO4" t="n">
-        <v>1.000037077814413</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.5000116378814702</v>
+        <v>0.7766666666666666</v>
       </c>
       <c r="AQ4" t="n">
-        <v>71.22370762085225</v>
+        <v>17.66666666666666</v>
       </c>
       <c r="AR4" t="n">
-        <v>32.61914260752938</v>
+        <v>8</v>
       </c>
       <c r="AS4" t="n">
-        <v>4.473581213307241</v>
+        <v>27.66666666666666</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.475538160469667</v>
+        <v>21.66666666666666</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.02348336594911937</v>
+        <v>34</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.02348336594911937</v>
+        <v>26.33333333333333</v>
       </c>
       <c r="AW4" t="n">
-        <v>13.39138943248532</v>
+        <v>9.333333333333332</v>
       </c>
       <c r="AX4" t="n">
-        <v>36.47358121330724</v>
+        <v>14</v>
       </c>
       <c r="AY4" t="n">
-        <v>12.42465753424657</v>
+        <v>7</v>
       </c>
       <c r="AZ4" t="n">
-        <v>443</v>
+        <v>649</v>
       </c>
       <c r="BA4" t="n">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="BB4" t="n">
-        <v>0.51</v>
+        <v>0.37</v>
       </c>
       <c r="BC4" s="2" t="n">
-        <v>35325</v>
+        <v>34463</v>
       </c>
       <c r="BD4" t="n">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="BE4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>Joe Pyfer</t>
+          <t>ChangHo Lee</t>
         </is>
       </c>
       <c r="BG4" t="n">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="BH4" t="inlineStr">
         <is>
@@ -1601,409 +1601,409 @@
         </is>
       </c>
       <c r="BI4" t="n">
-        <v>3.48</v>
+        <v>2.65</v>
       </c>
       <c r="BJ4" t="n">
-        <v>3.72</v>
+        <v>4.9</v>
       </c>
       <c r="BK4" t="n">
-        <v>0.41</v>
+        <v>0.7</v>
       </c>
       <c r="BL4" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="BM4" t="n">
-        <v>0.41</v>
+        <v>0.3</v>
       </c>
       <c r="BN4" t="n">
-        <v>0.5</v>
+        <v>0.38</v>
       </c>
       <c r="BO4" t="n">
-        <v>1.45</v>
+        <v>3.24</v>
       </c>
       <c r="BP4" t="n">
-        <v>185</v>
+        <v>135</v>
       </c>
       <c r="BQ4" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BR4" t="n">
-        <v>0.05283757338551859</v>
+        <v>0</v>
       </c>
       <c r="BS4" t="n">
-        <v>0.03326810176125244</v>
+        <v>0</v>
       </c>
       <c r="BT4" t="n">
-        <v>29.76516634050881</v>
+        <v>18.66666666666666</v>
       </c>
       <c r="BU4" t="n">
-        <v>8.986301369863014</v>
+        <v>11</v>
       </c>
       <c r="BV4" t="n">
-        <v>0.001956947162426614</v>
+        <v>0</v>
       </c>
       <c r="BW4" t="n">
-        <v>2.311154598825832</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="BX4" t="n">
-        <v>1.019569471624266</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="BY4" t="n">
         <v>0</v>
       </c>
       <c r="BZ4" t="n">
-        <v>36.54990215264188</v>
+        <v>47.99999999999999</v>
       </c>
       <c r="CA4" t="n">
-        <v>12.48140900195695</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="CB4" t="n">
-        <v>0.2979060665362035</v>
+        <v>0.6833333333333332</v>
       </c>
       <c r="CC4" t="n">
-        <v>0.02348336594911937</v>
+        <v>0</v>
       </c>
       <c r="CD4" t="n">
-        <v>1.166340508806262</v>
+        <v>2</v>
       </c>
       <c r="CE4" t="n">
-        <v>0.03131115459882583</v>
+        <v>0</v>
       </c>
       <c r="CF4" t="n">
-        <v>0.02082191780821918</v>
+        <v>0</v>
       </c>
       <c r="CG4" t="n">
-        <v>38.06066536203522</v>
+        <v>85.33333333333333</v>
       </c>
       <c r="CH4" t="n">
-        <v>13.73385518590998</v>
+        <v>63.99999999999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45745</v>
+        <v>45752</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bantamweight</t>
+          <t>Heavyweight</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4.798434442270058</v>
+        <v>16.33275282630885</v>
       </c>
       <c r="D5" t="n">
-        <v>1.283757338551859</v>
+        <v>14.36097511918079</v>
       </c>
       <c r="E5" t="n">
-        <v>0.06262230919765166</v>
+        <v>4.234746085366205</v>
       </c>
       <c r="F5" t="n">
-        <v>0.03131115459882583</v>
+        <v>3.64880571997766</v>
       </c>
       <c r="G5" t="n">
-        <v>80.39138943248533</v>
+        <v>4.722177421466838</v>
       </c>
       <c r="H5" t="n">
-        <v>30.05675146771037</v>
+        <v>75.63802516935783</v>
       </c>
       <c r="I5" t="n">
-        <v>10.49510763209393</v>
+        <v>40.94026726439795</v>
       </c>
       <c r="J5" t="n">
-        <v>560</v>
+        <v>537</v>
       </c>
       <c r="K5" t="n">
-        <v>196</v>
+        <v>119</v>
       </c>
       <c r="L5" t="n">
         <v>0.51</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>38268</v>
+        <v>33768</v>
       </c>
       <c r="N5" t="n">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="O5" t="n">
+        <v>5</v>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Kennedy Nzechukwu</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v>83</v>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>Southpaw</t>
+        </is>
+      </c>
+      <c r="S5" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="T5" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>236</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>14</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0.5573815595908579</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.5495679642972944</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>63.44114968509338</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>30.12141564578872</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0.003907203703427342</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0.6562503029126696</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0.6562501837033792</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>80.43015281431491</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>45.13864094867289</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0.5572486105356262</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0.01660156262369128</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0.1376957903630718</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0.002441406268189894</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0.001586914074323431</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>80.62827407291735</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>45.32333446534972</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>7.061771348348898</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>6.218824391137154</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>11.3175242629555</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>8.617835561252518</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>45.77910028688274</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>15.24592565464201</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>7.146432277360679</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>614</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>280</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="BC5" s="2" t="n">
+        <v>33553</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>193</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>2</v>
+      </c>
+      <c r="BF5" t="inlineStr">
+        <is>
+          <t>Martin Buday</t>
+        </is>
+      </c>
+      <c r="BG5" t="n">
+        <v>77</v>
+      </c>
+      <c r="BH5" t="inlineStr">
+        <is>
+          <t>Orthodox</t>
+        </is>
+      </c>
+      <c r="BI5" t="n">
+        <v>5.54</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="BL5" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="BM5" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="BN5" t="n">
         <v>1</v>
       </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>Raul Rosas Jr.</t>
-        </is>
-      </c>
-      <c r="Q5" t="n">
-        <v>67</v>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>Switch</t>
-        </is>
-      </c>
-      <c r="S5" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>4.02</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>135</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>2.097847358121331</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>1.659491193737769</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>21.85714285714285</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>6.516634050880626</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>0.03131115459882583</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>5.561643835616438</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>4.385518590998043</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>0.06262230919765166</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>32.21722113502936</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>12.18590998043053</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>0.3792172211350294</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>0.1330724070450098</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>2.753424657534246</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>0.6418786692759295</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>0.2419569471624266</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>42.28180039138942</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>21.24657534246575</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>5.082783763574586</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>2.817815054524842</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>6.212850344947</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>1.517733783586847</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>70.37023320020634</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>43.37949606057978</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>11.86163776288258</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>755</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>42</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="BC5" s="2" t="n">
-        <v>33189</v>
-      </c>
-      <c r="BD5" t="n">
-        <v>170</v>
-      </c>
-      <c r="BE5" t="n">
-        <v>9</v>
-      </c>
-      <c r="BF5" t="inlineStr">
-        <is>
-          <t>Vince Morales</t>
-        </is>
-      </c>
-      <c r="BG5" t="n">
-        <v>70</v>
-      </c>
-      <c r="BH5" t="inlineStr">
-        <is>
-          <t>Orthodox</t>
-        </is>
-      </c>
-      <c r="BI5" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="BJ5" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="BK5" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="BL5" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="BM5" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="BN5" t="n">
-        <v>0.6</v>
-      </c>
       <c r="BO5" t="n">
-        <v>0.54</v>
+        <v>0.21</v>
       </c>
       <c r="BP5" t="n">
-        <v>135</v>
+        <v>265</v>
       </c>
       <c r="BQ5" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BR5" t="n">
-        <v>0.01297068673197548</v>
+        <v>0.1110907648171885</v>
       </c>
       <c r="BS5" t="n">
-        <v>0.01271843986025094</v>
+        <v>0.1103582982359763</v>
       </c>
       <c r="BT5" t="n">
-        <v>42.76033626558401</v>
+        <v>17.04761032777879</v>
       </c>
       <c r="BU5" t="n">
-        <v>9.734348162075767</v>
+        <v>7.590673258865897</v>
       </c>
       <c r="BV5" t="n">
-        <v>0.0009803772557006631</v>
+        <v>0.0002441555270707441</v>
       </c>
       <c r="BW5" t="n">
-        <v>1.762197063100163</v>
+        <v>2.565159006287005</v>
       </c>
       <c r="BX5" t="n">
-        <v>0.8399267697290641</v>
+        <v>2.065128486846121</v>
       </c>
       <c r="BY5" t="n">
-        <v>0.007812500465661315</v>
+        <v>0</v>
       </c>
       <c r="BZ5" t="n">
-        <v>49.60531709225876</v>
+        <v>26.6745406824147</v>
       </c>
       <c r="CA5" t="n">
-        <v>13.39208998632967</v>
+        <v>15.87462613684917</v>
       </c>
       <c r="CB5" t="n">
-        <v>0.2713901061648193</v>
+        <v>0.5376976133797229</v>
       </c>
       <c r="CC5" t="n">
-        <v>0</v>
+        <v>0.03125190746505524</v>
       </c>
       <c r="CD5" t="n">
-        <v>2.251342907627994</v>
+        <v>0.1562595373252762</v>
       </c>
       <c r="CE5" t="n">
-        <v>0.7502441853430382</v>
+        <v>0.03125190746505524</v>
       </c>
       <c r="CF5" t="n">
-        <v>0.2477441553917024</v>
+        <v>0.03125190746505524</v>
       </c>
       <c r="CG5" t="n">
-        <v>55.00657635966398</v>
+        <v>51.9799792467802</v>
       </c>
       <c r="CH5" t="n">
-        <v>17.54237237825229</v>
+        <v>40.67002380516389</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45745</v>
+        <v>45752</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Bantamweight</t>
+          <t>Middleweight</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>2.171407418733028</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1.390297262801632</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>0.5883833956650681</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>0.08543457861755697</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>10.53127053950092</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>59.02094069576252</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>24.1402735676147</v>
       </c>
       <c r="J6" t="n">
-        <v>900</v>
+        <v>774</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="L6" t="n">
-        <v>0.66</v>
+        <v>0.55</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>36010</v>
+        <v>32132</v>
       </c>
       <c r="N6" t="n">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="O6" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>David Martinez</t>
+          <t>Brad Tavares</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -2011,487 +2011,487 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>3.07</v>
+        <v>3.31</v>
       </c>
       <c r="T6" t="n">
-        <v>5.27</v>
+        <v>3.43</v>
       </c>
       <c r="U6" t="n">
-        <v>0.49</v>
+        <v>0.43</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="X6" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>0.74</v>
       </c>
       <c r="Z6" t="n">
-        <v>135</v>
+        <v>185</v>
       </c>
       <c r="AA6" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>1.25061121216277</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>0.7503669448778996</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>54.72886576488379</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>20.6734751752216</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>0.0001221038401126862</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>3.959662119973547</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>2.912302653086927</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>4.656612873212918e-10</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0</v>
+        <v>60.85993530359036</v>
       </c>
       <c r="AK6" t="n">
-        <v>0</v>
+        <v>24.97607509111016</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>0.4053147428912615</v>
       </c>
       <c r="AM6" t="n">
         <v>0</v>
       </c>
       <c r="AN6" t="n">
-        <v>0</v>
+        <v>0.0009837901475766694</v>
       </c>
       <c r="AO6" t="n">
-        <v>0</v>
+        <v>4.769554032629664e-07</v>
       </c>
       <c r="AP6" t="n">
-        <v>0</v>
+        <v>2.385368205402122e-07</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0</v>
+        <v>61.81286829242774</v>
       </c>
       <c r="AR6" t="n">
-        <v>0</v>
+        <v>25.39533905524129</v>
       </c>
       <c r="AS6" t="n">
-        <v>5.857142857142857</v>
+        <v>2.181276112711407</v>
       </c>
       <c r="AT6" t="n">
-        <v>3.571428571428571</v>
+        <v>1.523987068648993</v>
       </c>
       <c r="AU6" t="n">
-        <v>2.571428571428571</v>
+        <v>0.8246708312600454</v>
       </c>
       <c r="AV6" t="n">
-        <v>2.285714285714286</v>
+        <v>0.6995781979872987</v>
       </c>
       <c r="AW6" t="n">
-        <v>3.857142857142857</v>
+        <v>85.90174746577904</v>
       </c>
       <c r="AX6" t="n">
-        <v>27.14285714285714</v>
+        <v>17.20460536825662</v>
       </c>
       <c r="AY6" t="n">
-        <v>10.85714285714286</v>
+        <v>8.449340159446889</v>
       </c>
       <c r="AZ6" t="n">
-        <v>746</v>
+        <v>510</v>
       </c>
       <c r="BA6" t="n">
-        <v>798</v>
+        <v>147</v>
       </c>
       <c r="BB6" t="n">
-        <v>0.48</v>
+        <v>0.53</v>
       </c>
       <c r="BC6" s="2" t="n">
-        <v>33349</v>
+        <v>32129</v>
       </c>
       <c r="BD6" t="n">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="BE6" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>Saimon Oliveira</t>
+          <t>Gerald Meerschaert</t>
         </is>
       </c>
       <c r="BG6" t="n">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>Orthodox</t>
+          <t>Southpaw</t>
         </is>
       </c>
       <c r="BI6" t="n">
-        <v>3.91</v>
+        <v>3.45</v>
       </c>
       <c r="BJ6" t="n">
-        <v>2.82</v>
+        <v>3.1</v>
       </c>
       <c r="BK6" t="n">
-        <v>0.41</v>
+        <v>0.45</v>
       </c>
       <c r="BL6" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="BM6" t="n">
-        <v>0.25</v>
+        <v>0.35</v>
       </c>
       <c r="BN6" t="n">
-        <v>0.35</v>
+        <v>0.42</v>
       </c>
       <c r="BO6" t="n">
-        <v>1.21</v>
+        <v>2.01</v>
       </c>
       <c r="BP6" t="n">
-        <v>135</v>
+        <v>185</v>
       </c>
       <c r="BQ6" t="n">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="BR6" t="n">
-        <v>0</v>
+        <v>3.566772462509293</v>
       </c>
       <c r="BS6" t="n">
-        <v>0</v>
+        <v>3.049560547475438</v>
       </c>
       <c r="BT6" t="n">
-        <v>22.28571428571428</v>
+        <v>19.11006692280313</v>
       </c>
       <c r="BU6" t="n">
-        <v>8</v>
+        <v>10.36990828006172</v>
       </c>
       <c r="BV6" t="n">
-        <v>0</v>
+        <v>0.0004883110532318963</v>
       </c>
       <c r="BW6" t="n">
-        <v>1.571428571428571</v>
+        <v>0.3047056265114152</v>
       </c>
       <c r="BX6" t="n">
-        <v>1.571428571428571</v>
+        <v>0.3045835561989152</v>
       </c>
       <c r="BY6" t="n">
-        <v>0</v>
+        <v>0.2500002388501414</v>
       </c>
       <c r="BZ6" t="n">
-        <v>29.71428571428571</v>
+        <v>21.59604866202595</v>
       </c>
       <c r="CA6" t="n">
-        <v>13.14285714285714</v>
+        <v>12.19847890490963</v>
       </c>
       <c r="CB6" t="n">
-        <v>0.4771428571428571</v>
+        <v>0.5653101948587556</v>
       </c>
       <c r="CC6" t="n">
-        <v>1.428571428571428</v>
+        <v>0.1880066699014602</v>
       </c>
       <c r="CD6" t="n">
-        <v>0</v>
+        <v>0.8616113985349005</v>
       </c>
       <c r="CE6" t="n">
-        <v>0</v>
+        <v>0.1954694098790297</v>
       </c>
       <c r="CF6" t="n">
-        <v>0</v>
+        <v>0.05107213168428106</v>
       </c>
       <c r="CG6" t="n">
-        <v>37.28571428571428</v>
+        <v>31.87545951704672</v>
       </c>
       <c r="CH6" t="n">
-        <v>20.42857142857143</v>
+        <v>20.46879455797706</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45745</v>
+        <v>45752</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Flyweight</t>
+          <t>Middleweight</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.9333333333333333</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4666666666666667</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>223.1333333333333</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>6.333333333333333</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1.933333333333333</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>800</v>
+        <v>538</v>
       </c>
       <c r="K7" t="n">
-        <v>196</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>36287</v>
+        <v>36092</v>
       </c>
       <c r="N7" t="n">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Torrez Finney</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
+        <v>75</v>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>Orthodox</t>
+        </is>
+      </c>
+      <c r="S7" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>10.04</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>185</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>98</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>409</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>224</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="BC7" s="2" t="n">
+        <v>34789</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>188</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF7" t="inlineStr">
+        <is>
+          <t>Robert Valentin</t>
+        </is>
+      </c>
+      <c r="BG7" t="n">
+        <v>77</v>
+      </c>
+      <c r="BH7" t="inlineStr">
+        <is>
+          <t>Orthodox</t>
+        </is>
+      </c>
+      <c r="BI7" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BL7" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN7" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="BO7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP7" t="n">
+        <v>185</v>
+      </c>
+      <c r="BQ7" t="n">
+        <v>11</v>
+      </c>
+      <c r="BR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT7" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY7" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ7" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC7" t="n">
         <v>2</v>
       </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>Ronaldo Rodriguez</t>
-        </is>
-      </c>
-      <c r="Q7" t="n">
-        <v>65</v>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>Orthodox</t>
-        </is>
-      </c>
-      <c r="S7" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>125</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>12.66666666666667</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>20.73333333333333</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>12.86666666666667</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>1.533333333333333</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>1.266666666666667</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>14.93333333333333</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>0.6293333333333333</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>0.1333333333333333</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>40.73333333333333</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>27.66666666666666</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>5.266666666666667</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>3.933333333333333</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>0.8666666666666667</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="AW7" t="n">
+      <c r="CD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG7" t="n">
+        <v>4</v>
+      </c>
+      <c r="CH7" t="n">
         <v>3</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>49.93333333333334</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>19.26666666666667</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>732</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>329</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="BC7" s="2" t="n">
-        <v>35770</v>
-      </c>
-      <c r="BD7" t="n">
-        <v>165</v>
-      </c>
-      <c r="BE7" t="n">
-        <v>3</v>
-      </c>
-      <c r="BF7" t="inlineStr">
-        <is>
-          <t>Kevin Borjas</t>
-        </is>
-      </c>
-      <c r="BG7" t="n">
-        <v>68</v>
-      </c>
-      <c r="BH7" t="inlineStr">
-        <is>
-          <t>Orthodox</t>
-        </is>
-      </c>
-      <c r="BI7" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="BJ7" t="n">
-        <v>4.92</v>
-      </c>
-      <c r="BK7" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="BL7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN7" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="BO7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP7" t="n">
-        <v>125</v>
-      </c>
-      <c r="BQ7" t="n">
-        <v>9</v>
-      </c>
-      <c r="BR7" t="n">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="BS7" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="BT7" t="n">
-        <v>43.8</v>
-      </c>
-      <c r="BU7" t="n">
-        <v>13.86666666666667</v>
-      </c>
-      <c r="BV7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW7" t="n">
-        <v>2.266666666666667</v>
-      </c>
-      <c r="BX7" t="n">
-        <v>2</v>
-      </c>
-      <c r="BY7" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="BZ7" t="n">
-        <v>51.33333333333333</v>
-      </c>
-      <c r="CA7" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="CB7" t="n">
-        <v>0.3833333333333333</v>
-      </c>
-      <c r="CC7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD7" t="n">
-        <v>1.533333333333333</v>
-      </c>
-      <c r="CE7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG7" t="n">
-        <v>51.93333333333334</v>
-      </c>
-      <c r="CH7" t="n">
-        <v>20.4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45745</v>
+        <v>45752</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -2499,181 +2499,181 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>6.936507936507936</v>
+        <v>0.8731822690165559</v>
       </c>
       <c r="D8" t="n">
-        <v>5.095238095238095</v>
+        <v>0.6225680933852139</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7619047619047619</v>
+        <v>0.06349279011215381</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7619047619047619</v>
+        <v>0.04762340733958953</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6190476190476191</v>
+        <v>16.35266651407645</v>
       </c>
       <c r="H8" t="n">
-        <v>60.38095238095238</v>
+        <v>9.350392919813839</v>
       </c>
       <c r="I8" t="n">
-        <v>25.80952380952381</v>
+        <v>3.523201342793927</v>
       </c>
       <c r="J8" t="n">
-        <v>613</v>
+        <v>405</v>
       </c>
       <c r="K8" t="n">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="L8" t="n">
-        <v>0.42</v>
+        <v>0.45</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>35091</v>
+        <v>33612</v>
       </c>
       <c r="N8" t="n">
         <v>170</v>
       </c>
       <c r="O8" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Edgar Chairez</t>
+          <t>Ode Osbourne</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Orthodox</t>
+          <t>Southpaw</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>5.21</v>
+        <v>4.01</v>
       </c>
       <c r="T8" t="n">
-        <v>3.45</v>
+        <v>3.26</v>
       </c>
       <c r="U8" t="n">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="V8" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>0.28</v>
       </c>
       <c r="X8" t="n">
-        <v>0.33</v>
+        <v>0.63</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="Z8" t="n">
         <v>125</v>
       </c>
       <c r="AA8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.126984126984127</v>
+        <v>6.538414587624933</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.126984126984127</v>
+        <v>4.537376974135958</v>
       </c>
       <c r="AD8" t="n">
-        <v>46.68253968253968</v>
+        <v>14.17401388570993</v>
       </c>
       <c r="AE8" t="n">
-        <v>15.61904761904762</v>
+        <v>6.619714656290531</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.01587301587301587</v>
+        <v>0.2510109102006561</v>
       </c>
       <c r="AG8" t="n">
-        <v>7.65079365079365</v>
+        <v>0.905104142824445</v>
       </c>
       <c r="AH8" t="n">
-        <v>5.984126984126984</v>
+        <v>0.8659189745937286</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.06349206349206349</v>
+        <v>0.5000076295109483</v>
       </c>
       <c r="AJ8" t="n">
-        <v>61.26984126984127</v>
+        <v>15.95230029755093</v>
       </c>
       <c r="AK8" t="n">
-        <v>26.6984126984127</v>
+        <v>8.108201724269474</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.4663492063492063</v>
+        <v>0.467376821545739</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.7142857142857142</v>
+        <v>0.7500114442664225</v>
       </c>
       <c r="AN8" t="n">
-        <v>0.5079365079365079</v>
+        <v>0.1077897306782635</v>
       </c>
       <c r="AO8" t="n">
-        <v>0</v>
+        <v>0.03930724040588998</v>
       </c>
       <c r="AP8" t="n">
-        <v>0</v>
+        <v>0.00945571068894484</v>
       </c>
       <c r="AQ8" t="n">
-        <v>63.84126984126984</v>
+        <v>19.50843060959793</v>
       </c>
       <c r="AR8" t="n">
-        <v>29.26984126984127</v>
+        <v>11.40503547722591</v>
       </c>
       <c r="AS8" t="n">
-        <v>8.977416647592889</v>
+        <v>0</v>
       </c>
       <c r="AT8" t="n">
-        <v>7.185198748760205</v>
+        <v>0</v>
       </c>
       <c r="AU8" t="n">
-        <v>1.080872816052491</v>
+        <v>0</v>
       </c>
       <c r="AV8" t="n">
-        <v>1.071702143892576</v>
+        <v>0</v>
       </c>
       <c r="AW8" t="n">
-        <v>3.216372930495155</v>
+        <v>0</v>
       </c>
       <c r="AX8" t="n">
-        <v>24.41622034027619</v>
+        <v>0</v>
       </c>
       <c r="AY8" t="n">
-        <v>12.75187304493782</v>
+        <v>0</v>
       </c>
       <c r="AZ8" t="n">
-        <v>614</v>
+        <v>900</v>
       </c>
       <c r="BA8" t="n">
-        <v>168</v>
+        <v>0</v>
       </c>
       <c r="BB8" t="n">
-        <v>0.53</v>
+        <v>0.58</v>
       </c>
       <c r="BC8" s="2" t="n">
-        <v>33407</v>
+        <v>34289</v>
       </c>
       <c r="BD8" t="n">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="BE8" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>CJ Vergara</t>
+          <t>Luis Gurule</t>
         </is>
       </c>
       <c r="BG8" t="n">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="BH8" t="inlineStr">
         <is>
@@ -2681,22 +2681,22 @@
         </is>
       </c>
       <c r="BI8" t="n">
-        <v>4.74</v>
+        <v>4.27</v>
       </c>
       <c r="BJ8" t="n">
-        <v>5.1</v>
+        <v>7</v>
       </c>
       <c r="BK8" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="BL8" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="BM8" t="n">
         <v>0</v>
       </c>
       <c r="BN8" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="BO8" t="n">
         <v>0</v>
@@ -2705,43 +2705,43 @@
         <v>125</v>
       </c>
       <c r="BQ8" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BR8" t="n">
-        <v>1.362691691462577</v>
+        <v>0</v>
       </c>
       <c r="BS8" t="n">
-        <v>1.142168307011521</v>
+        <v>0</v>
       </c>
       <c r="BT8" t="n">
-        <v>16.06907759212634</v>
+        <v>0</v>
       </c>
       <c r="BU8" t="n">
-        <v>6.63547722590982</v>
+        <v>0</v>
       </c>
       <c r="BV8" t="n">
         <v>0</v>
       </c>
       <c r="BW8" t="n">
-        <v>1.813290608072023</v>
+        <v>0</v>
       </c>
       <c r="BX8" t="n">
-        <v>1.145067521171893</v>
+        <v>0</v>
       </c>
       <c r="BY8" t="n">
-        <v>0.000976577401388571</v>
+        <v>0</v>
       </c>
       <c r="BZ8" t="n">
-        <v>26.85978484779125</v>
+        <v>0</v>
       </c>
       <c r="CA8" t="n">
-        <v>14.96574349584192</v>
+        <v>0</v>
       </c>
       <c r="CB8" t="n">
-        <v>0.5562044708934157</v>
+        <v>0</v>
       </c>
       <c r="CC8" t="n">
-        <v>0.007812619211108568</v>
+        <v>0</v>
       </c>
       <c r="CD8" t="n">
         <v>0</v>
@@ -2753,67 +2753,67 @@
         <v>0</v>
       </c>
       <c r="CG8" t="n">
-        <v>39.79638361181048</v>
+        <v>0</v>
       </c>
       <c r="CH8" t="n">
-        <v>27.11039902342259</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45745</v>
+        <v>45752</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Middleweight</t>
+          <t>Bantamweight</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5.333333333333333</v>
+        <v>21.79145364985984</v>
       </c>
       <c r="D9" t="n">
-        <v>1.333333333333333</v>
+        <v>12.16433881352215</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>0.3039338899720422</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>0.05178170866867188</v>
       </c>
       <c r="G9" t="n">
-        <v>32.66666666666666</v>
+        <v>1.59581845932383</v>
       </c>
       <c r="H9" t="n">
-        <v>32.33333333333333</v>
+        <v>81.31478183444791</v>
       </c>
       <c r="I9" t="n">
-        <v>13.33333333333333</v>
+        <v>38.49159086795358</v>
       </c>
       <c r="J9" t="n">
-        <v>900</v>
+        <v>726</v>
       </c>
       <c r="K9" t="n">
-        <v>217</v>
+        <v>112</v>
       </c>
       <c r="L9" t="n">
-        <v>0.48</v>
+        <v>0.55</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>33375</v>
+        <v>31399</v>
       </c>
       <c r="N9" t="n">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="O9" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Jose Daniel Medina</t>
+          <t>Davey Grant</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -2821,539 +2821,539 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>4.93</v>
+        <v>3.89</v>
       </c>
       <c r="T9" t="n">
-        <v>1.87</v>
+        <v>5.25</v>
       </c>
       <c r="U9" t="n">
-        <v>0.33</v>
+        <v>0.44</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="W9" t="n">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="X9" t="n">
-        <v>0.31</v>
+        <v>0.61</v>
       </c>
       <c r="Y9" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>135</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>16</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0.04310009279539227</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0.0391777937788969</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>41.37930766407979</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>11.08975691878526</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0.01611804962252023</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>18.49105450327573</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>15.32845463809374</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>5.983747542252749e-08</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>81.66181581721536</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>38.58255037040115</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0.4678968050632333</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0.01562547683806773</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0.6261510322584161</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>1.639546826577253e-05</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>1.587600447329902e-05</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>81.89902061252499</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>38.80400745907123</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>8.330708661417322</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>6.708661417322834</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>3.401574803149606</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>2.700787401574803</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>171.3464566929134</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>25.54330708661417</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>8.992125984251969</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>789</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>672</v>
+      </c>
+      <c r="BB9" t="n">
         <v>0.5</v>
       </c>
-      <c r="Z9" t="n">
-        <v>185</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>8</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>4</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>4</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>32.33333333333333</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>13.33333333333333</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>0.3733333333333333</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>37.33333333333333</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>17.66666666666666</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>540</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>0.5600000000000001</v>
-      </c>
       <c r="BC9" s="2" t="n">
-        <v>37356</v>
+        <v>34770</v>
       </c>
       <c r="BD9" t="n">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="BE9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>Ateba Gautier</t>
+          <t>Daniel Santos</t>
         </is>
       </c>
       <c r="BG9" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>Switch</t>
+          <t>Orthodox</t>
         </is>
       </c>
       <c r="BI9" t="n">
-        <v>1.22</v>
+        <v>5.12</v>
       </c>
       <c r="BJ9" t="n">
-        <v>5.33</v>
+        <v>4.26</v>
       </c>
       <c r="BK9" t="n">
-        <v>0.71</v>
+        <v>0.37</v>
       </c>
       <c r="BL9" t="n">
         <v>0</v>
       </c>
       <c r="BM9" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BN9" t="n">
-        <v>0.9</v>
+        <v>0.73</v>
       </c>
       <c r="BO9" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="BP9" t="n">
-        <v>185</v>
+        <v>135</v>
       </c>
       <c r="BQ9" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="BR9" t="n">
-        <v>0</v>
+        <v>17.07086614173228</v>
       </c>
       <c r="BS9" t="n">
-        <v>0</v>
+        <v>13.03937007874016</v>
       </c>
       <c r="BT9" t="n">
-        <v>0</v>
+        <v>33.40944881889764</v>
       </c>
       <c r="BU9" t="n">
-        <v>0</v>
+        <v>15.90551181102362</v>
       </c>
       <c r="BV9" t="n">
-        <v>0</v>
+        <v>0.1259842519685039</v>
       </c>
       <c r="BW9" t="n">
-        <v>0</v>
+        <v>4.275590551181102</v>
       </c>
       <c r="BX9" t="n">
-        <v>0</v>
+        <v>2.118110236220472</v>
       </c>
       <c r="BY9" t="n">
         <v>0</v>
       </c>
       <c r="BZ9" t="n">
-        <v>0</v>
+        <v>46.01574803149606</v>
       </c>
       <c r="CA9" t="n">
-        <v>0</v>
+        <v>24.73228346456693</v>
       </c>
       <c r="CB9" t="n">
-        <v>0</v>
+        <v>0.5228346456692914</v>
       </c>
       <c r="CC9" t="n">
         <v>0</v>
       </c>
       <c r="CD9" t="n">
-        <v>0</v>
+        <v>1.181102362204725</v>
       </c>
       <c r="CE9" t="n">
-        <v>0</v>
+        <v>0.6929133858267716</v>
       </c>
       <c r="CF9" t="n">
-        <v>0</v>
+        <v>0.5984251968503937</v>
       </c>
       <c r="CG9" t="n">
-        <v>0</v>
+        <v>76.62992125984252</v>
       </c>
       <c r="CH9" t="n">
-        <v>0</v>
+        <v>46.65354330708661</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45745</v>
+        <v>45752</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Featherweight</t>
+          <t>Women's Flyweight</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2.007446743575658</v>
+        <v>17.04113832303349</v>
       </c>
       <c r="D10" t="n">
-        <v>1.974180553012269</v>
+        <v>10.71735713740749</v>
       </c>
       <c r="E10" t="n">
-        <v>2.353598242080205</v>
+        <v>4.082841229877165</v>
       </c>
       <c r="F10" t="n">
-        <v>2.170359519013612</v>
+        <v>2.858167391470207</v>
       </c>
       <c r="G10" t="n">
-        <v>62.79423792956113</v>
+        <v>15.87277027542535</v>
       </c>
       <c r="H10" t="n">
-        <v>47.72660684856253</v>
+        <v>87.20666819256887</v>
       </c>
       <c r="I10" t="n">
-        <v>21.21784776902887</v>
+        <v>30.05044632639048</v>
       </c>
       <c r="J10" t="n">
-        <v>742</v>
+        <v>709</v>
       </c>
       <c r="K10" t="n">
-        <v>77</v>
+        <v>427</v>
       </c>
       <c r="L10" t="n">
-        <v>0.57</v>
+        <v>0.51</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>35781</v>
+        <v>35242</v>
       </c>
       <c r="N10" t="n">
         <v>170</v>
       </c>
       <c r="O10" t="n">
+        <v>9</v>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Diana Belbita</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
+        <v>68</v>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>Orthodox</t>
+        </is>
+      </c>
+      <c r="S10" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="T10" t="n">
+        <v>6.54</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>125</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0.6886091401541161</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0.4381170366979477</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>70.57660791943236</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>19.12271305409323</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0.0002441443503471427</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>4.360372320134279</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>3.506660563057908</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0.1250019073777371</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>91.97811856260013</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>33.34673075455863</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0.3775547417410544</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0.4416723887998779</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0.4063935301747158</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>0.3907072556649119</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>95.02085908293277</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>36.30922407873655</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>2.903225806451613</v>
+      </c>
+      <c r="AT10" t="n">
         <v>2</v>
       </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>Christian Rodriguez</t>
-        </is>
-      </c>
-      <c r="Q10" t="n">
-        <v>71</v>
-      </c>
-      <c r="R10" t="inlineStr">
+      <c r="AU10" t="n">
+        <v>0.7096774193548387</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>0.7096774193548387</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>32.16129032258064</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>19.25806451612903</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>8.032258064516128</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>692</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>259</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="BC10" s="2" t="n">
+        <v>33732</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>168</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF10" t="inlineStr">
+        <is>
+          <t>Dione Barbosa</t>
+        </is>
+      </c>
+      <c r="BG10" t="n">
+        <v>66</v>
+      </c>
+      <c r="BH10" t="inlineStr">
         <is>
           <t>Orthodox</t>
         </is>
       </c>
-      <c r="S10" t="n">
-        <v>2.41</v>
-      </c>
-      <c r="T10" t="n">
-        <v>3.54</v>
-      </c>
-      <c r="U10" t="n">
+      <c r="BI10" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BJ10" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BK10" t="n">
         <v>0.48</v>
       </c>
-      <c r="V10" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>145</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>7.617286211316609</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>5.315387902093634</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>52.40761765244461</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>23.94750656167979</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>3.282426905939083</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>2.781908075444058</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>0.5157785509369468</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>57.69749130195935</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>28.70359519013612</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>0.5248782274308734</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>0.02435451382530672</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>0.0833791124946591</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>0.05896355978758469</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>0.05310382713788683</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>71.6887017029848</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>39.750656167979</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>4.375366568914956</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>2.451612903225806</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>2.140762463343108</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>1.452590420332356</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>65.66177908113391</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>8.500488758553274</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>3.053763440860215</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>557</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>35</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="BC10" s="2" t="n">
-        <v>35322</v>
-      </c>
-      <c r="BD10" t="n">
-        <v>178</v>
-      </c>
-      <c r="BE10" t="n">
+      <c r="BL10" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BM10" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="BN10" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="BO10" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BP10" t="n">
+        <v>125</v>
+      </c>
+      <c r="BQ10" t="n">
         <v>7</v>
       </c>
-      <c r="BF10" t="inlineStr">
-        <is>
-          <t>Melquizael Costa</t>
-        </is>
-      </c>
-      <c r="BG10" t="n">
-        <v>71</v>
-      </c>
-      <c r="BH10" t="inlineStr">
-        <is>
-          <t>Southpaw</t>
-        </is>
-      </c>
-      <c r="BI10" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="BJ10" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="BK10" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="BL10" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="BM10" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="BN10" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="BO10" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="BP10" t="n">
-        <v>145</v>
-      </c>
-      <c r="BQ10" t="n">
-        <v>22</v>
-      </c>
       <c r="BR10" t="n">
-        <v>2.408602150537634</v>
+        <v>0.1290322580645161</v>
       </c>
       <c r="BS10" t="n">
-        <v>1.517106549364614</v>
+        <v>0.1290322580645161</v>
       </c>
       <c r="BT10" t="n">
-        <v>7.58553274682307</v>
+        <v>16.74193548387097</v>
       </c>
       <c r="BU10" t="n">
-        <v>2.990224828934506</v>
+        <v>6.451612903225806</v>
       </c>
       <c r="BV10" t="n">
         <v>0</v>
       </c>
       <c r="BW10" t="n">
-        <v>1.088954056695992</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="BX10" t="n">
-        <v>0.581622678396872</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="BY10" t="n">
-        <v>0.1251221896383187</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="BZ10" t="n">
-        <v>13.04985337243402</v>
+        <v>20.09677419354839</v>
       </c>
       <c r="CA10" t="n">
-        <v>6.023460410557185</v>
+        <v>8.870967741935484</v>
       </c>
       <c r="CB10" t="n">
-        <v>0.4706060606060606</v>
+        <v>0.427741935483871</v>
       </c>
       <c r="CC10" t="n">
-        <v>0.6412512218963832</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="CD10" t="n">
-        <v>0.9579667644183774</v>
+        <v>1.548387096774194</v>
       </c>
       <c r="CE10" t="n">
-        <v>0.6099706744868035</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="CF10" t="n">
-        <v>0.2636950146627566</v>
+        <v>0.5535483870967741</v>
       </c>
       <c r="CG10" t="n">
-        <v>29.78201368523949</v>
+        <v>27.25806451612903</v>
       </c>
       <c r="CH10" t="n">
-        <v>20.22091886608016</v>
+        <v>15.54838709677419</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45745</v>
+        <v>45752</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Women's Strawweight</t>
+          <t>Welterweight</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4.301944659394665</v>
+        <v>4.661448140900196</v>
       </c>
       <c r="D11" t="n">
-        <v>2.826447613962564</v>
+        <v>3.61252446183953</v>
       </c>
       <c r="E11" t="n">
-        <v>2.250478451198544</v>
+        <v>1.804305283757338</v>
       </c>
       <c r="F11" t="n">
-        <v>1.898106351471065</v>
+        <v>1.412915851272015</v>
       </c>
       <c r="G11" t="n">
-        <v>36.47474876010669</v>
+        <v>113.5499021526419</v>
       </c>
       <c r="H11" t="n">
-        <v>43.82864818601605</v>
+        <v>34.23091976516633</v>
       </c>
       <c r="I11" t="n">
-        <v>17.79220997979683</v>
+        <v>13.83953033268102</v>
       </c>
       <c r="J11" t="n">
-        <v>814</v>
+        <v>722</v>
       </c>
       <c r="K11" t="n">
-        <v>238</v>
+        <v>371</v>
       </c>
       <c r="L11" t="n">
-        <v>0.63</v>
+        <v>0.42</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>34218</v>
+        <v>34952</v>
       </c>
       <c r="N11" t="n">
-        <v>157</v>
+        <v>188</v>
       </c>
       <c r="O11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Loopy Godinez</t>
+          <t>Rhys McKee</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -3361,129 +3361,129 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>3.69</v>
+        <v>7.85</v>
       </c>
       <c r="T11" t="n">
-        <v>4.16</v>
+        <v>4.8</v>
       </c>
       <c r="U11" t="n">
-        <v>0.48</v>
+        <v>0.45</v>
       </c>
       <c r="V11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.41</v>
       </c>
       <c r="Y11" t="n">
-        <v>2.95</v>
+        <v>0</v>
       </c>
       <c r="Z11" t="n">
-        <v>115</v>
+        <v>170</v>
       </c>
       <c r="AA11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.1484567080970054</v>
+        <v>0.3913894324853229</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.08400173487234901</v>
+        <v>0.2661448140900196</v>
       </c>
       <c r="AD11" t="n">
-        <v>39.51999120286666</v>
+        <v>30.09393346379647</v>
       </c>
       <c r="AE11" t="n">
-        <v>15.04234506214092</v>
+        <v>10.34833659491194</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.0009765625002273737</v>
+        <v>0</v>
       </c>
       <c r="AG11" t="n">
-        <v>2.405647483050275</v>
+        <v>1.671232876712329</v>
       </c>
       <c r="AH11" t="n">
-        <v>1.905525390036759</v>
+        <v>1.557729941291585</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.3125000000727596</v>
+        <v>0</v>
       </c>
       <c r="AJ11" t="n">
-        <v>46.2275833453116</v>
+        <v>36.426614481409</v>
       </c>
       <c r="AK11" t="n">
-        <v>19.77431806614025</v>
+        <v>15.51859099804305</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.4174380612716633</v>
+        <v>0.4151467710371819</v>
       </c>
       <c r="AM11" t="n">
-        <v>0.5068367739456792</v>
+        <v>0</v>
       </c>
       <c r="AN11" t="n">
-        <v>1.274402168410458</v>
+        <v>1.530332681017613</v>
       </c>
       <c r="AO11" t="n">
-        <v>0.7583092965088574</v>
+        <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.5034235534033327</v>
+        <v>0</v>
       </c>
       <c r="AQ11" t="n">
-        <v>48.42314054710398</v>
+        <v>40.43444227005871</v>
       </c>
       <c r="AR11" t="n">
-        <v>21.07967113309532</v>
+        <v>18.38356164383562</v>
       </c>
       <c r="AS11" t="n">
-        <v>13.35483870967742</v>
+        <v>0</v>
       </c>
       <c r="AT11" t="n">
-        <v>11.32258064516129</v>
+        <v>0</v>
       </c>
       <c r="AU11" t="n">
-        <v>12.61290322580645</v>
+        <v>0</v>
       </c>
       <c r="AV11" t="n">
-        <v>10.25806451612903</v>
+        <v>0</v>
       </c>
       <c r="AW11" t="n">
-        <v>99.09677419354838</v>
+        <v>0</v>
       </c>
       <c r="AX11" t="n">
-        <v>32.35483870967742</v>
+        <v>0</v>
       </c>
       <c r="AY11" t="n">
-        <v>17.35483870967742</v>
+        <v>0</v>
       </c>
       <c r="AZ11" t="n">
-        <v>811</v>
+        <v>510</v>
       </c>
       <c r="BA11" t="n">
-        <v>168</v>
+        <v>0</v>
       </c>
       <c r="BB11" t="n">
-        <v>0.58</v>
+        <v>0.51</v>
       </c>
       <c r="BC11" s="2" t="n">
-        <v>35859</v>
+        <v>34437</v>
       </c>
       <c r="BD11" t="n">
-        <v>157</v>
+        <v>185</v>
       </c>
       <c r="BE11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>Julia Polastri</t>
+          <t>Daniel Frunza</t>
         </is>
       </c>
       <c r="BG11" t="n">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="BH11" t="inlineStr">
         <is>
@@ -3491,139 +3491,139 @@
         </is>
       </c>
       <c r="BI11" t="n">
-        <v>5.31</v>
+        <v>5.53</v>
       </c>
       <c r="BJ11" t="n">
-        <v>5.57</v>
+        <v>4.94</v>
       </c>
       <c r="BK11" t="n">
-        <v>0.54</v>
+        <v>0.44</v>
       </c>
       <c r="BL11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN11" t="n">
         <v>0.6</v>
       </c>
-      <c r="BM11" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="BN11" t="n">
-        <v>0.61</v>
-      </c>
       <c r="BO11" t="n">
-        <v>1.11</v>
+        <v>0</v>
       </c>
       <c r="BP11" t="n">
-        <v>115</v>
+        <v>170</v>
       </c>
       <c r="BQ11" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="BR11" t="n">
-        <v>1.161290322580645</v>
+        <v>0</v>
       </c>
       <c r="BS11" t="n">
-        <v>0.7741935483870968</v>
+        <v>0</v>
       </c>
       <c r="BT11" t="n">
-        <v>27.29032258064516</v>
+        <v>0</v>
       </c>
       <c r="BU11" t="n">
-        <v>12.03225806451613</v>
+        <v>0</v>
       </c>
       <c r="BV11" t="n">
         <v>0</v>
       </c>
       <c r="BW11" t="n">
-        <v>5.483870967741935</v>
+        <v>0</v>
       </c>
       <c r="BX11" t="n">
-        <v>5.032258064516129</v>
+        <v>0</v>
       </c>
       <c r="BY11" t="n">
         <v>0</v>
       </c>
       <c r="BZ11" t="n">
-        <v>46.12903225806451</v>
+        <v>0</v>
       </c>
       <c r="CA11" t="n">
-        <v>28.38709677419354</v>
+        <v>0</v>
       </c>
       <c r="CB11" t="n">
-        <v>0.5961290322580646</v>
+        <v>0</v>
       </c>
       <c r="CC11" t="n">
-        <v>0.1290322580645161</v>
+        <v>0</v>
       </c>
       <c r="CD11" t="n">
-        <v>0.7419354838709677</v>
+        <v>0</v>
       </c>
       <c r="CE11" t="n">
-        <v>0.2258064516129032</v>
+        <v>0</v>
       </c>
       <c r="CF11" t="n">
-        <v>0.2258064516129032</v>
+        <v>0</v>
       </c>
       <c r="CG11" t="n">
-        <v>66.03225806451613</v>
+        <v>0</v>
       </c>
       <c r="CH11" t="n">
-        <v>46.83870967741935</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45745</v>
+        <v>45752</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Lightweight</t>
+          <t>Women's Strawweight</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4.122581540385028</v>
+        <v>10.85891863320318</v>
       </c>
       <c r="D12" t="n">
-        <v>1.489586586755079</v>
+        <v>7.588989398238516</v>
       </c>
       <c r="E12" t="n">
-        <v>1.198856925419295</v>
+        <v>2.258400024986273</v>
       </c>
       <c r="F12" t="n">
-        <v>1.14706618645963</v>
+        <v>1.927178365511505</v>
       </c>
       <c r="G12" t="n">
-        <v>14.16390236086958</v>
+        <v>18.29779107517983</v>
       </c>
       <c r="H12" t="n">
-        <v>46.59542255183342</v>
+        <v>33.48700344252669</v>
       </c>
       <c r="I12" t="n">
-        <v>22.36944883797113</v>
+        <v>15.76882452221501</v>
       </c>
       <c r="J12" t="n">
-        <v>799</v>
+        <v>831</v>
       </c>
       <c r="K12" t="n">
-        <v>168</v>
+        <v>420</v>
       </c>
       <c r="L12" t="n">
-        <v>0.61</v>
+        <v>0.53</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>34551</v>
+        <v>35082</v>
       </c>
       <c r="N12" t="n">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="O12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Rafa Garcia</t>
+          <t>Loma Lookboonmee</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
@@ -3631,129 +3631,129 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>4.36</v>
+        <v>2.48</v>
       </c>
       <c r="T12" t="n">
-        <v>3.97</v>
+        <v>4.1</v>
       </c>
       <c r="U12" t="n">
-        <v>0.42</v>
+        <v>0.57</v>
       </c>
       <c r="V12" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="W12" t="n">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="X12" t="n">
-        <v>0.75</v>
+        <v>0.72</v>
       </c>
       <c r="Y12" t="n">
-        <v>3.38</v>
+        <v>1.9</v>
       </c>
       <c r="Z12" t="n">
-        <v>155</v>
+        <v>115</v>
       </c>
       <c r="AA12" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.5049135708396773</v>
+        <v>0.7509195210741808</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.2853013445383761</v>
+        <v>0.4696046041499625</v>
       </c>
       <c r="AD12" t="n">
-        <v>43.17572268282065</v>
+        <v>18.3559094323896</v>
       </c>
       <c r="AE12" t="n">
-        <v>21.35433547703527</v>
+        <v>5.796321581917186</v>
       </c>
       <c r="AF12" t="n">
         <v>0</v>
       </c>
       <c r="AG12" t="n">
-        <v>1.000888824886715</v>
+        <v>7.281494922994357</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.9578943051787878</v>
+        <v>4.780296511720779</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>0.03125000745058237</v>
       </c>
       <c r="AJ12" t="n">
-        <v>48.29919304809239</v>
+        <v>36.49632298858714</v>
       </c>
       <c r="AK12" t="n">
-        <v>23.80181636896914</v>
+        <v>18.16560749187648</v>
       </c>
       <c r="AL12" t="n">
-        <v>0.4482045165083487</v>
+        <v>0.503057575954813</v>
       </c>
       <c r="AM12" t="n">
-        <v>0.0004959108809999852</v>
+        <v>0.1250000298023295</v>
       </c>
       <c r="AN12" t="n">
-        <v>0.5191748233675114</v>
+        <v>0.6157447375642627</v>
       </c>
       <c r="AO12" t="n">
-        <v>0.1502533675448263</v>
+        <v>0.5328413326361973</v>
       </c>
       <c r="AP12" t="n">
-        <v>0.03281564369947609</v>
+        <v>0.4489457294811557</v>
       </c>
       <c r="AQ12" t="n">
-        <v>61.86677020395766</v>
+        <v>41.54595245026408</v>
       </c>
       <c r="AR12" t="n">
-        <v>36.65273745190499</v>
+        <v>21.77328676540536</v>
       </c>
       <c r="AS12" t="n">
-        <v>6.955565534201007</v>
+        <v>7.84313725490196</v>
       </c>
       <c r="AT12" t="n">
-        <v>4.332917156315722</v>
+        <v>5.749019607843137</v>
       </c>
       <c r="AU12" t="n">
-        <v>1.00721528386485</v>
+        <v>3.545098039215687</v>
       </c>
       <c r="AV12" t="n">
-        <v>0.9498136263326825</v>
+        <v>3.466666666666667</v>
       </c>
       <c r="AW12" t="n">
-        <v>9.882632746418064</v>
+        <v>7.027450980392157</v>
       </c>
       <c r="AX12" t="n">
-        <v>46.59157884561701</v>
+        <v>29.98039215686275</v>
       </c>
       <c r="AY12" t="n">
-        <v>19.54751738568781</v>
+        <v>14.00392156862745</v>
       </c>
       <c r="AZ12" t="n">
-        <v>736</v>
+        <v>564</v>
       </c>
       <c r="BA12" t="n">
-        <v>329</v>
+        <v>630</v>
       </c>
       <c r="BB12" t="n">
-        <v>0.55</v>
+        <v>0.6</v>
       </c>
       <c r="BC12" s="2" t="n">
-        <v>30278</v>
+        <v>33808</v>
       </c>
       <c r="BD12" t="n">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="BE12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>Vinc Pichel</t>
+          <t>Istela Nunes</t>
         </is>
       </c>
       <c r="BG12" t="n">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="BH12" t="inlineStr">
         <is>
@@ -3761,301 +3761,301 @@
         </is>
       </c>
       <c r="BI12" t="n">
-        <v>3.05</v>
+        <v>4.84</v>
       </c>
       <c r="BJ12" t="n">
-        <v>3.62</v>
+        <v>5.02</v>
       </c>
       <c r="BK12" t="n">
-        <v>0.46</v>
+        <v>0.45</v>
       </c>
       <c r="BL12" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="BM12" t="n">
-        <v>0.54</v>
+        <v>0</v>
       </c>
       <c r="BN12" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="BO12" t="n">
-        <v>2.78</v>
+        <v>0</v>
       </c>
       <c r="BP12" t="n">
-        <v>155</v>
+        <v>115</v>
       </c>
       <c r="BQ12" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="BR12" t="n">
-        <v>0.7506220843689299</v>
+        <v>1.254901960784314</v>
       </c>
       <c r="BS12" t="n">
-        <v>0.5900959863520859</v>
+        <v>0.1254901960784314</v>
       </c>
       <c r="BT12" t="n">
-        <v>32.37835330797995</v>
+        <v>24.66274509803922</v>
       </c>
       <c r="BU12" t="n">
-        <v>8.75144714676922</v>
+        <v>10.07450980392157</v>
       </c>
       <c r="BV12" t="n">
-        <v>9.536743235116774e-07</v>
+        <v>0.2509803921568627</v>
       </c>
       <c r="BW12" t="n">
-        <v>9.015497371669838</v>
+        <v>2.274509803921569</v>
       </c>
       <c r="BX12" t="n">
-        <v>8.003062695287635</v>
+        <v>1.772549019607843</v>
       </c>
       <c r="BY12" t="n">
-        <v>0.0001220703134094947</v>
+        <v>0</v>
       </c>
       <c r="BZ12" t="n">
-        <v>48.34941621385079</v>
+        <v>34.78039215686275</v>
       </c>
       <c r="CA12" t="n">
-        <v>21.08742699837258</v>
+        <v>17.59607843137255</v>
       </c>
       <c r="CB12" t="n">
-        <v>0.4434086542085458</v>
+        <v>0.5416862745098039</v>
       </c>
       <c r="CC12" t="n">
-        <v>0.0002442002314642089</v>
+        <v>0</v>
       </c>
       <c r="CD12" t="n">
-        <v>0.4825080222078265</v>
+        <v>0</v>
       </c>
       <c r="CE12" t="n">
-        <v>0.3180035376400019</v>
+        <v>0</v>
       </c>
       <c r="CF12" t="n">
-        <v>0.3146797716221196</v>
+        <v>0</v>
       </c>
       <c r="CG12" t="n">
-        <v>51.6402127343432</v>
+        <v>36.45098039215686</v>
       </c>
       <c r="CH12" t="n">
-        <v>23.71707362470831</v>
+        <v>19.25098039215686</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45745</v>
+        <v>45752</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Featherweight</t>
+          <t>Bantamweight</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>6.010803882072881</v>
+        <v>10.65315590282017</v>
       </c>
       <c r="D13" t="n">
-        <v>3.075566135628395</v>
+        <v>8.141863020388232</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6235732161386803</v>
+        <v>2.483945794164327</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2562412256607459</v>
+        <v>1.598827981931388</v>
       </c>
       <c r="G13" t="n">
-        <v>73.13483488982482</v>
+        <v>71.92833597851299</v>
       </c>
       <c r="H13" t="n">
-        <v>23.98351950192272</v>
+        <v>44.9152728604566</v>
       </c>
       <c r="I13" t="n">
-        <v>11.27571262894464</v>
+        <v>23.19692345256989</v>
       </c>
       <c r="J13" t="n">
-        <v>552</v>
+        <v>716</v>
       </c>
       <c r="K13" t="n">
+        <v>154</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="M13" s="2" t="n">
+        <v>31901</v>
+      </c>
+      <c r="N13" t="n">
+        <v>170</v>
+      </c>
+      <c r="O13" t="n">
+        <v>7</v>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Victor Henry</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>68</v>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>Switch</t>
+        </is>
+      </c>
+      <c r="S13" t="n">
+        <v>5.48</v>
+      </c>
+      <c r="T13" t="n">
+        <v>7.66</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>135</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>24</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>5.969478696129898</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>4.094249786350873</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>38.5346111585887</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>17.73507508240752</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>0.3750457819558052</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>4.180930289341961</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>3.013063118056404</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0.03125381516298376</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>53.36869735075082</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>28.89000122085216</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>0.5373006958857283</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>0.06250763032596753</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>2.254669759492125</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>1.00012208521548</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>0.2500305213038701</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>68.52814064216822</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>41.65364424368209</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>2.666666666666667</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>141.6666666666667</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>12.33333333333333</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>868</v>
+      </c>
+      <c r="BA13" t="n">
         <v>364</v>
       </c>
-      <c r="L13" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="M13" s="2" t="n">
-        <v>32713</v>
-      </c>
-      <c r="N13" t="n">
-        <v>178</v>
-      </c>
-      <c r="O13" t="n">
-        <v>8</v>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>Jamall Emmers</t>
-        </is>
-      </c>
-      <c r="Q13" t="n">
-        <v>74</v>
-      </c>
-      <c r="R13" t="inlineStr">
+      <c r="BB13" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="BC13" s="2" t="n">
+        <v>33815</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>168</v>
+      </c>
+      <c r="BE13" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF13" t="inlineStr">
+        <is>
+          <t>Pedro Falcao</t>
+        </is>
+      </c>
+      <c r="BG13" t="n">
+        <v>66</v>
+      </c>
+      <c r="BH13" t="inlineStr">
         <is>
           <t>Orthodox</t>
         </is>
       </c>
-      <c r="S13" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="T13" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="U13" t="n">
+      <c r="BI13" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BJ13" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BK13" t="n">
         <v>0.48</v>
       </c>
-      <c r="V13" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="W13" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="X13" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>145</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>20</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>4.77763535372032</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>3.371055362265763</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>19.10401025453213</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>8.331868400170908</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>0.5000305194408838</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>4.269913935176707</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>3.495574681071843</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>0.3750228895806629</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>29.38472807178172</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>14.90300921687115</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>0.5784813526216199</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>0.003906488433131905</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>1.378502105841421</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>0.2879814441799426</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>0.08384911188427027</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>37.30476713666606</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>19.97131172556919</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>6.333333333333333</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>2.333333333333333</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>2.333333333333333</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>1.266666666666667</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>45.6</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>19.53333333333333</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>6.066666666666666</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>234</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>182</v>
-      </c>
-      <c r="BB13" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="BC13" s="2" t="n">
-        <v>32957</v>
-      </c>
-      <c r="BD13" t="n">
-        <v>180</v>
-      </c>
-      <c r="BE13" t="n">
-        <v>7</v>
-      </c>
-      <c r="BF13" t="inlineStr">
-        <is>
-          <t>Gabriel Miranda</t>
-        </is>
-      </c>
-      <c r="BG13" t="n">
-        <v>71</v>
-      </c>
-      <c r="BH13" t="inlineStr">
-        <is>
-          <t>Orthodox</t>
-        </is>
-      </c>
-      <c r="BI13" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="BJ13" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="BK13" t="n">
-        <v>0.4</v>
-      </c>
       <c r="BL13" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="BM13" t="n">
-        <v>0.33</v>
+        <v>0.22</v>
       </c>
       <c r="BN13" t="n">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="BO13" t="n">
-        <v>3.85</v>
+        <v>2.07</v>
       </c>
       <c r="BP13" t="n">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="BQ13" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BR13" t="n">
         <v>0</v>
@@ -4064,319 +4064,319 @@
         <v>0</v>
       </c>
       <c r="BT13" t="n">
-        <v>13.93333333333333</v>
+        <v>22.33333333333333</v>
       </c>
       <c r="BU13" t="n">
-        <v>4.733333333333333</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="BV13" t="n">
         <v>0</v>
       </c>
       <c r="BW13" t="n">
-        <v>1.6</v>
+        <v>5</v>
       </c>
       <c r="BX13" t="n">
-        <v>0.2666666666666667</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="BY13" t="n">
         <v>0</v>
       </c>
       <c r="BZ13" t="n">
-        <v>21.86666666666667</v>
+        <v>30</v>
       </c>
       <c r="CA13" t="n">
-        <v>7.333333333333333</v>
+        <v>13</v>
       </c>
       <c r="CB13" t="n">
-        <v>0.3706666666666667</v>
+        <v>0.4566666666666666</v>
       </c>
       <c r="CC13" t="n">
-        <v>0.2666666666666667</v>
+        <v>0</v>
       </c>
       <c r="CD13" t="n">
-        <v>2.866666666666667</v>
+        <v>4.666666666666666</v>
       </c>
       <c r="CE13" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="CF13" t="n">
-        <v>0.2886666666666666</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="CG13" t="n">
-        <v>26.66666666666666</v>
+        <v>36</v>
       </c>
       <c r="CH13" t="n">
-        <v>11.4</v>
+        <v>17.66666666666666</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45745</v>
+        <v>45752</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Lightweight</t>
+          <t>Women's Strawweight</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>8.666666666666666</v>
+        <v>6.042129596957391</v>
       </c>
       <c r="D14" t="n">
+        <v>4.195852653222376</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1.78022151989273</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1.181846965497905</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1.987247442717443</v>
+      </c>
+      <c r="H14" t="n">
+        <v>81.77568965089731</v>
+      </c>
+      <c r="I14" t="n">
+        <v>28.95967285093851</v>
+      </c>
+      <c r="J14" t="n">
+        <v>739</v>
+      </c>
+      <c r="K14" t="n">
+        <v>210</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="M14" s="2" t="n">
+        <v>32408</v>
+      </c>
+      <c r="N14" t="n">
+        <v>157</v>
+      </c>
+      <c r="O14" t="n">
+        <v>6</v>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Vanessa Demopoulos</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
+        <v>59</v>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>Orthodox</t>
+        </is>
+      </c>
+      <c r="S14" t="n">
+        <v>5.53</v>
+      </c>
+      <c r="T14" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>115</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0.5524951028730447</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0.4104049881076586</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>74.61057970157566</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>23.46318524014519</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0.000488282181324351</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>3.455696975130034</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>2.892886911176512</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0.06250011920951692</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>84.10840627366309</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>30.55192480454408</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>0.3830138454701337</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>3.051763633277194e-05</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>1.286438534619397</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>0.001251223089643649</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>0.0007629409083192984</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>96.22772832437195</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>41.06598485180827</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>6</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>3.142857142857142</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>2.285714285714286</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>46</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>43.57142857142857</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>900</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>238</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="BC14" s="2" t="n">
+        <v>33163</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>155</v>
+      </c>
+      <c r="BE14" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF14" t="inlineStr">
+        <is>
+          <t>Talita Alencar</t>
+        </is>
+      </c>
+      <c r="BG14" t="n">
+        <v>58</v>
+      </c>
+      <c r="BH14" t="inlineStr">
+        <is>
+          <t>Orthodox</t>
+        </is>
+      </c>
+      <c r="BI14" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BJ14" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BK14" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="BL14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM14" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="BN14" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BO14" t="n">
+        <v>2</v>
+      </c>
+      <c r="BP14" t="n">
+        <v>115</v>
+      </c>
+      <c r="BQ14" t="n">
         <v>5</v>
       </c>
-      <c r="E14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1</v>
-      </c>
-      <c r="G14" t="n">
-        <v>74.33333333333333</v>
-      </c>
-      <c r="H14" t="n">
-        <v>47.66666666666666</v>
-      </c>
-      <c r="I14" t="n">
-        <v>17</v>
-      </c>
-      <c r="J14" t="n">
-        <v>575</v>
-      </c>
-      <c r="K14" t="n">
-        <v>420</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="M14" s="2" t="n">
-        <v>35399</v>
-      </c>
-      <c r="N14" t="n">
-        <v>178</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1</v>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>MarQuel Mederos</t>
-        </is>
-      </c>
-      <c r="Q14" t="n">
-        <v>69</v>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>Orthodox</t>
-        </is>
-      </c>
-      <c r="S14" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="T14" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>155</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>9</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>34.33333333333333</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>8.333333333333332</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>5.666666666666666</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>4.666666666666667</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>48.66666666666666</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>18</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>0.3633333333333333</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>54.66666666666666</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>22.33333333333333</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>11.20821205402052</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>7.224109626534869</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>4.91704782596373</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>1.877451118154857</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>8.603774863594021</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>55.54871098842355</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>19.06903147903179</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>759</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>175</v>
-      </c>
-      <c r="BB14" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="BC14" s="2" t="n">
-        <v>33594</v>
-      </c>
-      <c r="BD14" t="n">
-        <v>178</v>
-      </c>
-      <c r="BE14" t="n">
-        <v>8</v>
-      </c>
-      <c r="BF14" t="inlineStr">
-        <is>
-          <t>Austin Hubbard</t>
-        </is>
-      </c>
-      <c r="BG14" t="n">
-        <v>71</v>
-      </c>
-      <c r="BH14" t="inlineStr">
-        <is>
-          <t>Orthodox</t>
-        </is>
-      </c>
-      <c r="BI14" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="BJ14" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="BK14" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="BL14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM14" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="BN14" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="BO14" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="BP14" t="n">
-        <v>155</v>
-      </c>
-      <c r="BQ14" t="n">
-        <v>17</v>
-      </c>
       <c r="BR14" t="n">
-        <v>0.07495904192206387</v>
+        <v>3.428571428571428</v>
       </c>
       <c r="BS14" t="n">
-        <v>0.04175496225818879</v>
+        <v>2</v>
       </c>
       <c r="BT14" t="n">
-        <v>46.37878207501119</v>
+        <v>41.85714285714285</v>
       </c>
       <c r="BU14" t="n">
-        <v>11.25020680577179</v>
+        <v>7.571428571428571</v>
       </c>
       <c r="BV14" t="n">
         <v>0</v>
       </c>
       <c r="BW14" t="n">
-        <v>2.953723727277628</v>
+        <v>2.285714285714286</v>
       </c>
       <c r="BX14" t="n">
-        <v>2.513921127138171</v>
+        <v>0.7142857142857142</v>
       </c>
       <c r="BY14" t="n">
-        <v>0.0009765625291038313</v>
+        <v>0</v>
       </c>
       <c r="BZ14" t="n">
-        <v>60.54071785630935</v>
+        <v>50.14285714285714</v>
       </c>
       <c r="CA14" t="n">
-        <v>20.98823755944483</v>
+        <v>11.28571428571428</v>
       </c>
       <c r="CB14" t="n">
-        <v>0.3320434252036639</v>
+        <v>0.23</v>
       </c>
       <c r="CC14" t="n">
         <v>0</v>
       </c>
       <c r="CD14" t="n">
-        <v>4.646610398489546</v>
+        <v>3.571428571428571</v>
       </c>
       <c r="CE14" t="n">
-        <v>0.3087177368616383</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="CF14" t="n">
-        <v>0.1053963025032372</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="CG14" t="n">
-        <v>61.76252131946448</v>
+        <v>55.71428571428571</v>
       </c>
       <c r="CH14" t="n">
-        <v>22.04424467814698</v>
+        <v>14.71428571428571</v>
       </c>
     </row>
   </sheetData>
